--- a/produtos_ordenados.xlsx
+++ b/produtos_ordenados.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,1000 +465,1040 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saco Para Até 10 Bolas / Porta Bolas Fio 4mm Branco</t>
+          <t>Mini Maquina De Lavar Roupa Portátil Dobrável Centrifuga 11l</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>14.9</v>
+        <v>222.25</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_720045-MLU72700298625_112023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_716948-MLB81818739364_012025-V.webp</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/saco-para-ate-10-bolas-porta-bolas-fio-4mm-branco/p/MLB25996601#polycard_client=search-nordic&amp;searchVariation=MLB25996601&amp;wid=MLB4147585512&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=X1ystcb41xamFz9w5ErWAmseIHY6WMpMjTwUXGHtZ2U0RXVJMzXjXtHCD%2BwuieYw9t%2FggdFhznauQ%2FfxhUkD9a84Z%2FtDvaQeZgWuOB27GpRZRsmcVYCyOtcvl%2B0orbqnUbWDB2hJmbg4vWRWftCz3fUQKEmXFe%2FH6BJEBn0EGSqYezPCZflODPHuUWQrJ0T0%2B%2FEjuWCkF81Q2F%2FsJd%2Fpb%2FlKrB024avIQ4Tv6NCbnNjNk8%2FHiFbE%2BzU32AghNDfWYNcs1JXY8iaAcKMSTkhi6zUlNwbAbyIKydCzJRL8%2BPVIEjDSKaGSoP3fr%2FfvoKlp4fltXHzHhyzj9ekaloOWVDT0QZPQwnMuZAj6rl2BCLtZnUoM3K%2B3zMYtiULydK2W25Oa3yVptgQHsAFlXCs4zZGyXYR1RzhLbI8NMU8q%2BHUtRxN7CUWx%2BfV5ERBm%2FPfCS%2BMCgxtdZSjR7kE9VGMEcOGQO4WNO6Tsya8iRcLsJDD%2B%2FhzcY7G8yQKxp5clI52VGdeOIYB1%2Behq%2BN9ve03%2Bz%2FGB7cvHPgqqbdg4R7RDRN5aaZpZO9XchxH1CHRlAFegV3uEcRrT8RfOLa005mdBtZl5iaR2u9ZtXXedX7SRCBeadpL7jrUM9MKKf06dw6muRJrycLUZm7tMPUz5W%2BNkBIiKAiXUCgpvr3rfCGXSsSE8lsm0a3VJMNfEcJPs02KuSlt0FXwB9vdYm8V18M1GQB61mq5LNDeL6deZWWEHq9MDPzXCQ6i%2FPIHiykt2C%2B06qN7usfD45k2Wk8zCCyWTTPBgCp4jzdUPzK5uIEgdhGEJzVfDfSgh1SKD0Az0rcRRObMC0GvP1dLtSeoL4YnlS29HFpug%2B5IKrDBee8uFYLG8nRaWEw%3D%3D&amp;rb=x#polycard_client=search-nordic&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mini Bola Futebol Bebe Criança Infantil Costurada Colorida</t>
+          <t>Lavadora Semiautomática 110v 4kg Wanke Super Branca</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>22.15</v>
+        <v>418.9</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_671162-MLU70065368711_062023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_649226-MLB82010457360_022025-V.webp</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/mini-bola-futebol-bebe-crianca-infantil-costurada-colorida/p/MLB21521235#polycard_client=search-nordic&amp;searchVariation=MLB21521235&amp;wid=MLB5200305170&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=WYL6B8H8GdPuKyh8sEvikvMjegBvq7%2Bryw8Slc11M3KSJep9HVLDahVv6PmmZ2SRcTxkVOaJ2TJaIGNDkIyIW8sV5uqveDcZnbIAO0aIas1B24KJylQRuhKeP9%2FKY5%2BMqljfIQ8lyZ%2FRS%2F32PD%2B6FBjoe9xzW7op0gtmriceZlZGgN2eZcUlygLbmPMB1Abzj%2FZlrNJzYrCJGotBHGU6AylpuIr92ep9ytQhmyVcOdd5txt2Qfx1CsFJ4VswHpPMz609%2B5e5QQVMtsaLSTk43eqkG2Hi5dt1HsXU04tR43J2o0ksS%2Bqe2h%2BCGzDXS3rKbtnzXllr3jsUwSalFOrYWtyfe81GyrwJ%2BjnkptN0yJVuT61BeKXT3N0SQnfuDs%2FgUElp7N%2B0jcLsPyh%2BGqiGXxz4wYiUhWsHcSl5OBIajNJBC4snj8E1iH4p3m89c6DtCiDmfJVvbdY9QuRvO0s4eULy9lialCFtW%2F%2Fc48RXpa9Rh%2BeVmPBGTmi21xRduEh116OsZu%2BBv2blwUIj%2F1TJl6i61D2atroVPtC0uqpMnobgkkKKRmVrof5hRbbqgueEH%2FiMtD%2ByFzXuLsHcmS93yQg4CQzIWSoUWgCXEv5BMRmrY7iw7nopMLqxbPyFMMEKx4NRUFGcizPLb9Zy%2BL6wMFBsMr3NH7kcQIzDP4m24gRjtyV5nd2klKkt%2Fd7vwkEVyfo%2BDFApf0NBsgT0TYH7fXtNCWTQEAxHkv1YsFvtVKfTEjsCi%2BX7i1et5i3pG2nNqLskW8G%2F2quyMD1Aawl2F4ihF9ooAlPL4KeV5ofy0LQ%2Bj9zzWUruMrIED5cpUZaB4yAxId5IMBwoa5T3INsjY0vye3G6xX%2Faxtw%3D&amp;rb=x#polycard_client=search-nordic&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kiko Bola Gigante Revestida Com Tecido</t>
+          <t>Tanquinho Suggar Neo Turbilhão 8kg Le8002br 220v Cor Branco</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>29.99</v>
+        <v>455.01</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_699580-MLB79544209823_092024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_734374-MLU77348996425_062024-V.webp</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3860184859-kiko-bola-gigante-revestida-com-tecido-_JM?searchVariation=181772396986#polycard_client=search-nordic&amp;searchVariation=181772396986&amp;position=41&amp;search_layout=grid&amp;type=item&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661</t>
+          <t>https://www.mercadolivre.com.br/tanquinho-suggar-neo-turbilho-8kg-le8002br-220v-cor-branco/p/MLB36727621#polycard_client=search-nordic&amp;searchVariation=MLB36727621&amp;wid=MLB5057364952&amp;position=40&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Trave Futebol Gol Kit Mini Golzinho Infantil Brinquedo Bola</t>
+          <t>Suggar Lavamax Eco LE8001BR tanquinho branco 110V</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>32.37</v>
+        <v>477.63</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_764435-MLA79889067517_102024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_903787-MLU77149873678_062024-V.webp</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/trave-futebol-gol-kit-mini-golzinho-infantil-brinquedo-bola/p/MLB41775954#polycard_client=search-nordic&amp;searchVariation=MLB41775954&amp;wid=MLB3888940491&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/suggar-lavamax-eco-le8001br-tanquinho-branco-110v/p/MLB35352522#polycard_client=search-nordic&amp;searchVariation=MLB35352522&amp;wid=MLB3864921779&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bola De Iniciação Da Athi Tamanho 12 Verde Com Borracha</t>
+          <t>Tanquinho Libell 20,5 Kg Com Lavagem Por Turbilhonamento Branca 110v</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>34.9</v>
+        <v>529.9</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_954063-MLB82678478963_022025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_829414-MLU78948300574_092024-V.webp</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=WCBT4VNj3FVeIJHYXBxa4%2BVqmWGFxW0ZYWN5BP3vLOke7YupXg6hpZ1LkdK567zjlDaPTuHtPT8S%2FLtGar0zO%2BXfhrU9Lh%2BRUQUaKboi0te0TxjG4icasA4f9an9O1zApj0rfyc50EhpTAxNRUIxACRzNmTXIvTObnSs0en0MfrTad8VBG9vd4HpXozQ%2FmvdmOufK1qQwl3xfHWPfEK0%2FYTY%2BbaY3HgAJpU7QY1qC%2FTik5ypShx18s7XLHYjuQBDA0OMou7lyuclRLJ4VEFFRFRf5OvVIR4hJeYt34AkL%2BhSihmKkI6Bss4gUKd5xd1P8MqIgkiNmpcXwfKQMsrB4OsBJLU2LXzB5VT0P2r1fHYLI45zzKvaX0EGf3UdARQiK6eobeQLVqSt7JY56gHINtqYkuGe34mBsI9K1rrmC%2FDqxiEiULyGUjkth2tyHUWVBVXfpF9U3PKOo3UIhO4cIELQmqL7Y%2BvSOWITdMzEZzHDH3LEoxz%2BeRDB1NT7A0ADXVvxTDpaIypCyrquFZdIgdYxJkjAwO%2BOcI961k%2BNxE836SbkslD%2BkLFU38q5QTmhu2BIJm2QzJSqwsRYCs6cqEbGYApLcEpb3tE6jwXhaOHHGKLTAS%2Ft8Y9ST4Cizxedo5cqScYKTXx1r%2BKWr9I2CR4HQrUtksy974zxgTe3Uyvp6aesZsjLZcQxpCt%2BZSkPi9iOKZJyl4bpdRufTl4%2FdgEaJrhYbVKyx6o8dQ16dAO4rS0J8a3DSe7rSwhB5v4aWJZ25iyhZlqUz7U4mwKMw6sXRu1XQwn5aKeMl%2F%2FC1X%2F85%2FnM1tm9FTpr%2FcVlfWx%2FhJvlV2jqxWVM%2FDURzXlJBi2uAHWeiOJpi5waFR0%3D&amp;rb=x#polycard_client=search-nordic&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661</t>
+          <t>https://www.mercadolivre.com.br/tanquinho-libell-205-kg-com-lavagem-por-turbilhonamento-branca-110v/p/MLB38622511#polycard_client=search-nordic&amp;searchVariation=MLB38622511&amp;wid=MLB3792112525&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bola De Iniciação Da Athi Tamanho 12 Verde Com Borracha</t>
+          <t>Libell 50020063 lavadora semiautomática prata 110V</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>34.9</v>
+        <v>533.4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_954063-MLB82678478963_022025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_821628-MLU78253349546_082024-V.webp</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-5297929458-bola-de-iniciaco-da-athi-tamanho-12-verde-com-borracha-_JM?searchVariation=187036388755#polycard_client=search-nordic&amp;searchVariation=187036388755&amp;position=39&amp;search_layout=grid&amp;type=item&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661</t>
+          <t>https://www.mercadolivre.com.br/libell-50020063-lavadora-semiautomatica-prata-110v/p/MLB38501929#polycard_client=search-nordic&amp;searchVariation=MLB38501929&amp;wid=MLB4932140502&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bola De Iniciação Vollo T12 Cor Vermelho</t>
+          <t>Lavadora Lavamax Eco 15kg Preta Suggar Cor Preto 220V</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>38.16</v>
+        <v>547.48</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_936723-MLU75437135522_042024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_890503-MLA80574682681_112024-V.webp</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-iniciaco-vollo-t12-cor-vermelho/p/MLB21012222#polycard_client=search-nordic&amp;searchVariation=MLB21012222&amp;wid=MLB3369859779&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/lavadora-lavamax-eco-15kg-preta-suggar-cor-preto-220v/p/MLB36969891#polycard_client=search-nordic&amp;searchVariation=MLB36969891&amp;wid=MLB4695470976&amp;position=44&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bola Iniciação Penalty T08 - Infantil Cor Vermelho</t>
+          <t>Tanquinho Colormaq 13kg Cor Branco 127V</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>43.91</v>
+        <v>579.99</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_734294-MLU79195616377_092024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_847215-MLU72998814050_112023-V.webp</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-iniciaco-penalty-t08-infantil-cor-vermelho/p/MLB19876529#polycard_client=search-nordic&amp;searchVariation=MLB19876529&amp;wid=MLB3532874517&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/tanquinho-colormaq-13kg-cor-branco-127v/p/MLB28654464#polycard_client=search-nordic&amp;searchVariation=MLB28654464&amp;wid=MLB4445963928&amp;position=29&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bola De Vôlei 3.5 Texturizada Amarela Rainha Topper</t>
+          <t>Máquina de lavar semi-automática Tanquinho Colormaq 10kg 127V prata</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45.48</v>
+        <v>609.99</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_875461-MLU78119836106_082024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_979428-MLU75194455651_032024-V.webp</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-vlei-35-texturizada-amarela-rainha-topper/p/MLB21012198#polycard_client=search-nordic&amp;searchVariation=MLB21012198&amp;wid=MLB5016959272&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-semi-automatica-tanquinho-colormaq-10kg-127v-prata/p/MLB14815389#polycard_client=search-nordic&amp;searchVariation=MLB14815389&amp;wid=MLB3985806643&amp;position=36&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bola De Futebol De Campo Slick 2020 Topper Cor Amarelo Neon/Preto</t>
+          <t>Máquina de lavar semi-automática Tanquinho Colormaq LCS 20kg 127V - prata</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>52.52</v>
+        <v>629.9</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_969183-MLU75988202853_042024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_914751-MLA52222533871_102022-V.webp</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-de-campo-slick-2020-topper-cor-amarelo-neonpreto/p/MLB19754376#polycard_client=search-nordic&amp;searchVariation=MLB19754376&amp;wid=MLB4407933834&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-semi-automatica-tanquinho-colormaq-lcs-20kg-127v-prata/p/MLB18925150#polycard_client=search-nordic&amp;searchVariation=MLB18925150&amp;wid=MLB5088434214&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bola De Futebol Para Campo 22 I Topper Cor Branco/Verde Mar/Preto</t>
+          <t>Lavadora de Roupas Semiautomática Tanquinho Colormaq Lcs 20kg Capacidade</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>54.59</v>
+        <v>629.9</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_967540-MLU69495823375_052023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_776576-MLA79219948314_092024-V.webp</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-para-campo-22-i-topper-cor-brancoverde-marpreto/p/MLB22272252#polycard_client=search-nordic&amp;searchVariation=MLB22272252&amp;wid=MLB3942733007&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/lavadora-de-roupas-semiautomatica-tanquinho-colormaq-lcs-20kg-capacidade/p/MLB18925149#polycard_client=search-nordic&amp;searchVariation=MLB18925149&amp;wid=MLB5088428664&amp;position=31&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bola Futebol Society Ótimo Custo Beneficio Peso Ideal Top Cor Azul</t>
+          <t>Máquina de lavar Roupas semi-automática Tanquinho Colormaq LCS 20kg 220V - prata</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>54.98</v>
+        <v>629.9</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_862896-MLU69453002841_052023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_750158-MLA52231558421_112022-V.webp</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-futebol-society-otimo-custo-beneficio-peso-ideal-top-cor-azul/p/MLB23339357#polycard_client=search-nordic&amp;searchVariation=MLB23339357&amp;wid=MLB5105345848&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-roupas-semi-automatica-tanquinho-colormaq-lcs-20kg-220v-prata/p/MLB18925151#polycard_client=search-nordic&amp;searchVariation=MLB18925151&amp;wid=MLB5088434216&amp;position=35&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bola De Futebol Slick Campo Cor Azul/Branco/Preto Topper</t>
+          <t>Máquina de Lavar Electrolux 8,5kg Branca Turbo Economia com Jet&amp;Clean e Filtro Fiapos (LAC09) - 127V</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>55.28</v>
+        <v>1489</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_979047-MLU71168535619_082023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_810765-MLU77347944455_062024-V.webp</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-slick-campo-cor-azulbrancopreto-topper/p/MLB19765484#polycard_client=search-nordic&amp;searchVariation=MLB19765484&amp;wid=MLB4091776980&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-electrolux-85kg-branca-turbo-economia-com-jetclean-e-filtro-fiapos-lac09-127v/p/MLB8802700#polycard_client=search-nordic&amp;searchVariation=MLB8802700&amp;wid=MLB3608595237&amp;position=28&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bola De Futsal Slick 22 Topper Cor Branco/Amarelo Neon/Azul</t>
+          <t>Máquina de Lavar Electrolux 8,5kg Branca Turbo Economia com Jet&amp;Clean e Filtro Fiapos (LAC09) - 220V</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>58.56</v>
+        <v>1489</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_656329-MLB54078855245_022023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_684734-MLU77344393799_062024-V.webp</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futsal-slick-22-topper-cor-brancoamarelo-neonazul/p/MLB22262771#polycard_client=search-nordic&amp;searchVariation=MLB22262771&amp;wid=MLB3820042822&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-electrolux-85kg-branca-turbo-economia-com-jetclean-e-filtro-fiapos-lac09-220v/p/MLB8802701#polycard_client=search-nordic&amp;searchVariation=MLB8802701&amp;wid=MLB2798035670&amp;position=49&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bola De Futebol Campo Slick Cup Topper</t>
+          <t>Máquina de lavar Electrolux 10,5kg branca turbo 127V com Jet&amp;Clean e filtro fiapos LAC11</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>59.15</v>
+        <v>1549</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_659913-MLA80298884457_102024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_671377-MLU77136665638_062024-V.webp</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-campo-slick-cup-topper/p/MLB19698380#polycard_client=search-nordic&amp;searchVariation=MLB19698380&amp;wid=MLB5189140588&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-electrolux-105kg-branca-turbo-127v-com-jetclean-e-filtro-fiapos-lac11/p/MLB6352461#polycard_client=search-nordic&amp;searchVariation=MLB6352461&amp;wid=MLB2797980682&amp;position=33&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bola De Futebol Campo Tamanho N°5 Pvc Reforçada Convoy Sport</t>
+          <t>Colormaq Máquina de lavar Roupas Automática LCA 12kg 127 V Cor Branco</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>59.99</v>
+        <v>1629</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_927859-MLB82422952882_022025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_939876-MLU72826758422_112023-V.webp</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-5299190560-bola-de-futebol-campo-tamanho-n5-pvc-reforcada-convoy-sport-_JM?searchVariation=187048674427#polycard_client=search-nordic&amp;searchVariation=187048674427&amp;position=48&amp;search_layout=grid&amp;type=item&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661</t>
+          <t>https://www.mercadolivre.com.br/colormaq-maquina-de-lavar-roupas-automatica-lca-12kg-127-v-cor-branco/p/MLB15805357#polycard_client=search-nordic&amp;searchVariation=MLB15805357&amp;wid=MLB4334658152&amp;position=34&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Topper Futsal Slick Bola Futebol Salão Branco Com Azul</t>
+          <t>Máquina de Lavar Consul CWB09BB 9kg Branca com Dosagem Econômica e Ciclo Edredom 110V</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>62.05</v>
+        <v>1679</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_880504-MLU71134471481_082023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_998540-MLU72748459545_112023-V.webp</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/topper-futsal-slick-bola-futebol-salo-branco-com-azul/p/MLB26148855#polycard_client=search-nordic&amp;searchVariation=MLB26148855&amp;wid=MLB4703197748&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-consul-cwb09bb-9kg-branca-com-dosagem-econmica-e-ciclo-edredom-110v/p/MLB19690291#polycard_client=search-nordic&amp;searchVariation=MLB19690291&amp;wid=MLB5079884600&amp;position=42&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bola De Futsal Slick 2020 Topper</t>
+          <t>Máquina De Lavar Midea MA512W130A 13kg Wave Agitator Branca 220v</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>62.99</v>
+        <v>1699</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_639965-MLA53298422445_012023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_755507-MLA79658397779_092024-V.webp</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futsal-slick-2020-topper/p/MLB22272253#polycard_client=search-nordic&amp;searchVariation=MLB22272253&amp;wid=MLB3963035211&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-midea-ma512w130a-13kgwaveagitatorbranca-220v/p/MLB38510489#polycard_client=search-nordic&amp;searchVariation=MLB38510489&amp;wid=MLB5084618562&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bola Para Futebol De Campo Bravo Xxiv Branco e Azul Penalty</t>
+          <t>Máquina De Lavar 9kg Efficient Care Led09 Branco Electrolux 110V</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>66.98999999999999</v>
+        <v>1782</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_698520-MLU75981724023_042024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_880633-MLU77190169068_072024-V.webp</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-para-futebol-de-campo-bravo-xxiv-branco-e-azul-penalty/p/MLB27895686#polycard_client=search-nordic&amp;searchVariation=MLB27895686&amp;wid=MLB5230782524&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-9kg-efficient-care-led09-branco-electrolux-110v/p/MLB37287174#polycard_client=search-nordic&amp;searchVariation=MLB37287174&amp;wid=MLB4918140572&amp;position=45&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mini Bola De Meia Futebol Cor Verde Amarelo</t>
+          <t>Lavadora De Roupas Electrolux Essencial Care 11kg (les11) 220V</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>69</v>
+        <v>1862</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_652028-MLB69380794102_052023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_789965-MLU72646938325_112023-V.webp</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-5305547148-mini-bola-de-meia-futebol-cor-verde-amarelo-_JM?searchVariation=187100863033#polycard_client=search-nordic&amp;searchVariation=187100863033&amp;position=44&amp;search_layout=grid&amp;type=item&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661</t>
+          <t>https://www.mercadolivre.com.br/lavadora-de-roupas-electrolux-essencial-care-11kg-les11-220v/p/MLB15950022#polycard_client=search-nordic&amp;searchVariation=MLB15950022&amp;wid=MLB2042425025&amp;position=32&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bola De Futevôlei Diadora Elite-r</t>
+          <t>Máquina De Lavar Cwn13ab 13kg Branca Consul Cor Branco 110v</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>69.59999999999999</v>
+        <v>1899</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_777673-MLB74305800482_022024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_814381-MLU79216564271_092024-V.webp</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3705513048-bola-de-futevlei-diadora-elite-r-_JM?searchVariation=177953619994#polycard_client=search-nordic&amp;searchVariation=177953619994&amp;position=50&amp;search_layout=grid&amp;type=item&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-cwn13ab-13kg-branca-consul-cor-branco-110v/p/MLB38930889#polycard_client=search-nordic&amp;searchVariation=MLB38930889&amp;wid=MLB5120909810&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bola Futebol Palmeiras Original N5 Oficial Sportcom</t>
+          <t>Máquina de Lavar Midea MA512W150A 15kg Wave Agitator Branca 127V</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>74.2</v>
+        <v>1899</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_994213-MLU76112689106_052024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_908960-MLA80879576175_112024-V.webp</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-futebol-palmeiras-original-n5-oficial-sportcom/p/MLB21795184#polycard_client=search-nordic&amp;searchVariation=MLB21795184&amp;wid=MLB3339326775&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-midea-ma512w150a-15kg-wave-agitator-branca-127v/p/MLB40383128#polycard_client=search-nordic&amp;searchVariation=MLB40383128&amp;wid=MLB5084646814&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bola De Futebol Branco E Laranja De Campo Bravo Xxiv Penalty</t>
+          <t>Máquina De Lavar 15kg Electrolux Essential Care Com Cesto In Cor Branco 110V</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>77.90000000000001</v>
+        <v>1899</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_764251-MLU75813169222_042024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_933655-MLU77338245029_062024-V.webp</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-branco-e-laranja-de-campo-bravo-xxiv-penalty/p/MLB27893082#polycard_client=search-nordic&amp;searchVariation=MLB27893082&amp;wid=MLB5256288878&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-15kg-electrolux-essential-care-com-cesto-in-cor-branco-110v/p/MLB19037310#polycard_client=search-nordic&amp;searchVariation=MLB19037310&amp;wid=MLB2820206240&amp;position=27&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bola Futevôlei Original Pro Ft5 Altinha Futmesa Profissional</t>
+          <t>Máquina De Lavar Cwn13ab 13kg Branca Consul Cor Branco 220v</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>77.90000000000001</v>
+        <v>1899</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_837892-MLB82988634099_032025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_814381-MLU79216564271_092024-V.webp</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3998822839-bola-futevlei-original-pro-ft5-altinha-futmesa-profissional-_JM?searchVariation=187172961717#polycard_client=search-nordic&amp;searchVariation=187172961717&amp;position=42&amp;search_layout=grid&amp;type=item&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-cwn13ab-13kg-branca-consul-cor-branco-220v/p/MLB38473748#polycard_client=search-nordic&amp;searchVariation=MLB38473748&amp;wid=MLB5120871416&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bola De Futebol De Campo Líder Xxiv Tamanho 5 Penalty</t>
+          <t>Máquina de Lavar Electrolux 15kg Branca Essential Care com Cesto Inox e Jet&amp;Clean LED15 220v</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>78.68000000000001</v>
+        <v>1899</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_741484-MLU75981809357_042024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_956915-MLU77118725640_062024-V.webp</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-de-campo-lider-xxiv-tamanho-5-penalty/p/MLB28567070#polycard_client=search-nordic&amp;searchVariation=MLB28567070&amp;wid=MLB4473762898&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-electrolux-15kg-branca-essential-care-com-cesto-inox-e-jetclean-led15-220v/p/MLB19037311#polycard_client=search-nordic&amp;searchVariation=MLB19037311&amp;wid=MLB2820216493&amp;position=48&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bola De Futsal Rx 500 Xxiii Cor Branco Amarelo E Preto Penalty</t>
+          <t>Lavadora De Roupas Philco 14kg Plr14a 127v</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>78.98999999999999</v>
+        <v>1906</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_750391-MLA72526096144_102023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_935142-MLA80891116954_122024-V.webp</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futsal-rx-500-xxiii-cor-branco-amarelo-e-preto-penalty/p/MLB22341158#polycard_client=search-nordic&amp;searchVariation=MLB22341158&amp;wid=MLB5066180820&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/lavadora-de-roupas-philco-14kg-plr14a-127v/p/MLB44409031#polycard_client=search-nordic&amp;searchVariation=MLB44409031&amp;wid=MLB3934734385&amp;position=43&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bola Umbro Campo Neo Swerve Match Fq Cor Branco/azul</t>
+          <t>Máquina De Lavar Panasonic 12kg Titânio Na-f120b1t Cor Cinza 220V</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>91.64</v>
+        <v>1939</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_939338-MLA81192889761_122024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_670021-MLU77169983306_072024-V.webp</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-umbro-campo-neo-swerve-match-fq-cor-brancoazul/p/MLB44491534#polycard_client=search-nordic&amp;searchVariation=MLB44491534&amp;wid=MLB5212101404&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-panasonic-12kg-titnio-na-f120b1t-cor-cinza-220v/p/MLB18019527#polycard_client=search-nordic&amp;searchVariation=MLB18019527&amp;wid=MLB2025672291&amp;position=37&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bola de futebol da Liga Espanhola Puma La Liga 1, cor branca</t>
+          <t>Lavadora Electrolux 12kg Com Dispenser Autolimpante Lac12 220V</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>99.90000000000001</v>
+        <v>1940</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_971588-MLA80241031041_102024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_938210-MLA43368841128_092020-V.webp</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-da-liga-espanhola-puma-la-liga-1-cor-branca/p/MLB41515899#polycard_client=search-nordic&amp;searchVariation=MLB41515899&amp;wid=MLB3992386085&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/lavadora-electrolux-12kg-com-dispenser-autolimpante-lac12-220v/p/MLB8045008#polycard_client=search-nordic&amp;searchVariation=MLB8045008&amp;wid=MLB2042392929&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bola De Futebol De Campo Cage Em Tpu Com 12 Painéis Puma</t>
+          <t>Lavadora Electrolux 12kg Com Dispenser Autolimpante Lac12 127V</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>99.90000000000001</v>
+        <v>1942</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_959984-MLA81874414362_012025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_635073-MLU72747733932_112023-V.webp</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3973885845-bola-de-futebol-de-campo-cage-em-tpu-com-12-paineis-puma-_JM?searchVariation=186906297205#polycard_client=search-nordic&amp;searchVariation=186906297205&amp;position=46&amp;search_layout=grid&amp;type=item&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661</t>
+          <t>https://www.mercadolivre.com.br/lavadora-electrolux-12kg-com-dispenser-autolimpante-lac12-127v/p/MLB8045007#polycard_client=search-nordic&amp;searchVariation=MLB8045007&amp;wid=MLB2042392928&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Penalty Bola Society S11 R2 Xxv</t>
+          <t>Máquina de Lavar Consul Cwh12bb Branca 12kg com Dosagem Econômica e Ciclo Edredom 110V</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>107.91</v>
+        <v>1955</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_909398-MLA81733802801_012025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_868571-MLU72748300995_112023-V.webp</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/penalty-bola-society-s11-r2-xxv/p/MLB45246763#polycard_client=search-nordic&amp;searchVariation=MLB45246763&amp;wid=MLB3957630395&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-consul-cwh12bb-branca-12kg-com-dosagem-econmica-e-ciclo-edredom-110v/p/MLB19954281#polycard_client=search-nordic&amp;searchVariation=MLB19954281&amp;wid=MLB3270039764&amp;position=39&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Bola Para Futebol De Campo Líder Xxiv Cor Branco/Azul/Verde Penalty</t>
+          <t>Lavadora De Roupas Electrolux Essencial Care 11kg (les11) 127V</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>109.19</v>
+        <v>1974</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_895518-MLU74287171999_012024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_798413-MLA43117842453_082020-V.webp</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-para-futebol-de-campo-lider-xxiv-cor-brancoazulverde-penalty/p/MLB30924589#polycard_client=search-nordic&amp;searchVariation=MLB30924589&amp;wid=MLB5256301406&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/lavadora-de-roupas-electrolux-essencial-care-11kg-les11-127v/p/MLB15950021#polycard_client=search-nordic&amp;searchVariation=MLB15950021&amp;wid=MLB2042380330&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Mini Bola Vasco Infantil Oficial Futebol Time Licenciado</t>
+          <t>Máquina De Lavar Cwn15ab 15kg Branca Consul Cor Branco 110v</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>109.9</v>
+        <v>1999</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_804635-MLB82864801489_032025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_835643-MLU78412371310_082024-V.webp</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3993132529-mini-bola-vasco-infantil-oficial-futebol-time-licenciado-_JM?searchVariation=183051062390#polycard_client=search-nordic&amp;searchVariation=183051062390&amp;position=49&amp;search_layout=grid&amp;type=item&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-cwn15ab-15kg-branca-consul-cor-branco-110v/p/MLB39455938#polycard_client=search-nordic&amp;searchVariation=MLB39455938&amp;wid=MLB3834214575&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Bola de Futebol Penalty Society Lider XXIV Branco Laranja Azul 5</t>
+          <t>Máquina De Lavar Cwn15ab 15kg Branca Consul Cor Branco 220v</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>111.71</v>
+        <v>1999</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_903645-MLU74833063908_032024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_764211-MLU78408768259_082024-V.webp</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-penalty-society-lider-xxiv-branco-laranja-azul-5/p/MLB27892495#polycard_client=search-nordic&amp;searchVariation=MLB27892495&amp;wid=MLB3951591553&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-cwn15ab-15kg-branca-consul-cor-branco-220v/p/MLB39328201#polycard_client=search-nordic&amp;searchVariation=MLB39328201&amp;wid=MLB3825557205&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Bola Para Society Lider Xxiv Cor Amarelo/Azul E Preto Penalty</t>
+          <t>Máquina de Lavar Electrolux 14kg Branca Essential Care com Cesto Inox e Jet&amp;Clean LED14 110V</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>111.92</v>
+        <v>2048</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_965757-MLU75808734676_042024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_927128-MLU78108592086_082024-V.webp</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-para-society-lider-xxiv-cor-amareloazul-e-preto-penalty/p/MLB27947185#polycard_client=search-nordic&amp;searchVariation=MLB27947185&amp;wid=MLB4846765284&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-electrolux-14kg-branca-essential-care-com-cesto-inox-e-jetclean-led14-110v/p/MLB17920363#polycard_client=search-nordic&amp;searchVariation=MLB17920363&amp;wid=MLB2042425192&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Bola De Futebol Society Storm Xxiii Cor Branco /Azul/ Amarelo Penalty</t>
+          <t>Máquina De Lavar Bwk13ab 13kg Branca Brastemp Cor Branco 110V</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>112.78</v>
+        <v>2093</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_762154-MLU75813096312_042024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_713249-MLA72428771637_102023-V.webp</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-society-storm-xxiii-cor-branco-azul-amarelo-penalty/p/MLB26599062#polycard_client=search-nordic&amp;searchVariation=MLB26599062&amp;wid=MLB3472123541&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-bwk13ab-13kg-branca-brastemp-cor-branco-110v/p/MLB27592682#polycard_client=search-nordic&amp;searchVariation=MLB27592682&amp;wid=MLB4148593028&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Bola Futsal Penalty Rx 500 + Bomba De Ar Cor Branco/azul/preto</t>
+          <t>Máquina De Lavar 14kg Essential Care LED14 Com Cesto Inox E Jet&amp;Clean Electrolux 220V</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>113.31</v>
+        <v>2162</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_604828-MLU72597332519_102023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_927128-MLU78108592086_082024-V.webp</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-futsal-penalty-rx-500-bomba-de-ar-cor-brancoazulpreto/p/MLB25996430#polycard_client=search-nordic&amp;searchVariation=MLB25996430&amp;wid=MLB5026683642&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-14kg-essential-care-led14-com-cesto-inox-e-jetclean-electrolux-220v/p/MLB17920364#polycard_client=search-nordic&amp;searchVariation=MLB17920364&amp;wid=MLB2042367533&amp;position=41&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Puma Bola De Futebol De Campo Prestige Ball Branco/Preto 5</t>
+          <t>Máquina de Lavar NA-F170B7W Com Sistema Ciclone e Função Smartsense 17kg Cor Branca 127V</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>117.7</v>
+        <v>2199</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_633828-MLU72491360984_102023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_885462-MLU72748594615_112023-V.webp</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/puma-bola-de-futebol-de-campo-prestige-ball-brancopreto-5/p/MLB22909173#polycard_client=search-nordic&amp;searchVariation=MLB22909173&amp;wid=MLB3397398349&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-na-f170b7w-com-sistema-ciclone-e-funco-smartsense-17kg-cor-branca-127v/p/MLB23462525#polycard_client=search-nordic&amp;searchVariation=MLB23462525&amp;wid=MLB3351549387&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Bola Dalponte 81 Futebol Pentha Campo Torneio Baba Presente Cor Amarelo</t>
+          <t>Máquina De Lavar Na-f170b7wb 17kg Branca Panasonic 220v Cor Branco</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>126</v>
+        <v>2199</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_622136-MLB45864757589_052021-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_897025-MLU72748623701_112023-V.webp</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-dalponte-81-futebol-pentha-campo-torneio-baba-presente-cor-amarelo/p/MLB20578579#polycard_client=search-nordic&amp;searchVariation=MLB20578579&amp;wid=MLB5290738574&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-na-f170b7wb-17kg-branca-panasonic-220v-cor-branco/p/MLB23458910#polycard_client=search-nordic&amp;searchVariation=MLB23458910&amp;wid=MLB3332415215&amp;position=46&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Bola Futevolei Altinha Ftv Ft5 Penta Futemesa Rio Cor Branco</t>
+          <t>Máquina De Lavar Bwk13a9 13kg Cinza Platinum Brastemp Cor Cinza-escuro 110V</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>126.85</v>
+        <v>2202</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_864652-MLU73557896069_122023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_630024-MLU74978359017_032024-V.webp</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-futevolei-altinha-ftv-ft5-penta-futemesa-rio-cor-branco/p/MLB29139704#polycard_client=search-nordic&amp;searchVariation=MLB29139704&amp;wid=MLB4321183774&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-bwk13a9-13kg-cinza-platinum-brastemp-cor-cinza-escuro-110v/p/MLB27950738#polycard_client=search-nordic&amp;searchVariation=MLB27950738&amp;wid=MLB4169866822&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Bola 81 Dalponte Star Campo Costurada A Mão Original</t>
+          <t>Máquina De Lavar Bwk13a9 13kg Cinza Platinum Brastemp Cor Cinza-escuro 220V</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>134.85</v>
+        <v>2202</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_947113-MLB45202965881_032021-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_723323-MLU74842936884_032024-V.webp</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-81-dalponte-star-campo-costurada-a-mo-original/p/MLB20563342#polycard_client=search-nordic&amp;searchVariation=MLB20563342&amp;wid=MLB4409675888&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-bwk13a9-13kg-cinza-platinum-brastemp-cor-cinza-escuro-220v/p/MLB27950739#polycard_client=search-nordic&amp;searchVariation=MLB27950739&amp;wid=MLB4169909966&amp;position=30&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bola Futebol De Campo Penalty S11 R2 Xxv Oficial *oferta*</t>
+          <t>Máquina De Lavar Bwf15ab 15kg Tira Manchas Branca Brastemp Cor Branco 110V</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>137.52</v>
+        <v>2211</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_602945-MLB81985303727_012025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_663713-MLU74979993323_032024-V.webp</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3993667449-bola-futebol-de-campo-penalty-s11-r2-xxv-oficial-oferta-_JM?searchVariation=187125323729#polycard_client=search-nordic&amp;searchVariation=187125323729&amp;position=47&amp;search_layout=grid&amp;type=item&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-bwf15ab-15kg-tira-manchas-branca-brastemp-cor-branco-110v/p/MLB26876403#polycard_client=search-nordic&amp;searchVariation=MLB26876403&amp;wid=MLB4106662150&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bola Futsal Penalty 8 X Branco/preto</t>
+          <t>Máquina De Lavar Bwf15ab 15kg Tira Manchas Branca Brastemp Cor Branco 220V</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>147.92</v>
+        <v>2211</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_706439-MLU74935339307_032024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_901572-MLU74842910584_032024-V.webp</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-futsal-penalty-8-x-brancopreto/p/MLB21158495#polycard_client=search-nordic&amp;searchVariation=MLB21158495&amp;wid=MLB3414725095&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-bwf15ab-15kg-tira-manchas-branca-brastemp-cor-branco-220v/p/MLB27702613#polycard_client=search-nordic&amp;searchVariation=MLB27702613&amp;wid=MLB4119804368&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bola de Futevolei Poker Rio Poker nº 5 cor amarelo e preto</t>
+          <t>Máquina De Lavar 15kg Electrolux Premium (lec15) Cor Branco 110V</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>151</v>
+        <v>2261</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_753390-MLU74696438844_022024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_756379-MLU77364385393_072024-V.webp</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futevolei-poker-rio-poker-n-5-cor-amarelo-e-preto/p/MLB19698709#polycard_client=search-nordic&amp;searchVariation=MLB19698709&amp;wid=MLB5277662890&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-15kg-electrolux-premium-lec15-cor-branco-110v/p/MLB36579268#polycard_client=search-nordic&amp;searchVariation=MLB36579268&amp;wid=MLB5017435998&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bola Campo Penalty S11 R2 Profissional Tamanho Oficial Pro</t>
+          <t>Máquina de Lavar Electrolux LEC15 Branca 15kg Premium Care com Cesto Inox Jet&amp;Clean e Time Control 220V</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>159.1</v>
+        <v>2261</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_621396-MLB79710153087_102024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_607815-MLU77146379044_062024-V.webp</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=Pxmcigy2lyUR0lYwi8jx6mD510akHAhSx2R7HEeJSDKHDfsLVYuu63Gu%2Ffhsym%2BDdupBo5Sgj5xbI9%2FZnBnKLCpcFgT2b%2FlI0QzC54Z5wNdkOWmxTAtwlqf27xmgF6UEibn6FBlBcaD0mgGJEqoS2Z1wN5xz7kIf8aikE8gNsfWXMhRgH5hwkpyeTsWat6HasEwD%2BMERJw6kQfqgNzd0%2B0Fr8XEHO6b5TuuJ8HvePBBl7mjzurQzH8TlVvPAw6u5Nv5oigNnaiEkduc6yWzFj5WZdP3dRecqZFso7KkGyddKfZSWTPZFQ4ty2963ff2cD61OCnuShxCVvNKY39dTyZnpw2x04WA5APjYCUsM1OU07khQx9BLAYYjIwtSUR8tIMsiUZrX%2F2TiE34DYV%2BS2ovUrtZ8qvSxKFfx1rF1B6gO7icMLLvqxB%2B8hGrrIIGU0IkITvshhj7jYk1iBDo673hHKistEV%2BlLtVH6vj8JIaocDMW%2FWeItudo6OzMmSC7ki9msQWQ9VPV0jFT12bYHJCbxF%2BqFg7yCRFWCT6POkOkt6JJwJX5ddOAx6RqczhR7HEztrWTW0PeO%2F8FDLFqlUnWcTaXiVUZQJ7syNp4EINZoGMK9vjeuMogxr1sCaezSVtVjcSCih6aBiA1JBWvq93NTCrDgKfEG5TTmYBLCm4%2F6Kl%2Fh4FN0M4c2zJlpdkSrvW2TeBJW4zFHHHRCegxP%2BjZVPAIg63zQ2mWO9ocRPbM4IRjDFanf3GKkfAKZsaXTf91sPNvMXfl4NZvh9gvy5nJn3hIVmbyDI6u76%2BLkOu9tCCSktE0XFKjcBn3gPoJDDGPxD07xpx7MCQ8cIyq%2F3bgx8RnhAp%2FNvIvLrbW5R0eDA%3D%3D&amp;rb=x#polycard_client=search-nordic&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-electrolux-lec15-branca-15kg-premium-care-com-cesto-inox-jetclean-e-time-control-220v/p/MLB36731713#polycard_client=search-nordic&amp;searchVariation=MLB36731713&amp;wid=MLB5017447374&amp;position=47&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Bola Campo Penalty S11 R2 Profissional Tamanho Oficial Pro</t>
+          <t>Lavadora Digital Inverter Samsung Ww11t Branca 11kg Cor Branco 110V</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>159.1</v>
+        <v>2359</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_621396-MLB79710153087_102024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_763583-MLU78406525997_082024-V.webp</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-5097445462-bola-campo-penalty-s11-r2-profissional-tamanho-oficial-pro-_JM?searchVariation=185234922787#polycard_client=search-nordic&amp;searchVariation=185234922787&amp;position=40&amp;search_layout=grid&amp;type=item&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661</t>
+          <t>https://www.mercadolivre.com.br/lavadora-digital-inverter-samsung-ww11t-branca-11kg-cor-branco-110v/p/MLB39327272#polycard_client=search-nordic&amp;searchVariation=MLB39327272&amp;wid=MLB3818670393&amp;position=50&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Bola Campo Uhlsport Match R1 Brasileirão 2024</t>
+          <t>Máquina De Lavar Brastemp 15kg Cinza Platinum Com Timer Pro 110V</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>160</v>
+        <v>2439</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_692942-MLB82723009450_032025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_735856-MLU76143998613_052024-V.webp</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3999493307-bola-campo-uhlsport-match-r1-brasileiro-2024-_JM?searchVariation=187184428895#polycard_client=search-nordic&amp;searchVariation=187184428895&amp;position=45&amp;search_layout=grid&amp;type=item&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-brastemp-15kg-cinza-platinum-com-timer-pro-110v/p/MLB36504260#polycard_client=search-nordic&amp;searchVariation=MLB36504260&amp;wid=MLB3802426827&amp;position=38&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bola De Futebol Society 8 X Penalty</t>
+          <t>Máquina De Lavar Led17 Branco Essential Care 17kg Electrolux</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>161.91</v>
+        <v>2535</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_818310-MLU76366734942_052024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_999868-MLA82370834951_022025-V.webp</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-society-8-x-penalty/p/MLB19776132#polycard_client=search-nordic&amp;searchVariation=MLB19776132&amp;wid=MLB3829143887&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-led17-branco-essential-care-17kg-electrolux/p/MLB46017200#polycard_client=search-nordic&amp;searchVariation=MLB46017200&amp;wid=MLB5285022924&amp;position=51&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Bola adidas Fifa Copa Do Mundo De Clubes - Original</t>
+          <t>Máquina De Lavar Brastemp 17kg Branca - Bwk17ab Cor Branco 220V</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>239.99</v>
+        <v>2577</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_670822-MLB82454473292_022025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_935520-MLU77119876248_062024-V.webp</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3987870187-bola-adidas-fifa-copa-do-mundo-de-clubes-original-_JM?searchVariation=187060241705#polycard_client=search-nordic&amp;searchVariation=187060241705&amp;position=43&amp;search_layout=grid&amp;type=item&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661</t>
+          <t>https://www.mercadolivre.com.br/maquina-de-lavar-brastemp-17kg-branca-bwk17ab-cor-branco-220v/p/MLB22636409#polycard_client=search-nordic&amp;searchVariation=MLB22636409&amp;wid=MLB5152699940&amp;position=52&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Bola de Basquete Feminina 6.8 Crossover Laranja e Verde Penalty</t>
+          <t>Lava E Seca Midea Master Clean Smart 11kg Branca 127v</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>291.48</v>
+        <v>3195</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_834866-MLU75592553417_042024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_730553-MLU77374801689_072024-V.webp</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-basquete-feminina-68-crossover-laranja-e-verde-penalty/p/MLB23541588#polycard_client=search-nordic&amp;searchVariation=MLB23541588&amp;wid=MLB4538247542&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/lava-e-seca-midea-master-clean-smart-11kg-branca-127v/p/MLB37296614#polycard_client=search-nordic&amp;searchVariation=MLB37296614&amp;wid=MLB5178870222&amp;position=26&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Bola Futebol Society 8 Pro Xxiv Tamanho 5 Cor Preto e Branco Penalty</t>
+          <t>Lava e seca Midea Master Clean Smart 11kg Titanium Mfm01d110wb/tkbr04 127v</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>307.89</v>
+        <v>3299</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_819669-MLU75482475121_032024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_979698-MLU77125322082_062024-V.webp</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-futebol-society-8-pro-xxiv-tamanho-5-cor-preto-e-branco-penalty/p/MLB35142675#polycard_client=search-nordic&amp;searchVariation=MLB35142675&amp;wid=MLB4766931426&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=86eb0d31-34e7-4116-a722-88b635742661&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/lava-e-seca-midea-master-clean-smart-11kg-titanium-mfm01d110wbtkbr04-127v/p/MLB37448773#polycard_client=search-nordic&amp;searchVariation=MLB37448773&amp;wid=MLB3909021837&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Lava e Seca Midea MF200D110WB 11Kg Midea HealthGuard Titanium Conectada 127V</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>3427</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_927592-MLU76537680465_052024-V.webp</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/lava-e-seca-midea-mf200d110wb-11kg-midea-healthguard-titanium-conectada-127v/p/MLB19136202#polycard_client=search-nordic&amp;searchVariation=MLB19136202&amp;wid=MLB3775715141&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Lava e Seca Midea MF200D110WB 11Kg HealthGuard Titanium Conectada 220v</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>3427</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_842109-MLU72566235196_112023-V.webp</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/lava-e-seca-midea-mf200d110wb-11kg-healthguard-titanium-conectada-220v/p/MLB19136205#polycard_client=search-nordic&amp;searchVariation=MLB19136205&amp;wid=MLB3775715131&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
         </is>
       </c>
     </row>

--- a/produtos_ordenados.xlsx
+++ b/produtos_ordenados.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,1040 +465,1000 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mini Maquina De Lavar Roupa Portátil Dobrável Centrifuga 11l</t>
+          <t>Saco Para Até 10 Bolas / Porta Bolas Fio 4mm Branco</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>222.25</v>
+        <v>12.81</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_716948-MLB81818739364_012025-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_720045-MLU72700298625_112023-E.webp</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=X1ystcb41xamFz9w5ErWAmseIHY6WMpMjTwUXGHtZ2U0RXVJMzXjXtHCD%2BwuieYw9t%2FggdFhznauQ%2FfxhUkD9a84Z%2FtDvaQeZgWuOB27GpRZRsmcVYCyOtcvl%2B0orbqnUbWDB2hJmbg4vWRWftCz3fUQKEmXFe%2FH6BJEBn0EGSqYezPCZflODPHuUWQrJ0T0%2B%2FEjuWCkF81Q2F%2FsJd%2Fpb%2FlKrB024avIQ4Tv6NCbnNjNk8%2FHiFbE%2BzU32AghNDfWYNcs1JXY8iaAcKMSTkhi6zUlNwbAbyIKydCzJRL8%2BPVIEjDSKaGSoP3fr%2FfvoKlp4fltXHzHhyzj9ekaloOWVDT0QZPQwnMuZAj6rl2BCLtZnUoM3K%2B3zMYtiULydK2W25Oa3yVptgQHsAFlXCs4zZGyXYR1RzhLbI8NMU8q%2BHUtRxN7CUWx%2BfV5ERBm%2FPfCS%2BMCgxtdZSjR7kE9VGMEcOGQO4WNO6Tsya8iRcLsJDD%2B%2FhzcY7G8yQKxp5clI52VGdeOIYB1%2Behq%2BN9ve03%2Bz%2FGB7cvHPgqqbdg4R7RDRN5aaZpZO9XchxH1CHRlAFegV3uEcRrT8RfOLa005mdBtZl5iaR2u9ZtXXedX7SRCBeadpL7jrUM9MKKf06dw6muRJrycLUZm7tMPUz5W%2BNkBIiKAiXUCgpvr3rfCGXSsSE8lsm0a3VJMNfEcJPs02KuSlt0FXwB9vdYm8V18M1GQB61mq5LNDeL6deZWWEHq9MDPzXCQ6i%2FPIHiykt2C%2B06qN7usfD45k2Wk8zCCyWTTPBgCp4jzdUPzK5uIEgdhGEJzVfDfSgh1SKD0Az0rcRRObMC0GvP1dLtSeoL4YnlS29HFpug%2B5IKrDBee8uFYLG8nRaWEw%3D%3D&amp;rb=x#polycard_client=search-nordic&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22</t>
+          <t>https://www.mercadolivre.com.br/saco-para-ate-10-bolas-porta-bolas-fio-4mm-branco/p/MLB25996601#polycard_client=search-nordic&amp;searchVariation=MLB25996601&amp;wid=MLB4147585512&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lavadora Semiautomática 110v 4kg Wanke Super Branca</t>
+          <t>Bola De Futebol Para Campo Tamanho 5 Petrin Presente Cor</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>418.9</v>
+        <v>18.37</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_649226-MLB82010457360_022025-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_859381-MLA81212900247_122024-E.webp</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=WYL6B8H8GdPuKyh8sEvikvMjegBvq7%2Bryw8Slc11M3KSJep9HVLDahVv6PmmZ2SRcTxkVOaJ2TJaIGNDkIyIW8sV5uqveDcZnbIAO0aIas1B24KJylQRuhKeP9%2FKY5%2BMqljfIQ8lyZ%2FRS%2F32PD%2B6FBjoe9xzW7op0gtmriceZlZGgN2eZcUlygLbmPMB1Abzj%2FZlrNJzYrCJGotBHGU6AylpuIr92ep9ytQhmyVcOdd5txt2Qfx1CsFJ4VswHpPMz609%2B5e5QQVMtsaLSTk43eqkG2Hi5dt1HsXU04tR43J2o0ksS%2Bqe2h%2BCGzDXS3rKbtnzXllr3jsUwSalFOrYWtyfe81GyrwJ%2BjnkptN0yJVuT61BeKXT3N0SQnfuDs%2FgUElp7N%2B0jcLsPyh%2BGqiGXxz4wYiUhWsHcSl5OBIajNJBC4snj8E1iH4p3m89c6DtCiDmfJVvbdY9QuRvO0s4eULy9lialCFtW%2F%2Fc48RXpa9Rh%2BeVmPBGTmi21xRduEh116OsZu%2BBv2blwUIj%2F1TJl6i61D2atroVPtC0uqpMnobgkkKKRmVrof5hRbbqgueEH%2FiMtD%2ByFzXuLsHcmS93yQg4CQzIWSoUWgCXEv5BMRmrY7iw7nopMLqxbPyFMMEKx4NRUFGcizPLb9Zy%2BL6wMFBsMr3NH7kcQIzDP4m24gRjtyV5nd2klKkt%2Fd7vwkEVyfo%2BDFApf0NBsgT0TYH7fXtNCWTQEAxHkv1YsFvtVKfTEjsCi%2BX7i1et5i3pG2nNqLskW8G%2F2quyMD1Aawl2F4ihF9ooAlPL4KeV5ofy0LQ%2Bj9zzWUruMrIED5cpUZaB4yAxId5IMBwoa5T3INsjY0vye3G6xX%2Faxtw%3D&amp;rb=x#polycard_client=search-nordic&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futebol-para-campo-tamanho-5-petrin-presente-cor/p/MLB44556814#polycard_client=search-nordic&amp;searchVariation=MLB44556814&amp;wid=MLB4007228671&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tanquinho Suggar Neo Turbilhão 8kg Le8002br 220v Cor Branco</t>
+          <t>Trave Futebol Gol Kit Mini Golzinho Infantil Brinquedo Bola</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>455.01</v>
+        <v>33.54</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_734374-MLU77348996425_062024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_764435-MLA79889067517_102024-E.webp</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/tanquinho-suggar-neo-turbilho-8kg-le8002br-220v-cor-branco/p/MLB36727621#polycard_client=search-nordic&amp;searchVariation=MLB36727621&amp;wid=MLB5057364952&amp;position=40&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/trave-futebol-gol-kit-mini-golzinho-infantil-brinquedo-bola/p/MLB41775954#polycard_client=search-nordic&amp;searchVariation=MLB41775954&amp;wid=MLB5118193404&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Suggar Lavamax Eco LE8001BR tanquinho branco 110V</t>
+          <t>Tabela De Medição De Pressão, Medidor De Ponteiro De Futebol</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>477.63</v>
+        <v>38.31</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_903787-MLU77149873678_062024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_725638-CBT81594394892_012025-E.webp</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/suggar-lavamax-eco-le8001br-tanquinho-branco-110v/p/MLB35352522#polycard_client=search-nordic&amp;searchVariation=MLB35352522&amp;wid=MLB3864921779&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/pressure-measurement-table-portable-football-pointer-gauge/p/MLB2009472856#polycard_client=search-nordic&amp;searchVariation=MLB2009472856&amp;wid=MLB4000139541&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tanquinho Libell 20,5 Kg Com Lavagem Por Turbilhonamento Branca 110v</t>
+          <t>Bola Futebol Tamanho 5 Capotão + Bomba De Ar E Bico Cor Azul</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>529.9</v>
+        <v>39.99</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_829414-MLU78948300574_092024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_628564-MLU78026959026_082024-E.webp</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/tanquinho-libell-205-kg-com-lavagem-por-turbilhonamento-branca-110v/p/MLB38622511#polycard_client=search-nordic&amp;searchVariation=MLB38622511&amp;wid=MLB3792112525&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-futebol-tamanho-5-capoto-bomba-de-ar-e-bico-cor-azul/p/MLB39157733#polycard_client=search-nordic&amp;searchVariation=MLB39157733&amp;wid=MLB3870171799&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Libell 50020063 lavadora semiautomática prata 110V</t>
+          <t>Kit Bola De Vôlei + Bola De Futebol + Bomba Pró Sortidas</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>533.4</v>
+        <v>41.22</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_821628-MLU78253349546_082024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_702577-MLA82266657438_022025-E.webp</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/libell-50020063-lavadora-semiautomatica-prata-110v/p/MLB38501929#polycard_client=search-nordic&amp;searchVariation=MLB38501929&amp;wid=MLB4932140502&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/kit-bola-de-vlei-bola-de-futebol-bomba-pro-sortidas/p/MLB46184165#polycard_client=search-nordic&amp;searchVariation=MLB46184165&amp;wid=MLB5292902016&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lavadora Lavamax Eco 15kg Preta Suggar Cor Preto 220V</t>
+          <t>Bola De Vôlei 3.5 Texturizada Amarela Rainha Topper</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>547.48</v>
+        <v>44.99</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_890503-MLA80574682681_112024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_875461-MLU78119836106_082024-E.webp</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/lavadora-lavamax-eco-15kg-preta-suggar-cor-preto-220v/p/MLB36969891#polycard_client=search-nordic&amp;searchVariation=MLB36969891&amp;wid=MLB4695470976&amp;position=44&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-vlei-35-texturizada-amarela-rainha-topper/p/MLB21012198#polycard_client=search-nordic&amp;searchVariation=MLB21012198&amp;wid=MLB3963193225&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Tanquinho Colormaq 13kg Cor Branco 127V</t>
+          <t>Bola De Futebol Luke Sports Tamanho 5 Campo E Society Branca Cor Branco</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>579.99</v>
+        <v>48.29</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_847215-MLU72998814050_112023-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_921199-MLA80927520322_122024-E.webp</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/tanquinho-colormaq-13kg-cor-branco-127v/p/MLB28654464#polycard_client=search-nordic&amp;searchVariation=MLB28654464&amp;wid=MLB4445963928&amp;position=29&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futebol-luke-sports-tamanho-5-campo-e-society-branca-cor-branco/p/MLB44516604#polycard_client=search-nordic&amp;searchVariation=MLB44516604&amp;wid=MLB5214268684&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Máquina de lavar semi-automática Tanquinho Colormaq 10kg 127V prata</t>
+          <t>10 Bolas De Vinil Futebol Dente De Leite C/ Cor Branco Com Preto</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>609.99</v>
+        <v>48.97</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_979428-MLU75194455651_032024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_785671-MLU77640619462_072024-E.webp</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-semi-automatica-tanquinho-colormaq-10kg-127v-prata/p/MLB14815389#polycard_client=search-nordic&amp;searchVariation=MLB14815389&amp;wid=MLB3985806643&amp;position=36&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/10-bolas-de-vinil-futebol-dente-de-leite-c-cor-branco-com-preto/p/MLB38350019#polycard_client=search-nordic&amp;searchVariation=MLB38350019&amp;wid=MLB3855446145&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Máquina de lavar semi-automática Tanquinho Colormaq LCS 20kg 127V - prata</t>
+          <t>Bola De Futebol De Campo Slick 2020 Topper Cor Amarelo Neon/Preto</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>629.9</v>
+        <v>48.99</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_914751-MLA52222533871_102022-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_969183-MLU75988202853_042024-E.webp</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-semi-automatica-tanquinho-colormaq-lcs-20kg-127v-prata/p/MLB18925150#polycard_client=search-nordic&amp;searchVariation=MLB18925150&amp;wid=MLB5088434214&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futebol-de-campo-slick-2020-topper-cor-amarelo-neonpreto/p/MLB19754376#polycard_client=search-nordic&amp;searchVariation=MLB19754376&amp;wid=MLB5277328830&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lavadora de Roupas Semiautomática Tanquinho Colormaq Lcs 20kg Capacidade</t>
+          <t>Bola De Futebol Slick Campo Cor Azul/Branco/Preto Topper</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>629.9</v>
+        <v>50.72</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_776576-MLA79219948314_092024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_979047-MLU71168535619_082023-E.webp</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/lavadora-de-roupas-semiautomatica-tanquinho-colormaq-lcs-20kg-capacidade/p/MLB18925149#polycard_client=search-nordic&amp;searchVariation=MLB18925149&amp;wid=MLB5088428664&amp;position=31&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futebol-slick-campo-cor-azulbrancopreto-topper/p/MLB19765484#polycard_client=search-nordic&amp;searchVariation=MLB19765484&amp;wid=MLB5270990860&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Máquina de lavar Roupas semi-automática Tanquinho Colormaq LCS 20kg 220V - prata</t>
+          <t>Bola Futebol Society Ótimo Custo Beneficio Peso Ideal Top Cor Azul</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>629.9</v>
+        <v>53.82</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_750158-MLA52231558421_112022-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_862896-MLU69453002841_052023-E.webp</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-roupas-semi-automatica-tanquinho-colormaq-lcs-20kg-220v-prata/p/MLB18925151#polycard_client=search-nordic&amp;searchVariation=MLB18925151&amp;wid=MLB5088434216&amp;position=35&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-futebol-society-otimo-custo-beneficio-peso-ideal-top-cor-azul/p/MLB23339357#polycard_client=search-nordic&amp;searchVariation=MLB23339357&amp;wid=MLB3923038695&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Máquina de Lavar Electrolux 8,5kg Branca Turbo Economia com Jet&amp;Clean e Filtro Fiapos (LAC09) - 127V</t>
+          <t>Bola De Futebol de Campo Slick 24 Tecnofusion Multicor Topper</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1489</v>
+        <v>53.99</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_810765-MLU77347944455_062024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_722050-MLU76926100481_062024-E.webp</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-electrolux-85kg-branca-turbo-economia-com-jetclean-e-filtro-fiapos-lac09-127v/p/MLB8802700#polycard_client=search-nordic&amp;searchVariation=MLB8802700&amp;wid=MLB3608595237&amp;position=28&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futebol-de-campo-slick-24-tecnofusion-multicor-topper/p/MLB35378541#polycard_client=search-nordic&amp;searchVariation=MLB35378541&amp;wid=MLB3963108755&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Máquina de Lavar Electrolux 8,5kg Branca Turbo Economia com Jet&amp;Clean e Filtro Fiapos (LAC09) - 220V</t>
+          <t>Bola De Futebol De Campo Slick 2020 Topper</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1489</v>
+        <v>54.99</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_684734-MLU77344393799_062024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_735756-MLB54078855256_022023-E.webp</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-electrolux-85kg-branca-turbo-economia-com-jetclean-e-filtro-fiapos-lac09-220v/p/MLB8802701#polycard_client=search-nordic&amp;searchVariation=MLB8802701&amp;wid=MLB2798035670&amp;position=49&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futebol-de-campo-slick-2020-topper/p/MLB22262774#polycard_client=search-nordic&amp;searchVariation=MLB22262774&amp;wid=MLB5270990842&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Máquina de lavar Electrolux 10,5kg branca turbo 127V com Jet&amp;Clean e filtro fiapos LAC11</t>
+          <t>Bola De Futsal Slick 24 Câmara Airvility 6 Gomos Topper</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1549</v>
+        <v>54.99</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_671377-MLU77136665638_062024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_790020-MLU75616505649_042024-E.webp</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-electrolux-105kg-branca-turbo-127v-com-jetclean-e-filtro-fiapos-lac11/p/MLB6352461#polycard_client=search-nordic&amp;searchVariation=MLB6352461&amp;wid=MLB2797980682&amp;position=33&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futsal-slick-24-cmara-airvility-6-gomos-topper/p/MLB35378564#polycard_client=search-nordic&amp;searchVariation=MLB35378564&amp;wid=MLB3963063089&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Colormaq Máquina de lavar Roupas Automática LCA 12kg 127 V Cor Branco</t>
+          <t>Bola De Futebol Para Campo 22 I Topper Cor Branco/Verde Mar/Preto</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1629</v>
+        <v>55.85</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_939876-MLU72826758422_112023-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_967540-MLU69495823375_052023-E.webp</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/colormaq-maquina-de-lavar-roupas-automatica-lca-12kg-127-v-cor-branco/p/MLB15805357#polycard_client=search-nordic&amp;searchVariation=MLB15805357&amp;wid=MLB4334658152&amp;position=34&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futebol-para-campo-22-i-topper-cor-brancoverde-marpreto/p/MLB22272252#polycard_client=search-nordic&amp;searchVariation=MLB22272252&amp;wid=MLB4198884500&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Máquina de Lavar Consul CWB09BB 9kg Branca com Dosagem Econômica e Ciclo Edredom 110V</t>
+          <t>Bola De Futebol Campo Slick Cup Topper</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1679</v>
+        <v>59.15</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_998540-MLU72748459545_112023-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_659913-MLA80298884457_102024-E.webp</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-consul-cwb09bb-9kg-branca-com-dosagem-econmica-e-ciclo-edredom-110v/p/MLB19690291#polycard_client=search-nordic&amp;searchVariation=MLB19690291&amp;wid=MLB5079884600&amp;position=42&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futebol-campo-slick-cup-topper/p/MLB19698380#polycard_client=search-nordic&amp;searchVariation=MLB19698380&amp;wid=MLB5189140588&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Máquina De Lavar Midea MA512W130A 13kg Wave Agitator Branca 220v</t>
+          <t>Bola De Futsal Slick 22 Topper Cor Branco/Amarelo Neon/Azul</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1699</v>
+        <v>59.2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_755507-MLA79658397779_092024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_656329-MLB54078855245_022023-E.webp</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-midea-ma512w130a-13kgwaveagitatorbranca-220v/p/MLB38510489#polycard_client=search-nordic&amp;searchVariation=MLB38510489&amp;wid=MLB5084618562&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futsal-slick-22-topper-cor-brancoamarelo-neonazul/p/MLB22262771#polycard_client=search-nordic&amp;searchVariation=MLB22262771&amp;wid=MLB3820042822&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Máquina De Lavar 9kg Efficient Care Led09 Branco Electrolux 110V</t>
+          <t>Bola De Futsal Slick Cup Topper Cor Laranja/Azul Anodizado/Preto</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1782</v>
+        <v>59.9</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_880633-MLU77190169068_072024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_882043-MLU75981819389_042024-E.webp</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-9kg-efficient-care-led09-branco-electrolux-110v/p/MLB37287174#polycard_client=search-nordic&amp;searchVariation=MLB37287174&amp;wid=MLB4918140572&amp;position=45&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futsal-slick-cup-topper-cor-laranjaazul-anodizadopreto/p/MLB19710248#polycard_client=search-nordic&amp;searchVariation=MLB19710248&amp;wid=MLB2889188605&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lavadora De Roupas Electrolux Essencial Care 11kg (les11) 220V</t>
+          <t>Topper Futsal Slick Bola Futebol Salão Branco Com Azul</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1862</v>
+        <v>60.99</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_789965-MLU72646938325_112023-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_880504-MLU71134471481_082023-E.webp</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/lavadora-de-roupas-electrolux-essencial-care-11kg-les11-220v/p/MLB15950022#polycard_client=search-nordic&amp;searchVariation=MLB15950022&amp;wid=MLB2042425025&amp;position=32&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/topper-futsal-slick-bola-futebol-salo-branco-com-azul/p/MLB26148855#polycard_client=search-nordic&amp;searchVariation=MLB26148855&amp;wid=MLB3963093661&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Máquina De Lavar Cwn13ab 13kg Branca Consul Cor Branco 110v</t>
+          <t>Bola De Futebol Society Slick 2020 Cor Branco/Preto/Amarelo Tamanho Único Topper</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1899</v>
+        <v>61.76</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_814381-MLU79216564271_092024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_869053-MLB51937100243_102022-E.webp</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-cwn13ab-13kg-branca-consul-cor-branco-110v/p/MLB38930889#polycard_client=search-nordic&amp;searchVariation=MLB38930889&amp;wid=MLB5120909810&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futebol-society-slick-2020-cor-brancopretoamarelo-tamanho-unico-topper/p/MLB19744266#polycard_client=search-nordic&amp;searchVariation=MLB19744266&amp;wid=MLB5222132312&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Máquina de Lavar Midea MA512W150A 15kg Wave Agitator Branca 127V</t>
+          <t>Bola De Futevolei Altinha N°5 Quadra Areia Pro Praia</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1899</v>
+        <v>65.97</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_908960-MLA80879576175_112024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_645076-MLB82458925554_022025-E-bola-de-futevolei-altinha-n5-quadra-areia-pro-praia.webp</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-midea-ma512w150a-15kg-wave-agitator-branca-127v/p/MLB40383128#polycard_client=search-nordic&amp;searchVariation=MLB40383128&amp;wid=MLB5084646814&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=mYpbkfZv%2BWrkHXFcJzH%2BLNwYdTR0CClKwqUNkB8gCyWC%2FkdDlw6z8okZwVrmsuyR2mvs0GYH0ptERW22b6tFsUz0f5KJyKt0nZlkml5NHIihom1Px0J1CrbZ6BSH%2FQTGQE6B9ax%2B8GkDXee%2B3gEdsQRcITpBPk4s%2Fw8gpWzkpb6nHYDnDCDl2xtI3hK1lB3Wd5%2F%2Fd%2F80G3ATney9LcSZw2H4xE2MA85NvXkt7eZqjfydIIsRHfEjNqfi%2FkCWbCW44xypAzY70XuE9F34Sb0BBB5IrTcC1McHT%2FQt4QIlLn5MravpRWVd4SjFa6QU9%2FCOQJCek3J%2BfhFmi6pNVPwdjvRnCYAj5w617jbLWvuC9BJT0I8D7bMaV8QDGZALYfTZOfGT97MfuUXaR8ghh0ObguNGxU55WI2FSBFhZdflUaZsCNlQoxpEcAePwzEG3z85QfUHPHfZqR5w0na0JYqMbdr4SD8yNvtmACVwSDGRi44oCy3mDQxN6SD%2B0ksm4DoC%2BV3xPf2OEQcAkZByaZrXT4%2B3gafEjiieOk%2FK3hq79iySWUkvbfQ9s%2FKjQRQuB2SFp7BdKa3JXs9ckJwlOhqDwF9W6qK6NtExi5tDMVlig4EIBE85sqQAg46ddNkNlAHoWDGbafgKjwSTAxNppif8QmfMEE%2B26ocAjnPEHS8rDpgCfzEUyAQrou8F0S38ZvEluacn6hROTtflt0mPDQE7axmgsZnO2W9VsgeQreDZnbUF1SNZwEQeM11LfwQqyyGH%2Bme8eNvc8LGIA8UlFpcKtslbO%2FoJPAGu4A%2B0tShxXMRtpBbPDC9usKwaFGuPT7W5MhE6hmd3jfwtV84NEsMGcnY5tzYenexutjdg&amp;rb=x#polycard_client=search-nordic&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Máquina De Lavar 15kg Electrolux Essential Care Com Cesto In Cor Branco 110V</t>
+          <t>Bola De Futevolei Altinha N°5 Quadra Areia Pro Praia</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1899</v>
+        <v>65.97</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_933655-MLU77338245029_062024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_645076-MLB82458925554_022025-E-bola-de-futevolei-altinha-n5-quadra-areia-pro-praia.webp</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-15kg-electrolux-essential-care-com-cesto-in-cor-branco-110v/p/MLB19037310#polycard_client=search-nordic&amp;searchVariation=MLB19037310&amp;wid=MLB2820206240&amp;position=27&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4006687617-bola-de-futevolei-altinha-n5-quadra-areia-pro-praia-_JM?searchVariation=183156389516#polycard_client=search-nordic&amp;searchVariation=183156389516&amp;position=44&amp;search_layout=grid&amp;type=item&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Máquina De Lavar Cwn13ab 13kg Branca Consul Cor Branco 220v</t>
+          <t>Bola De Futevôlei Diadora Elite-r</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1899</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_814381-MLU79216564271_092024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_777673-MLB74305800482_022024-E-bola-de-futevlei-diadora-elite-r.webp</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-cwn13ab-13kg-branca-consul-cor-branco-220v/p/MLB38473748#polycard_client=search-nordic&amp;searchVariation=MLB38473748&amp;wid=MLB5120871416&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=FA2v80kO0Q62jIC3APOe8OLdHZosDSTo1hLLRyRzr90a4JOmG9fNJuYmnoO8wg22iqTmr27d%2BrK3sZOAMDcUxTXULya%2FuqG3Uce7FwirY265ddOp%2FaRo0%2FUfe1%2Fe8RReqaCkhX4gJYzGKk62Jq9YuTkU%2FZbzoSwUeYEBMevSBPog0Bu0gIxXMJ93cIk4gUOvWjnzprMXLSMEiSakhNXOETkZc5KUFk1bQXqKVFLpHWMuz2XLh68FPbRohnW7tl%2BCcmfgQvwQKhoklCxqKO8wcN%2B12x61YphpgBIMTsCsHnlUsyjm18ZhifBDehyGu9uKFLf5gpt612eYaSwpb3psZ42tp7JY20HPiQBPpcWki4%2FqHPJIE8iZwN9PD8PRPxmFi%2B%2F9jhfUYSfXKW7I6emq3gWPDPAro%2BtAPq1Mlbu1WvjcEOFDOeYK%2F4o56stlpSmFH4zTluHTF8HsKZqH49c8i6VjRDwLf4JiWGWPeyy5JuASJg7cJfmPAASSftaG%2B5b%2BFAQx5qMBbAgkFrIVkMakbpJyEXx8LKisH3WrSN3mVVhT%2Bal25Bev9FVuqCIkH5rpVvnIOIthHtGurHdG5%2FUMhpGuYitAJxoXDha%2FceYFueTm8Ya0XdxcZd4LtZXVUsnvCxj%2FjN%2B5R%2BqrYb4uyMOPasbyNJqMjg4nxO6hb6fRGkW5imtNH17dsnmSd22hBtwdRfUtVo6b7VeYEEiD72oR%2Bf2sqpC8IVbMa%2B5uV03kiM3O7Atg3Dc6%2FLHKx%2Blem1khGGw4rvQ51VV%2FLhtFT0uDGeA367TVDZlCRBGdGq%2F8EF4H0r0oG9GbdOGxqt7Ld0bygm%2FBhLfnOQ%3D%3D&amp;rb=x#polycard_client=search-nordic&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Máquina de Lavar Electrolux 15kg Branca Essential Care com Cesto Inox e Jet&amp;Clean LED15 220v</t>
+          <t>Bola De Futevôlei Diadora Elite-r</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1899</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_956915-MLU77118725640_062024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_777673-MLB74305800482_022024-E-bola-de-futevlei-diadora-elite-r.webp</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-electrolux-15kg-branca-essential-care-com-cesto-inox-e-jetclean-led15-220v/p/MLB19037311#polycard_client=search-nordic&amp;searchVariation=MLB19037311&amp;wid=MLB2820216493&amp;position=48&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3705513048-bola-de-futevlei-diadora-elite-r-_JM?searchVariation=177953619994#polycard_client=search-nordic&amp;searchVariation=177953619994&amp;position=50&amp;search_layout=grid&amp;type=item&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lavadora De Roupas Philco 14kg Plr14a 127v</t>
+          <t>Bola De Futevôlei Diadora Elite-r Cor Amarelo</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1906</v>
+        <v>74.92</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_935142-MLA80891116954_122024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_699842-MLU70081962810_062023-E.webp</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/lavadora-de-roupas-philco-14kg-plr14a-127v/p/MLB44409031#polycard_client=search-nordic&amp;searchVariation=MLB44409031&amp;wid=MLB3934734385&amp;position=43&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futevlei-diadora-elite-r-cor-amarelo/p/MLB21096382#polycard_client=search-nordic&amp;searchVariation=MLB21096382&amp;wid=MLB3383487155&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Máquina De Lavar Panasonic 12kg Titânio Na-f120b1t Cor Cinza 220V</t>
+          <t>Bola De Campo Topper Slick Gold Dourada Oficial Bomba De Ar</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1939</v>
+        <v>74.95</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_670021-MLU77169983306_072024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_869593-MLB82719894389_022025-E-bola-de-campo-topper-slick-gold-dourada-oficial-bomba-de-ar.webp</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-panasonic-12kg-titnio-na-f120b1t-cor-cinza-220v/p/MLB18019527#polycard_client=search-nordic&amp;searchVariation=MLB18019527&amp;wid=MLB2025672291&amp;position=37&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3987100373-bola-de-campo-topper-slick-gold-dourada-oficial-bomba-de-ar-_JM?searchVariation=183000579442#polycard_client=search-nordic&amp;searchVariation=183000579442&amp;position=43&amp;search_layout=grid&amp;type=item&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Lavadora Electrolux 12kg Com Dispenser Autolimpante Lac12 220V</t>
+          <t>Bola Para Futebol De Campo Bravo Xxiv Branco e Azul Penalty</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1940</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_938210-MLA43368841128_092020-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_698520-MLU75981724023_042024-E.webp</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/lavadora-electrolux-12kg-com-dispenser-autolimpante-lac12-220v/p/MLB8045008#polycard_client=search-nordic&amp;searchVariation=MLB8045008&amp;wid=MLB2042392929&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-para-futebol-de-campo-bravo-xxiv-branco-e-azul-penalty/p/MLB27895686#polycard_client=search-nordic&amp;searchVariation=MLB27895686&amp;wid=MLB3951567371&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lavadora Electrolux 12kg Com Dispenser Autolimpante Lac12 127V</t>
+          <t>Bola Futsal Penalty Rx 500 Xxiii Cor Azul</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1942</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_635073-MLU72747733932_112023-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_722195-MLU77108763060_062024-E.webp</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/lavadora-electrolux-12kg-com-dispenser-autolimpante-lac12-127v/p/MLB8045007#polycard_client=search-nordic&amp;searchVariation=MLB8045007&amp;wid=MLB2042392928&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-futsal-penalty-rx-500-xxiii-cor-azul/p/MLB25820360#polycard_client=search-nordic&amp;searchVariation=MLB25820360&amp;wid=MLB3996965885&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Máquina de Lavar Consul Cwh12bb Branca 12kg com Dosagem Econômica e Ciclo Edredom 110V</t>
+          <t>Bola De Futebol Branco E Laranja De Campo Bravo Xxiv Penalty</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1955</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_868571-MLU72748300995_112023-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_764251-MLU75813169222_042024-E.webp</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-consul-cwh12bb-branca-12kg-com-dosagem-econmica-e-ciclo-edredom-110v/p/MLB19954281#polycard_client=search-nordic&amp;searchVariation=MLB19954281&amp;wid=MLB3270039764&amp;position=39&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futebol-branco-e-laranja-de-campo-bravo-xxiv-penalty/p/MLB27893082#polycard_client=search-nordic&amp;searchVariation=MLB27893082&amp;wid=MLB5056295770&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Lavadora De Roupas Electrolux Essencial Care 11kg (les11) 127V</t>
+          <t>Bola Para Futebol De Campo Líder Xxiv Cor Branco/Azul/Verde Penalty</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1974</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_798413-MLA43117842453_082020-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_895518-MLU74287171999_012024-E.webp</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/lavadora-de-roupas-electrolux-essencial-care-11kg-les11-127v/p/MLB15950021#polycard_client=search-nordic&amp;searchVariation=MLB15950021&amp;wid=MLB2042380330&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-para-futebol-de-campo-lider-xxiv-cor-brancoazulverde-penalty/p/MLB30924589#polycard_client=search-nordic&amp;searchVariation=MLB30924589&amp;wid=MLB3937962097&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Máquina De Lavar Cwn15ab 15kg Branca Consul Cor Branco 110v</t>
+          <t>Bola Allpha Futsal Pró+ Madri Pu Maciez Treino Original</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1999</v>
+        <v>106.69</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_835643-MLU78412371310_082024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_965545-MLB82741758954_032025-E-bola-allpha-futsal-pro-madri-pu-maciez-treino-original.webp</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-cwn15ab-15kg-branca-consul-cor-branco-110v/p/MLB39455938#polycard_client=search-nordic&amp;searchVariation=MLB39455938&amp;wid=MLB3834214575&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4000309717-bola-allpha-futsal-pro-madri-pu-maciez-treino-original-_JM?searchVariation=183112590022#polycard_client=search-nordic&amp;searchVariation=183112590022&amp;position=45&amp;search_layout=grid&amp;type=item&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Máquina De Lavar Cwn15ab 15kg Branca Consul Cor Branco 220v</t>
+          <t>Bola de Futebol Penalty Society Lider XXIV Branco Laranja Azul 5</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1999</v>
+        <v>111.71</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_764211-MLU78408768259_082024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_903645-MLU74833063908_032024-E.webp</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-cwn15ab-15kg-branca-consul-cor-branco-220v/p/MLB39328201#polycard_client=search-nordic&amp;searchVariation=MLB39328201&amp;wid=MLB3825557205&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futebol-penalty-society-lider-xxiv-branco-laranja-azul-5/p/MLB27892495#polycard_client=search-nordic&amp;searchVariation=MLB27892495&amp;wid=MLB3951591553&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Máquina de Lavar Electrolux 14kg Branca Essential Care com Cesto Inox e Jet&amp;Clean LED14 110V</t>
+          <t>Bola Society Líder Xxiv Pu Laminado 6 Gomos Penalty</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>2048</v>
+        <v>114.99</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_927128-MLU78108592086_082024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_609551-MLU78177695411_082024-E.webp</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-electrolux-14kg-branca-essential-care-com-cesto-inox-e-jetclean-led14-110v/p/MLB17920363#polycard_client=search-nordic&amp;searchVariation=MLB17920363&amp;wid=MLB2042425192&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-society-lider-xxiv-pu-laminado-6-gomos-penalty/p/MLB27924191#polycard_client=search-nordic&amp;searchVariation=MLB27924191&amp;wid=MLB3938335813&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Máquina De Lavar Bwk13ab 13kg Branca Brastemp Cor Branco 110V</t>
+          <t>Bola De Futebol Corinthians Time Oficial Licenciada Timão</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>2093</v>
+        <v>119</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_713249-MLA72428771637_102023-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_707361-MLB82839791767_032025-E-bola-de-futebol-corinthians-time-oficial-licenciada-timo.webp</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-bwk13ab-13kg-branca-brastemp-cor-branco-110v/p/MLB27592682#polycard_client=search-nordic&amp;searchVariation=MLB27592682&amp;wid=MLB4148593028&amp;position=20&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3992563623-bola-de-futebol-corinthians-time-oficial-licenciada-timo-_JM?searchVariation=187103662249#polycard_client=search-nordic&amp;searchVariation=187103662249&amp;position=49&amp;search_layout=grid&amp;type=item&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Máquina De Lavar 14kg Essential Care LED14 Com Cesto Inox E Jet&amp;Clean Electrolux 220V</t>
+          <t>Bola Futevolei Altinha Ftv Ft5 Penta Futemesa Rio Cor Preto</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>2162</v>
+        <v>126.85</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_927128-MLU78108592086_082024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_764380-MLU73463308040_122023-E.webp</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-14kg-essential-care-led14-com-cesto-inox-e-jetclean-electrolux-220v/p/MLB17920364#polycard_client=search-nordic&amp;searchVariation=MLB17920364&amp;wid=MLB2042367533&amp;position=41&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-futevolei-altinha-ftv-ft5-penta-futemesa-rio-cor-preto/p/MLB29123039#polycard_client=search-nordic&amp;searchVariation=MLB29123039&amp;wid=MLB4321183772&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Máquina de Lavar NA-F170B7W Com Sistema Ciclone e Função Smartsense 17kg Cor Branca 127V</t>
+          <t>Bola 81 Dalponte Star Campo Costurada A Mão Original</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>2199</v>
+        <v>131</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_885462-MLU72748594615_112023-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_947113-MLB45202965881_032021-E.webp</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-na-f170b7w-com-sistema-ciclone-e-funco-smartsense-17kg-cor-branca-127v/p/MLB23462525#polycard_client=search-nordic&amp;searchVariation=MLB23462525&amp;wid=MLB3351549387&amp;position=25&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-81-dalponte-star-campo-costurada-a-mo-original/p/MLB20563342#polycard_client=search-nordic&amp;searchVariation=MLB20563342&amp;wid=MLB4006264629&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Máquina De Lavar Na-f170b7wb 17kg Branca Panasonic 220v Cor Branco</t>
+          <t>Bola de futevolei Poker Rio Poker nº 5 Unidade x 1 unidades cor rosa e preto</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>2199</v>
+        <v>135</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_897025-MLU72748623701_112023-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_904045-MLU79036618824_092024-E.webp</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-na-f170b7wb-17kg-branca-panasonic-220v-cor-branco/p/MLB23458910#polycard_client=search-nordic&amp;searchVariation=MLB23458910&amp;wid=MLB3332415215&amp;position=46&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futevolei-poker-rio-poker-n-5-unidade-x-1-unidades-cor-rosa-e-preto/p/MLB19698706#polycard_client=search-nordic&amp;searchVariation=MLB19698706&amp;wid=MLB5051108460&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Máquina De Lavar Bwk13a9 13kg Cinza Platinum Brastemp Cor Cinza-escuro 110V</t>
+          <t>Bola de Futevolei Poker Rio Poker nº 5 cor amarelo e preto</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>2202</v>
+        <v>139.29</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_630024-MLU74978359017_032024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_753390-MLU74696438844_022024-E.webp</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-bwk13a9-13kg-cinza-platinum-brastemp-cor-cinza-escuro-110v/p/MLB27950738#polycard_client=search-nordic&amp;searchVariation=MLB27950738&amp;wid=MLB4169866822&amp;position=22&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futevolei-poker-rio-poker-n-5-cor-amarelo-e-preto/p/MLB19698709#polycard_client=search-nordic&amp;searchVariation=MLB19698709&amp;wid=MLB3889075523&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Máquina De Lavar Bwk13a9 13kg Cinza Platinum Brastemp Cor Cinza-escuro 220V</t>
+          <t>Bola de futevolei Poker Rio Poker nº 5 Unidade x 1 unidades cor branco e preto</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>2202</v>
+        <v>140.11</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_723323-MLU74842936884_032024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_773647-MLA79588973813_092024-E.webp</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-bwk13a9-13kg-cinza-platinum-brastemp-cor-cinza-escuro-220v/p/MLB27950739#polycard_client=search-nordic&amp;searchVariation=MLB27950739&amp;wid=MLB4169909966&amp;position=30&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futevolei-poker-rio-poker-n-5-unidade-x-1-unidades-cor-branco-e-preto/p/MLB19698708#polycard_client=search-nordic&amp;searchVariation=MLB19698708&amp;wid=MLB3889079001&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Máquina De Lavar Bwf15ab 15kg Tira Manchas Branca Brastemp Cor Branco 110V</t>
+          <t>Bola Futevôlei Vulcanizada Pu Poker Original Branca/azul</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>2211</v>
+        <v>149.9</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_663713-MLU74979993323_032024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_601980-MLB83086122841_032025-E-bola-futevlei-vulcanizada-pu-poker-original-brancaazul.webp</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-bwf15ab-15kg-tira-manchas-branca-brastemp-cor-branco-110v/p/MLB26876403#polycard_client=search-nordic&amp;searchVariation=MLB26876403&amp;wid=MLB4106662150&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://produto.mercadolivre.com.br/MLB-5318075606-bola-futevlei-vulcanizada-pu-poker-original-brancaazul-_JM#polycard_client=search-nordic&amp;position=48&amp;search_layout=grid&amp;type=item&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Máquina De Lavar Bwf15ab 15kg Tira Manchas Branca Brastemp Cor Branco 220V</t>
+          <t>Bola De Futebol Society 8 X Penalty</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>2211</v>
+        <v>154.71</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_901572-MLU74842910584_032024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_818310-MLU76366734942_052024-E.webp</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-bwf15ab-15kg-tira-manchas-branca-brastemp-cor-branco-220v/p/MLB27702613#polycard_client=search-nordic&amp;searchVariation=MLB27702613&amp;wid=MLB4119804368&amp;position=24&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futebol-society-8-x-penalty/p/MLB19776132#polycard_client=search-nordic&amp;searchVariation=MLB19776132&amp;wid=MLB3829143887&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Máquina De Lavar 15kg Electrolux Premium (lec15) Cor Branco 110V</t>
+          <t>Bola De Futebol Campo Uhlsport Match R1 Brasileirão 2025</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>2261</v>
+        <v>155.99</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_756379-MLU77364385393_072024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_857447-MLB82813326112_032025-E-bola-de-futebol-campo-uhlsport-match-r1-brasileiro-2025.webp</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-15kg-electrolux-premium-lec15-cor-branco-110v/p/MLB36579268#polycard_client=search-nordic&amp;searchVariation=MLB36579268&amp;wid=MLB5017435998&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4003764129-bola-de-futebol-campo-uhlsport-match-r1-brasileiro-2025-_JM#polycard_client=search-nordic&amp;position=46&amp;search_layout=grid&amp;type=item&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Máquina de Lavar Electrolux LEC15 Branca 15kg Premium Care com Cesto Inox Jet&amp;Clean e Time Control 220V</t>
+          <t>Bola De Campo Penalty S11 R2 Xxv ( Camp.paulista)</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>2261</v>
+        <v>159.9</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_607815-MLU77146379044_062024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_687100-MLB82940622023_032025-E-bola-de-campo-penalty-s11-r2-xxv-camppaulista.webp</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-electrolux-lec15-branca-15kg-premium-care-com-cesto-inox-jetclean-e-time-control-220v/p/MLB36731713#polycard_client=search-nordic&amp;searchVariation=MLB36731713&amp;wid=MLB5017447374&amp;position=47&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3996246671-bola-de-campo-penalty-s11-r2-xxv-camppaulista-_JM?searchVariation=187147572233#polycard_client=search-nordic&amp;searchVariation=187147572233&amp;position=47&amp;search_layout=grid&amp;type=item&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Lavadora Digital Inverter Samsung Ww11t Branca 11kg Cor Branco 110V</t>
+          <t>Bola Futebol De Campo Bola 8 Penalty Cor Preto</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>2359</v>
+        <v>164</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_763583-MLU78406525997_082024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_888107-MLA81942694869_012025-E.webp</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/lavadora-digital-inverter-samsung-ww11t-branca-11kg-cor-branco-110v/p/MLB39327272#polycard_client=search-nordic&amp;searchVariation=MLB39327272&amp;wid=MLB3818670393&amp;position=50&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-futebol-de-campo-bola-8-penalty-cor-preto/p/MLB22210458#polycard_client=search-nordic&amp;searchVariation=MLB22210458&amp;wid=MLB3945165169&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Máquina De Lavar Brastemp 15kg Cinza Platinum Com Timer Pro 110V</t>
+          <t>Bola De Futebol Dalponte 81 Nitro Society Costurada À Mão Cor Branco</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>2439</v>
+        <v>176.62</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_735856-MLU76143998613_052024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_756582-MLU74393181908_022024-E.webp</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-brastemp-15kg-cinza-platinum-com-timer-pro-110v/p/MLB36504260#polycard_client=search-nordic&amp;searchVariation=MLB36504260&amp;wid=MLB3802426827&amp;position=38&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futebol-dalponte-81-nitro-society-costurada-mo-cor-branco/p/MLB32946547#polycard_client=search-nordic&amp;searchVariation=MLB32946547&amp;wid=MLB3596272369&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Máquina De Lavar Led17 Branco Essential Care 17kg Electrolux</t>
+          <t>Bola Futebol Society 8 Pro Xxiv Tamanho 5 Cor Preto e Branco Penalty</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>2535</v>
+        <v>297</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_999868-MLA82370834951_022025-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_819669-MLU75482475121_032024-E.webp</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-led17-branco-essential-care-17kg-electrolux/p/MLB46017200#polycard_client=search-nordic&amp;searchVariation=MLB46017200&amp;wid=MLB5285022924&amp;position=51&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-futebol-society-8-pro-xxiv-tamanho-5-cor-preto-e-branco-penalty/p/MLB35142675#polycard_client=search-nordic&amp;searchVariation=MLB35142675&amp;wid=MLB4630087278&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Máquina De Lavar Brastemp 17kg Branca - Bwk17ab Cor Branco 220V</t>
+          <t>Bola De Futsal Penalty Max 1000 Xxiv Cor Azul</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>2577</v>
+        <v>298.28</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_935520-MLU77119876248_062024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_973308-MLU75866936168_042024-E.webp</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/maquina-de-lavar-brastemp-17kg-branca-bwk17ab-cor-branco-220v/p/MLB22636409#polycard_client=search-nordic&amp;searchVariation=MLB22636409&amp;wid=MLB5152699940&amp;position=52&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futsal-penalty-max-1000-xxiv-cor-azul/p/MLB36227619#polycard_client=search-nordic&amp;searchVariation=MLB36227619&amp;wid=MLB3937932227&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Lava E Seca Midea Master Clean Smart 11kg Branca 127v</t>
+          <t>Bola Uhlsport Campo Game Pro Brasileirão Série C E D 2025</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>3195</v>
+        <v>379</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_730553-MLU77374801689_072024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_652481-MLB82865558482_032025-E-bola-uhlsport-campo-game-pro-brasileiro-serie-c-e-d-2025.webp</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/lava-e-seca-midea-master-clean-smart-11kg-branca-127v/p/MLB37296614#polycard_client=search-nordic&amp;searchVariation=MLB37296614&amp;wid=MLB5178870222&amp;position=26&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4006258699-bola-uhlsport-campo-game-pro-brasileiro-serie-c-e-d-2025-_JM?searchVariation=187252357205#polycard_client=search-nordic&amp;searchVariation=187252357205&amp;position=42&amp;search_layout=grid&amp;type=item&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Lava e seca Midea Master Clean Smart 11kg Titanium Mfm01d110wb/tkbr04 127v</t>
+          <t>Kit 50 Bolas Futebol Couro Sintético Costurada N°05</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>3299</v>
+        <v>916</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_979698-MLU77125322082_062024-V.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_871334-MLB82990085837_032025-E-kit-50-bolas-futebol-couro-sintetico-costurada-n05.webp</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/lava-e-seca-midea-master-clean-smart-11kg-titanium-mfm01d110wbtkbr04-127v/p/MLB37448773#polycard_client=search-nordic&amp;searchVariation=MLB37448773&amp;wid=MLB3909021837&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Lava e Seca Midea MF200D110WB 11Kg Midea HealthGuard Titanium Conectada 127V</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="n">
-        <v>3427</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_927592-MLU76537680465_052024-V.webp</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/lava-e-seca-midea-mf200d110wb-11kg-midea-healthguard-titanium-conectada-127v/p/MLB19136202#polycard_client=search-nordic&amp;searchVariation=MLB19136202&amp;wid=MLB3775715141&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Lava e Seca Midea MF200D110WB 11Kg HealthGuard Titanium Conectada 220v</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="n">
-        <v>3427</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_842109-MLU72566235196_112023-V.webp</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/lava-e-seca-midea-mf200d110wb-11kg-healthguard-titanium-conectada-220v/p/MLB19136205#polycard_client=search-nordic&amp;searchVariation=MLB19136205&amp;wid=MLB3775715131&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=3ee44d1b-ae16-41f8-9e78-c77081a73b22&amp;sid=search</t>
+          <t>https://produto.mercadolivre.com.br/MLB-5313103164-kit-50-bolas-futebol-couro-sintetico-costurada-n05-_JM?searchVariation=183096595076#polycard_client=search-nordic&amp;searchVariation=183096595076&amp;position=41&amp;search_layout=grid&amp;type=item&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
         </is>
       </c>
     </row>

--- a/produtos_ordenados.xlsx
+++ b/produtos_ordenados.xlsx
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>12.81</v>
+        <v>21.65</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -478,594 +478,594 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/saco-para-ate-10-bolas-porta-bolas-fio-4mm-branco/p/MLB25996601#polycard_client=search-nordic&amp;searchVariation=MLB25996601&amp;wid=MLB4147585512&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/saco-para-ate-10-bolas-porta-bolas-fio-4mm-branco/p/MLB25996601?searchVariation=MLB25996601#polycard_client=search-nordic&amp;searchVariation=MLB25996601&amp;wid=MLB3489017277&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bola De Futebol Para Campo Tamanho 5 Petrin Presente Cor</t>
+          <t>Bola Infantil Escolar Queimada T10 Vollo Iniciação Esportiva Cor Laranja</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>18.37</v>
+        <v>36.92</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_859381-MLA81212900247_122024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_878434-MLB51582630730_092022-E.webp</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-para-campo-tamanho-5-petrin-presente-cor/p/MLB44556814#polycard_client=search-nordic&amp;searchVariation=MLB44556814&amp;wid=MLB4007228671&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-infantil-escolar-queimada-t10-vollo-iniciaco-esportiva-cor-laranja/p/MLB19718998?searchVariation=MLB19718998#polycard_client=search-nordic&amp;searchVariation=MLB19718998&amp;wid=MLB2940254386&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Trave Futebol Gol Kit Mini Golzinho Infantil Brinquedo Bola</t>
+          <t>Bola Iniciação De Borracha 12 Magussy Cor Verde</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>33.54</v>
+        <v>38.9</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_764435-MLA79889067517_102024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_854080-MLB31117752008_062019-E.webp</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/trave-futebol-gol-kit-mini-golzinho-infantil-brinquedo-bola/p/MLB41775954#polycard_client=search-nordic&amp;searchVariation=MLB41775954&amp;wid=MLB5118193404&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-iniciaco-de-borracha-12-magussy-cor-verde/p/MLB20578581?searchVariation=MLB20578581#polycard_client=search-nordic&amp;searchVariation=MLB20578581&amp;wid=MLB3079846120&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tabela De Medição De Pressão, Medidor De Ponteiro De Futebol</t>
+          <t>Bola Futebol Queimada Iniciação De Borracha 14 Magussy Cor Laranja</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>38.31</v>
+        <v>43.5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_725638-CBT81594394892_012025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_907909-MLB42249022185_062020-E.webp</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/pressure-measurement-table-portable-football-pointer-gauge/p/MLB2009472856#polycard_client=search-nordic&amp;searchVariation=MLB2009472856&amp;wid=MLB4000139541&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-futebol-queimada-iniciaco-de-borracha-14-magussy-cor-laranja/p/MLB22313946?searchVariation=MLB22313946#polycard_client=search-nordic&amp;searchVariation=MLB22313946&amp;wid=MLB3409769135&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bola Futebol Tamanho 5 Capotão + Bomba De Ar E Bico Cor Azul</t>
+          <t>Bola De Futsal Sandrini Strike Pro Oficial Alta Performance</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>39.99</v>
+        <v>49.58</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_628564-MLU78026959026_082024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_853272-MLB83998028405_042025-E-bola-de-futsal-sandrini-strike-pro-oficial-alta-performance.webp</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-futebol-tamanho-5-capoto-bomba-de-ar-e-bico-cor-azul/p/MLB39157733#polycard_client=search-nordic&amp;searchVariation=MLB39157733&amp;wid=MLB3870171799&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=yFY0NMfIaBac5HMHB%2Fm3ln6SBTS%2BBbkMb5m8dDJHYYxNtiu9JYhED9fjlhQLDMlCd7URHt0g10ZJLlucFpNU0wgOdely6tKw01%2Bp8XrXyQfHdb3boJ1Q8SmvnpcWBjX3TizitpnJm4nZJJNTw0UfB2ZOJmaOCg%2B4yB2amrm%2BHZTJ3TI1oCQeoXvO0R2wgcpgF46i7xcbV870eUc319etjml%2F6ejxQU1epBt%2BM8OQzgHpxQaZoi%2FsHQfCIM0idyze7zGYAAJyhoLtVN7%2B8hPFaL0ekLhvSUrnnEOdtPvcBSdS2MFXVfGjSUYcIRa8Pd2jD0s1dVfKxT1kM9Tgma3vzlgAMHVZ%2F%2BwAhBuvckmPSMRuT1D4PDOk3nXDV%2BFZROI4P2frfVCKZLMwWlZINW%2BswoY%2BZTxFw3hqcoCkZ6KoAuilMkPHPaporJDr3VTpa5Mf7MIXD%2FzlloxOR9uFDrkTzdFmn%2B1bRJrS1%2FFnjOud0qnKQQt9RH1ydJrYUf6rkeZaoG38NucQmX%2FTaBNDTx5gsYGpfQKwqa%2B4R7IRRQzdj4rvH%2FvI1MC%2FbZKx3NUkJ%2BeNkgwYzbV9ItbA1IwPUVsZcnU6fq%2BJ54gDgw8PmrhapJ%2BrK3GVRL99rDd61pBfcaFzz3lg7QvbIY1RsMVHlw3Ihr4CNuinIrznyMEDYJVYas6N3PYofB7ERVwoGe4rAXkj7jtdQHNly5a42rKsJ0RpaoS1REoRt1ubXnt0WfsiVxYl9NFdWidFtA2hBlmK6Z%2F7kedw1IhMR90FOa%2BGBwUunSgyh68PP5pu%2FiH44oikk0tyBzaUEE22Ek%2BbKkd8%2Fn6VYBlr6VN5hy7D45dXed0OvP3EiBvLcNNDUx4H9sxWvouMO4gucf%2B5WD7qBD4%3D&amp;searchVariation=187629540185#polycard_client=search-nordic&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kit Bola De Vôlei + Bola De Futebol + Bomba Pró Sortidas</t>
+          <t>Bola De Futsal Sandrini Strike Pro Oficial Alta Performance</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>41.22</v>
+        <v>49.58</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_702577-MLA82266657438_022025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_853272-MLB83998028405_042025-E-bola-de-futsal-sandrini-strike-pro-oficial-alta-performance.webp</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kit-bola-de-vlei-bola-de-futebol-bomba-pro-sortidas/p/MLB46184165#polycard_client=search-nordic&amp;searchVariation=MLB46184165&amp;wid=MLB5292902016&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4040460061-bola-de-futsal-sandrini-strike-pro-oficial-alta-performance-_JM?searchVariation=187629540185#polycard_client=search-nordic&amp;searchVariation=187629540185&amp;position=47&amp;search_layout=grid&amp;type=item&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bola De Vôlei 3.5 Texturizada Amarela Rainha Topper</t>
+          <t>Bola Iniciação De Borracha T12 Penalty Iniciação Crianças Cor Azul</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>44.99</v>
+        <v>52.9</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_875461-MLU78119836106_082024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_631736-MLB52523687277_112022-E.webp</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-vlei-35-texturizada-amarela-rainha-topper/p/MLB21012198#polycard_client=search-nordic&amp;searchVariation=MLB21012198&amp;wid=MLB3963193225&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-iniciaco-de-borracha-t12-penalty-iniciaco-criancas-cor-azul/p/MLB21906104?searchVariation=MLB21906104#polycard_client=search-nordic&amp;searchVariation=MLB21906104&amp;wid=MLB5348589720&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bola De Futebol Luke Sports Tamanho 5 Campo E Society Branca Cor Branco</t>
+          <t>A+ Futebol De Treinamento Euro 5 2024</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>48.29</v>
+        <v>55.74</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_921199-MLA80927520322_122024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_893064-MLB84246921498_052025-E.webp</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-luke-sports-tamanho-5-campo-e-society-branca-cor-branco/p/MLB44516604#polycard_client=search-nordic&amp;searchVariation=MLB44516604&amp;wid=MLB5214268684&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/entrenamiento-de-futbol-euro5-2024/p/MLB2017321288#polycard_client=search-nordic&amp;searchVariation=MLB2017321288&amp;wid=MLB4058260225&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10 Bolas De Vinil Futebol Dente De Leite C/ Cor Branco Com Preto</t>
+          <t>Bola De Futsal Slick 22 Topper Cor Branco/Amarelo Neon/Azul</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>48.97</v>
+        <v>62.23</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_785671-MLU77640619462_072024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_656329-MLB54078855245_022023-E.webp</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/10-bolas-de-vinil-futebol-dente-de-leite-c-cor-branco-com-preto/p/MLB38350019#polycard_client=search-nordic&amp;searchVariation=MLB38350019&amp;wid=MLB3855446145&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futsal-slick-22-topper-cor-brancoamarelo-neonazul/p/MLB22262771?searchVariation=MLB22262771#polycard_client=search-nordic&amp;searchVariation=MLB22262771&amp;wid=MLB3820042822&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bola De Futebol De Campo Slick 2020 Topper Cor Amarelo Neon/Preto</t>
+          <t>Bola De Futebol Society Slick 2020 Cor Branco/Preto/Amarelo Tamanho Único Topper</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>48.99</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_969183-MLU75988202853_042024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_869053-MLB51937100243_102022-E.webp</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-de-campo-slick-2020-topper-cor-amarelo-neonpreto/p/MLB19754376#polycard_client=search-nordic&amp;searchVariation=MLB19754376&amp;wid=MLB5277328830&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futebol-society-slick-2020-cor-brancopretoamarelo-tamanho-unico-topper/p/MLB19744266?searchVariation=MLB19744266#polycard_client=search-nordic&amp;searchVariation=MLB19744266&amp;wid=MLB5222132312&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bola De Futebol Slick Campo Cor Azul/Branco/Preto Topper</t>
+          <t>Bola De Futevôlei Diadora Elite-r Cor Amarelo</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>50.72</v>
+        <v>67.13</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_979047-MLU71168535619_082023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_699842-MLU70081962810_062023-E.webp</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-slick-campo-cor-azulbrancopreto-topper/p/MLB19765484#polycard_client=search-nordic&amp;searchVariation=MLB19765484&amp;wid=MLB5270990860&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futevlei-diadora-elite-r-cor-amarelo/p/MLB21096382?searchVariation=MLB21096382#polycard_client=search-nordic&amp;searchVariation=MLB21096382&amp;wid=MLB3383487155&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bola Futebol Society Ótimo Custo Beneficio Peso Ideal Top Cor Azul</t>
+          <t>Bola Futevolei Protech Diadora Elite-r Cor Branco</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>53.82</v>
+        <v>67.13</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_862896-MLU69453002841_052023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_645165-MLU78631385474_092024-E.webp</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-futebol-society-otimo-custo-beneficio-peso-ideal-top-cor-azul/p/MLB23339357#polycard_client=search-nordic&amp;searchVariation=MLB23339357&amp;wid=MLB3923038695&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-futevolei-protech-diadora-elite-r-cor-branco/p/MLB39111515?searchVariation=MLB39111515#polycard_client=search-nordic&amp;searchVariation=MLB39111515&amp;wid=MLB3809247007&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bola De Futebol de Campo Slick 24 Tecnofusion Multicor Topper</t>
+          <t>Bola De Futebol Uhlsport Score Society Laranja</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>53.99</v>
+        <v>67.72</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_722050-MLU76926100481_062024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_776421-MLA83745761947_042025-E.webp</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-de-campo-slick-24-tecnofusion-multicor-topper/p/MLB35378541#polycard_client=search-nordic&amp;searchVariation=MLB35378541&amp;wid=MLB3963108755&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futebol-uhlsport-score-society-laranja/p/MLB48256018?searchVariation=MLB48256018#polycard_client=search-nordic&amp;searchVariation=MLB48256018&amp;wid=MLB4055108227&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bola De Futebol De Campo Slick 2020 Topper</t>
+          <t>Bola De Futebol Para Campo 22 I Topper Cor Branco/Verde Mar/Preto</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>54.99</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_735756-MLB54078855256_022023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_967540-MLU69495823375_052023-E.webp</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-de-campo-slick-2020-topper/p/MLB22262774#polycard_client=search-nordic&amp;searchVariation=MLB22262774&amp;wid=MLB5270990842&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futebol-para-campo-22-i-topper-cor-brancoverde-marpreto/p/MLB22272252?searchVariation=MLB22272252#polycard_client=search-nordic&amp;searchVariation=MLB22272252&amp;wid=MLB4198884500&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bola De Futsal Slick 24 Câmara Airvility 6 Gomos Topper</t>
+          <t>Bola De Futsal Kagiva Slick  Sub 11</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>54.99</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_790020-MLU75616505649_042024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_908540-MLB84342735079_052025-E-bola-de-futsal-kagiva-slick-sub-11.webp</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futsal-slick-24-cmara-airvility-6-gomos-topper/p/MLB35378564#polycard_client=search-nordic&amp;searchVariation=MLB35378564&amp;wid=MLB3963063089&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4052328075-bola-de-futsal-kagiva-slick-sub-11-_JM?searchVariation=187815505187#polycard_client=search-nordic&amp;searchVariation=187815505187&amp;position=46&amp;search_layout=grid&amp;type=item&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bola De Futebol Para Campo 22 I Topper Cor Branco/Verde Mar/Preto</t>
+          <t>Topper Futsal Slick Bola Futebol Salão Branco Com Azul</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>55.85</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_967540-MLU69495823375_052023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_880504-MLU71134471481_082023-E.webp</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-para-campo-22-i-topper-cor-brancoverde-marpreto/p/MLB22272252#polycard_client=search-nordic&amp;searchVariation=MLB22272252&amp;wid=MLB4198884500&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/topper-futsal-slick-bola-futebol-salo-branco-com-azul/p/MLB26148855?searchVariation=MLB26148855#polycard_client=search-nordic&amp;searchVariation=MLB26148855&amp;wid=MLB4703197748&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bola De Futebol Campo Slick Cup Topper</t>
+          <t>Bola De Futebol Slick Campo Cor Azul/Branco/Preto Topper</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>59.15</v>
+        <v>69.11</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_659913-MLA80298884457_102024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_979047-MLU71168535619_082023-E.webp</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-campo-slick-cup-topper/p/MLB19698380#polycard_client=search-nordic&amp;searchVariation=MLB19698380&amp;wid=MLB5189140588&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futebol-slick-campo-cor-azulbrancopreto-topper/p/MLB19765484?searchVariation=MLB19765484#polycard_client=search-nordic&amp;searchVariation=MLB19765484&amp;wid=MLB3784862677&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bola De Futsal Slick 22 Topper Cor Branco/Amarelo Neon/Azul</t>
+          <t>Bola Futebol Society Ótimo Custo Beneficio Peso Ideal Top Cor Azul</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>59.2</v>
+        <v>69.11</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_656329-MLB54078855245_022023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_822484-MLA84472440243_052025-E.webp</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futsal-slick-22-topper-cor-brancoamarelo-neonazul/p/MLB22262771#polycard_client=search-nordic&amp;searchVariation=MLB22262771&amp;wid=MLB3820042822&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-futebol-society-otimo-custo-beneficio-peso-ideal-top-cor-azul/p/MLB23339357?searchVariation=MLB23339357#polycard_client=search-nordic&amp;searchVariation=MLB23339357&amp;wid=MLB5105345848&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bola De Futsal Slick Cup Topper Cor Laranja/Azul Anodizado/Preto</t>
+          <t>Bola De Futebol Licenciada Corinthians (sccp) N° 5 Cor Preto</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>59.9</v>
+        <v>77.88</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_882043-MLU75981819389_042024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_836019-MLU78000914804_082024-E.webp</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futsal-slick-cup-topper-cor-laranjaazul-anodizadopreto/p/MLB19710248#polycard_client=search-nordic&amp;searchVariation=MLB19710248&amp;wid=MLB2889188605&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futebol-licenciada-corinthians-sccp-n-5-cor-preto/p/MLB39115009?searchVariation=MLB39115009#polycard_client=search-nordic&amp;searchVariation=MLB39115009&amp;wid=MLB3956648899&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Topper Futsal Slick Bola Futebol Salão Branco Com Azul</t>
+          <t>Bola Futevolei Altinha Rio Vulcanizada Fut Mesa Luke Sports Cor Amarelo</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>60.99</v>
+        <v>77.98999999999999</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_880504-MLU71134471481_082023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_896782-MLU72643073783_112023-E.webp</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/topper-futsal-slick-bola-futebol-salo-branco-com-azul/p/MLB26148855#polycard_client=search-nordic&amp;searchVariation=MLB26148855&amp;wid=MLB3963093661&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-futevolei-altinha-rio-vulcanizada-fut-mesa-luke-sports-cor-amarelo/p/MLB21418949?searchVariation=MLB21418949#polycard_client=search-nordic&amp;searchVariation=MLB21418949&amp;wid=MLB4035567809&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bola De Futebol Society Slick 2020 Cor Branco/Preto/Amarelo Tamanho Único Topper</t>
+          <t>Bola Futevolei Altinha Rio Vulcanizada Fut Mesa Luke Sports Cor Branco</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>61.76</v>
+        <v>77.98999999999999</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_869053-MLB51937100243_102022-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_969914-MLA53311863193_012023-E.webp</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-society-slick-2020-cor-brancopretoamarelo-tamanho-unico-topper/p/MLB19744266#polycard_client=search-nordic&amp;searchVariation=MLB19744266&amp;wid=MLB5222132312&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-futevolei-altinha-rio-vulcanizada-fut-mesa-luke-sports-cor-branco/p/MLB21740597?searchVariation=MLB21740597#polycard_client=search-nordic&amp;searchVariation=MLB21740597&amp;wid=MLB4035606743&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bola De Futevolei Altinha N°5 Quadra Areia Pro Praia</t>
+          <t>Bola Campo Kappa Blasty</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>65.97</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_645076-MLB82458925554_022025-E-bola-de-futevolei-altinha-n5-quadra-areia-pro-praia.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_647523-MLB83740061954_042025-E-bola-campo-kappa-blasty.webp</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=mYpbkfZv%2BWrkHXFcJzH%2BLNwYdTR0CClKwqUNkB8gCyWC%2FkdDlw6z8okZwVrmsuyR2mvs0GYH0ptERW22b6tFsUz0f5KJyKt0nZlkml5NHIihom1Px0J1CrbZ6BSH%2FQTGQE6B9ax%2B8GkDXee%2B3gEdsQRcITpBPk4s%2Fw8gpWzkpb6nHYDnDCDl2xtI3hK1lB3Wd5%2F%2Fd%2F80G3ATney9LcSZw2H4xE2MA85NvXkt7eZqjfydIIsRHfEjNqfi%2FkCWbCW44xypAzY70XuE9F34Sb0BBB5IrTcC1McHT%2FQt4QIlLn5MravpRWVd4SjFa6QU9%2FCOQJCek3J%2BfhFmi6pNVPwdjvRnCYAj5w617jbLWvuC9BJT0I8D7bMaV8QDGZALYfTZOfGT97MfuUXaR8ghh0ObguNGxU55WI2FSBFhZdflUaZsCNlQoxpEcAePwzEG3z85QfUHPHfZqR5w0na0JYqMbdr4SD8yNvtmACVwSDGRi44oCy3mDQxN6SD%2B0ksm4DoC%2BV3xPf2OEQcAkZByaZrXT4%2B3gafEjiieOk%2FK3hq79iySWUkvbfQ9s%2FKjQRQuB2SFp7BdKa3JXs9ckJwlOhqDwF9W6qK6NtExi5tDMVlig4EIBE85sqQAg46ddNkNlAHoWDGbafgKjwSTAxNppif8QmfMEE%2B26ocAjnPEHS8rDpgCfzEUyAQrou8F0S38ZvEluacn6hROTtflt0mPDQE7axmgsZnO2W9VsgeQreDZnbUF1SNZwEQeM11LfwQqyyGH%2Bme8eNvc8LGIA8UlFpcKtslbO%2FoJPAGu4A%2B0tShxXMRtpBbPDC9usKwaFGuPT7W5MhE6hmd3jfwtV84NEsMGcnY5tzYenexutjdg&amp;rb=x#polycard_client=search-nordic&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4041791677-bola-campo-kappa-blasty-_JM?searchVariation=187650319665#polycard_client=search-nordic&amp;searchVariation=187650319665&amp;position=50&amp;search_layout=grid&amp;type=item&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bola De Futevolei Altinha N°5 Quadra Areia Pro Praia</t>
+          <t>Bola Futsal Penalty Rx 500 Xxiii Cor Azul</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>65.97</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_645076-MLB82458925554_022025-E-bola-de-futevolei-altinha-n5-quadra-areia-pro-praia.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_722195-MLU77108763060_062024-E.webp</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4006687617-bola-de-futevolei-altinha-n5-quadra-areia-pro-praia-_JM?searchVariation=183156389516#polycard_client=search-nordic&amp;searchVariation=183156389516&amp;position=44&amp;search_layout=grid&amp;type=item&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
+          <t>https://www.mercadolivre.com.br/bola-futsal-penalty-rx-500-xxiii-cor-azul/p/MLB25820360?searchVariation=MLB25820360#polycard_client=search-nordic&amp;searchVariation=MLB25820360&amp;wid=MLB3954480337&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bola De Futevôlei Diadora Elite-r</t>
+          <t>Bola De Futsal Rx 500 Xxiii Cor Branco Amarelo E Preto Penalty</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>69.59999999999999</v>
+        <v>84.12</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_777673-MLB74305800482_022024-E-bola-de-futevlei-diadora-elite-r.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_750391-MLA72526096144_102023-E.webp</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=FA2v80kO0Q62jIC3APOe8OLdHZosDSTo1hLLRyRzr90a4JOmG9fNJuYmnoO8wg22iqTmr27d%2BrK3sZOAMDcUxTXULya%2FuqG3Uce7FwirY265ddOp%2FaRo0%2FUfe1%2Fe8RReqaCkhX4gJYzGKk62Jq9YuTkU%2FZbzoSwUeYEBMevSBPog0Bu0gIxXMJ93cIk4gUOvWjnzprMXLSMEiSakhNXOETkZc5KUFk1bQXqKVFLpHWMuz2XLh68FPbRohnW7tl%2BCcmfgQvwQKhoklCxqKO8wcN%2B12x61YphpgBIMTsCsHnlUsyjm18ZhifBDehyGu9uKFLf5gpt612eYaSwpb3psZ42tp7JY20HPiQBPpcWki4%2FqHPJIE8iZwN9PD8PRPxmFi%2B%2F9jhfUYSfXKW7I6emq3gWPDPAro%2BtAPq1Mlbu1WvjcEOFDOeYK%2F4o56stlpSmFH4zTluHTF8HsKZqH49c8i6VjRDwLf4JiWGWPeyy5JuASJg7cJfmPAASSftaG%2B5b%2BFAQx5qMBbAgkFrIVkMakbpJyEXx8LKisH3WrSN3mVVhT%2Bal25Bev9FVuqCIkH5rpVvnIOIthHtGurHdG5%2FUMhpGuYitAJxoXDha%2FceYFueTm8Ya0XdxcZd4LtZXVUsnvCxj%2FjN%2B5R%2BqrYb4uyMOPasbyNJqMjg4nxO6hb6fRGkW5imtNH17dsnmSd22hBtwdRfUtVo6b7VeYEEiD72oR%2Bf2sqpC8IVbMa%2B5uV03kiM3O7Atg3Dc6%2FLHKx%2Blem1khGGw4rvQ51VV%2FLhtFT0uDGeA367TVDZlCRBGdGq%2F8EF4H0r0oG9GbdOGxqt7Ld0bygm%2FBhLfnOQ%3D%3D&amp;rb=x#polycard_client=search-nordic&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futsal-rx-500-xxiii-cor-branco-amarelo-e-preto-penalty/p/MLB22341158?searchVariation=MLB22341158#polycard_client=search-nordic&amp;searchVariation=MLB22341158&amp;wid=MLB3497005067&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bola De Futevôlei Diadora Elite-r</t>
+          <t>Bola Futsal Penalty Rx 200 Xxiii - Tamanho Único Cor Amarelo</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>69.59999999999999</v>
+        <v>88.86</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_777673-MLB74305800482_022024-E-bola-de-futevlei-diadora-elite-r.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_924774-MLU74087035735_012024-E.webp</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3705513048-bola-de-futevlei-diadora-elite-r-_JM?searchVariation=177953619994#polycard_client=search-nordic&amp;searchVariation=177953619994&amp;position=50&amp;search_layout=grid&amp;type=item&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
+          <t>https://www.mercadolivre.com.br/bola-futsal-penalty-rx-200-xxiii-tamanho-unico-cor-amarelo/p/MLB24090041?searchVariation=MLB24090041#polycard_client=search-nordic&amp;searchVariation=MLB24090041&amp;wid=MLB3632679633&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bola De Futevôlei Diadora Elite-r Cor Amarelo</t>
+          <t>Bolas De Futebol Tamanho 5 Team Match Group Training Pvc Hig</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>74.92</v>
+        <v>92.25</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_699842-MLU70081962810_062023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_941067-CBT84265222412_052025-E.webp</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futevlei-diadora-elite-r-cor-amarelo/p/MLB21096382#polycard_client=search-nordic&amp;searchVariation=MLB21096382&amp;wid=MLB3383487155&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/size-5-soccer-balls-team-match-group-training-pvc-high-quali/p/MLB2017854866#polycard_client=search-nordic&amp;searchVariation=MLB2017854866&amp;wid=MLB4058867027&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bola De Campo Topper Slick Gold Dourada Oficial Bomba De Ar</t>
+          <t>Bola Starlancer Club adidas Cor Blue / White</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>74.95</v>
+        <v>93.16</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_869593-MLB82719894389_022025-E-bola-de-campo-topper-slick-gold-dourada-oficial-bomba-de-ar.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_653697-MLA79844507542_102024-E.webp</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3987100373-bola-de-campo-topper-slick-gold-dourada-oficial-bomba-de-ar-_JM?searchVariation=183000579442#polycard_client=search-nordic&amp;searchVariation=183000579442&amp;position=43&amp;search_layout=grid&amp;type=item&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
+          <t>https://www.mercadolivre.com.br/bola-starlancer-club-adidas-cor-blue-white/p/MLB32495473?searchVariation=MLB32495473#polycard_client=search-nordic&amp;searchVariation=MLB32495473&amp;wid=MLB5122408382&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bola Para Futebol De Campo Bravo Xxiv Branco e Azul Penalty</t>
+          <t>Conjunto De Guirlandas De Balões De Decoração De Morango Str</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>77.90000000000001</v>
+        <v>96.56</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_698520-MLU75981724023_042024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_975428-CBT84563384451_052025-E.webp</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-para-futebol-de-campo-bravo-xxiv-branco-e-azul-penalty/p/MLB27895686#polycard_client=search-nordic&amp;searchVariation=MLB27895686&amp;wid=MLB3951567371&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/trawberry-gathering-decoration-balloon-garland-set-strawberr/p/MLB2017423693#polycard_client=search-nordic&amp;searchVariation=MLB2017423693&amp;wid=MLB4058639209&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bola Futsal Penalty Rx 500 Xxiii Cor Azul</t>
+          <t>Bola Futebol De Campo Topper Slick 22 Oficial + Bomba De Ar</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>78.90000000000001</v>
+        <v>97.63</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_722195-MLU77108763060_062024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_732799-MLB74418884230_022024-E-bola-futebol-de-campo-topper-slick-22-oficial-bomba-de-ar.webp</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-futsal-penalty-rx-500-xxiii-cor-azul/p/MLB25820360#polycard_client=search-nordic&amp;searchVariation=MLB25820360&amp;wid=MLB3996965885&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=sw6uyYhc3hvfNFUV1ejBrq2tXIwUeasI5mxwjRmJWVc4ySkcLEDbuubv%2BXJsyuu5qf6o7cJNtgOqJcOepGZoFooUT%2BTIJSPcJFa%2F0d50NIABDAX%2BOqKyMi%2F5jboz3on4ONPxziMUdm1TdJ8MEfJvfZFccubWdGa5BHPS7xbJYiCciMa0D7zXQdzdMz29ZNpwXWmX3wen7HU5JdWJayefOMbewUj6WlFcOlp3GlW9mH5eaTRIywTJfuOu9C67254Kc%2FPjaLFg64H7GhWLnSwdAdu8nPno7P4OEThUlEkuriOypj3xg%2BCo9AmmRVb2%2Bwn2e0EP1UE05O603%2FqQ8MihmnXNWTp5vkDQPLy6mf6X9c7B25rhkYHc3KoWbacDy6%2FgcqbCXH3nSEmZJIPhbT61IF7512vVVO0hhTQhFLm%2FqiDDRfPlaww9mjXnDAzDPEn2BN2fXR1YfI%2B1TwT43ttowkkBDUV0w4qW031gIc21URKeDJ2cO%2BK1GXthWPztXSI3vL3oCmc0915P%2BUA9U7o%2Fd8jTgBkcMlUKo4OWD0xVxdgVt7E6l%2FSQKsX3XJWRBQdUAo6cRoeniayTwQVeJW%2FMt0e8CODC14wA%2BiVCOpSRb0DA7F4rUvHhbGlAZXd0ZdBqJUTUWIa8t3cX8WOlnuAeq2aIQR8ZtkX0TMKk0irXQfhHNueTRyNte1aWTxZW3%2FojfnkQYCqGN8NQ%2F8KkHo%2BgJEH9jTUoAtxZG3dTCuCGqREEIdreVqmnWMOqC8avcm5orCV%2BO6KDDmFWZZh%2FbbiKd5UMcE9kl%2B4BvlTi4QtExbti%2BrEdQ15cnd6fbZ19wqlUzA%2BgN2gyD1qqMn%2FtFl0DVw5AIb46FwbC7zmYVjZH4wn%2BEow0o3wEhT0%3D&amp;searchVariation=177634599863#polycard_client=search-nordic&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Bola De Futebol Branco E Laranja De Campo Bravo Xxiv Penalty</t>
+          <t>Bola Futebol De Campo Topper Slick 22 Oficial + Bomba De Ar</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>78.98999999999999</v>
+        <v>97.63</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_764251-MLU75813169222_042024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_732799-MLB74418884230_022024-E-bola-futebol-de-campo-topper-slick-22-oficial-bomba-de-ar.webp</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-branco-e-laranja-de-campo-bravo-xxiv-penalty/p/MLB27893082#polycard_client=search-nordic&amp;searchVariation=MLB27893082&amp;wid=MLB5056295770&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3283893849-bola-futebol-de-campo-topper-slick-22-oficial-bomba-de-ar-_JM?searchVariation=177634599863#polycard_client=search-nordic&amp;searchVariation=177634599863&amp;position=49&amp;search_layout=grid&amp;type=item&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Bola Para Futebol De Campo Líder Xxiv Cor Branco/Azul/Verde Penalty</t>
+          <t>Bola adidas Starlancer Jh3748 Tamanho 5</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
@@ -1073,172 +1073,172 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_895518-MLU74287171999_012024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_700816-MLA80927391270_122024-E.webp</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-para-futebol-de-campo-lider-xxiv-cor-brancoazulverde-penalty/p/MLB30924589#polycard_client=search-nordic&amp;searchVariation=MLB30924589&amp;wid=MLB3937962097&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-adidas-starlancer-jh3748-tamanho-5/p/MLB44513782?searchVariation=MLB44513782#polycard_client=search-nordic&amp;searchVariation=MLB44513782&amp;wid=MLB3996195869&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Bola Allpha Futsal Pró+ Madri Pu Maciez Treino Original</t>
+          <t>Cabo De Freio 133-8158 Para Cortador De Grama Timemaster De</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>106.69</v>
+        <v>105.46</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_965545-MLB82741758954_032025-E-bola-allpha-futsal-pro-madri-pu-maciez-treino-original.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_760371-CBT84265591818_052025-E.webp</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4000309717-bola-allpha-futsal-pro-madri-pu-maciez-treino-original-_JM?searchVariation=183112590022#polycard_client=search-nordic&amp;searchVariation=183112590022&amp;position=45&amp;search_layout=grid&amp;type=item&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
+          <t>https://www.mercadolivre.com.br/133-8158-brake-cable-for-toro-30inch-timemaster-lawn-mower/p/MLB2017418961#polycard_client=search-nordic&amp;searchVariation=MLB2017418961&amp;wid=MLB4058727039&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Bola de Futebol Penalty Society Lider XXIV Branco Laranja Azul 5</t>
+          <t>Penalty Bola Campo S11 R2 Xxv</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>111.71</v>
+        <v>111.84</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_903645-MLU74833063908_032024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_809583-MLA82638539265_022025-E.webp</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-penalty-society-lider-xxiv-branco-laranja-azul-5/p/MLB27892495#polycard_client=search-nordic&amp;searchVariation=MLB27892495&amp;wid=MLB3951591553&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/penalty-bola-campo-s11-r2-xxv/p/MLB45335231?searchVariation=MLB45335231#polycard_client=search-nordic&amp;searchVariation=MLB45335231&amp;wid=MLB3957681981&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Bola Society Líder Xxiv Pu Laminado 6 Gomos Penalty</t>
+          <t>Penalty Bola Society S11 R2 Xxv</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>114.99</v>
+        <v>120</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_609551-MLU78177695411_082024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_909398-MLA81733802801_012025-E.webp</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-society-lider-xxiv-pu-laminado-6-gomos-penalty/p/MLB27924191#polycard_client=search-nordic&amp;searchVariation=MLB27924191&amp;wid=MLB3938335813&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/penalty-bola-society-s11-r2-xxv/p/MLB45246763?searchVariation=MLB45246763#polycard_client=search-nordic&amp;searchVariation=MLB45246763&amp;wid=MLB3957630395&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Bola De Futebol Corinthians Time Oficial Licenciada Timão</t>
+          <t>Bola De Futebol De Campo Líder Xxiv Tamanho 5 Penalty</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>119</v>
+        <v>124.9</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_707361-MLB82839791767_032025-E-bola-de-futebol-corinthians-time-oficial-licenciada-timo.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_820448-MLU74857870237_032024-E.webp</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3992563623-bola-de-futebol-corinthians-time-oficial-licenciada-timo-_JM?searchVariation=187103662249#polycard_client=search-nordic&amp;searchVariation=187103662249&amp;position=49&amp;search_layout=grid&amp;type=item&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futebol-de-campo-lider-xxiv-tamanho-5-penalty/p/MLB28612487?searchVariation=MLB28612487#polycard_client=search-nordic&amp;searchVariation=MLB28612487&amp;wid=MLB4397815064&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Bola Futevolei Altinha Ftv Ft5 Penta Futemesa Rio Cor Preto</t>
+          <t>Bola 81 Dalponte Star Campo Costurada A Mão Original</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>126.85</v>
+        <v>128</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_764380-MLU73463308040_122023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_947113-MLB45202965881_032021-E.webp</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-futevolei-altinha-ftv-ft5-penta-futemesa-rio-cor-preto/p/MLB29123039#polycard_client=search-nordic&amp;searchVariation=MLB29123039&amp;wid=MLB4321183772&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-81-dalponte-star-campo-costurada-a-mo-original/p/MLB20563342?searchVariation=MLB20563342#polycard_client=search-nordic&amp;searchVariation=MLB20563342&amp;wid=MLB4006264629&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bola 81 Dalponte Star Campo Costurada A Mão Original</t>
+          <t>Bola Futevolei Altinha Ftv Ft5 Penta Futemesa Rio Footvoley Super PU Cor Amarelo</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_947113-MLB45202965881_032021-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_905834-MLA83851667349_042025-E.webp</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-81-dalponte-star-campo-costurada-a-mo-original/p/MLB20563342#polycard_client=search-nordic&amp;searchVariation=MLB20563342&amp;wid=MLB4006264629&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-futevolei-altinha-ftv-ft5-penta-futemesa-rio-footvoley-super-pu-cor-amarelo/p/MLB29146288?searchVariation=MLB29146288#polycard_client=search-nordic&amp;searchVariation=MLB29146288&amp;wid=MLB4321183780&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Bola de futevolei Poker Rio Poker nº 5 Unidade x 1 unidades cor rosa e preto</t>
+          <t>Bola De Futebol Society Kappa Player + Bomba De Ar</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>135</v>
+        <v>132.9</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_904045-MLU79036618824_092024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_877613-MLB84075225265_042025-E-bola-de-futebol-society-kappa-player-bomba-de-ar.webp</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futevolei-poker-rio-poker-n-5-unidade-x-1-unidades-cor-rosa-e-preto/p/MLB19698706#polycard_client=search-nordic&amp;searchVariation=MLB19698706&amp;wid=MLB5051108460&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://produto.mercadolivre.com.br/MLB-5365605436-bola-de-futebol-society-kappa-player-bomba-de-ar-_JM?searchVariation=183447294694#polycard_client=search-nordic&amp;searchVariation=183447294694&amp;position=48&amp;search_layout=grid&amp;type=item&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Bola de Futevolei Poker Rio Poker nº 5 cor amarelo e preto</t>
+          <t>Bola de futebol Dalponte nº 70 Unidade x 1 unidades cor branco</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>139.29</v>
+        <v>133.22</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_753390-MLU74696438844_022024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_730532-MLU75289033019_032024-E.webp</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futevolei-poker-rio-poker-n-5-cor-amarelo-e-preto/p/MLB19698709#polycard_client=search-nordic&amp;searchVariation=MLB19698709&amp;wid=MLB3889075523&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futebol-dalponte-n-70-unidade-x-1-unidades-cor-branco/p/MLB22996803?searchVariation=MLB22996803#polycard_client=search-nordic&amp;searchVariation=MLB22996803&amp;wid=MLB3304776185&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>140.11</v>
+        <v>137.93</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1258,207 +1258,207 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futevolei-poker-rio-poker-n-5-unidade-x-1-unidades-cor-branco-e-preto/p/MLB19698708#polycard_client=search-nordic&amp;searchVariation=MLB19698708&amp;wid=MLB3889079001&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futevolei-poker-rio-poker-n-5-unidade-x-1-unidades-cor-branco-e-preto/p/MLB19698708?searchVariation=MLB19698708#polycard_client=search-nordic&amp;searchVariation=MLB19698708&amp;wid=MLB5338642928&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bola Futevôlei Vulcanizada Pu Poker Original Branca/azul</t>
+          <t>Bola De Futevôlei Altinha Poker Rio N° 5 Esporte Praia Pro Cor Branca e Laranja</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>149.9</v>
+        <v>137.93</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_601980-MLB83086122841_032025-E-bola-futevlei-vulcanizada-pu-poker-original-brancaazul.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_740496-MLA84473749359_052025-E.webp</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-5318075606-bola-futevlei-vulcanizada-pu-poker-original-brancaazul-_JM#polycard_client=search-nordic&amp;position=48&amp;search_layout=grid&amp;type=item&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futevlei-altinha-poker-rio-n-5-esporte-praia-pro-cor-branca-e-laranja/p/MLB24350523?searchVariation=MLB24350523#polycard_client=search-nordic&amp;searchVariation=MLB24350523&amp;wid=MLB4006415601&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bola De Futebol Society 8 X Penalty</t>
+          <t>Bola de futevolei Poker Rio Poker nº 5 Unidade x 1 unidades cor rosa e azul marinho</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>154.71</v>
+        <v>137.93</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_818310-MLU76366734942_052024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_904045-MLU79036618824_092024-E.webp</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-society-8-x-penalty/p/MLB19776132#polycard_client=search-nordic&amp;searchVariation=MLB19776132&amp;wid=MLB3829143887&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futevolei-poker-rio-poker-n-5-unidade-x-1-unidades-cor-rosa-e-azul-marinho/p/MLB19698706?searchVariation=MLB19698706#polycard_client=search-nordic&amp;searchVariation=MLB19698706&amp;wid=MLB4006299477&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bola De Futebol Campo Uhlsport Match R1 Brasileirão 2025</t>
+          <t>Bola De Futevôlei Poker Rio Ftv-5 Pro</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>155.99</v>
+        <v>137.93</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_857447-MLB82813326112_032025-E-bola-de-futebol-campo-uhlsport-match-r1-brasileiro-2025.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_718503-MLU75290479961_032024-E.webp</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4003764129-bola-de-futebol-campo-uhlsport-match-r1-brasileiro-2025-_JM#polycard_client=search-nordic&amp;position=46&amp;search_layout=grid&amp;type=item&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futevlei-poker-rio-ftv-5-pro/p/MLB27949636?searchVariation=MLB27949636#polycard_client=search-nordic&amp;searchVariation=MLB27949636&amp;wid=MLB3596574425&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bola De Campo Penalty S11 R2 Xxv ( Camp.paulista)</t>
+          <t>Bola Futebol De Salão Futsal Dalponte 81 Costurada</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>159.9</v>
+        <v>139.4</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_687100-MLB82940622023_032025-E-bola-de-campo-penalty-s11-r2-xxv-camppaulista.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_949578-MLU72859154453_112023-E.webp</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3996246671-bola-de-campo-penalty-s11-r2-xxv-camppaulista-_JM?searchVariation=187147572233#polycard_client=search-nordic&amp;searchVariation=187147572233&amp;position=47&amp;search_layout=grid&amp;type=item&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
+          <t>https://www.mercadolivre.com.br/bola-futebol-de-salo-futsal-dalponte-81-costurada/p/MLB24560282?searchVariation=MLB24560282#polycard_client=search-nordic&amp;searchVariation=MLB24560282&amp;wid=MLB3468247509&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Bola Futebol De Campo Bola 8 Penalty Cor Preto</t>
+          <t>Kagiva Profissional F5 Branco 2022 64</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>164</v>
+        <v>150.5</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_888107-MLA81942694869_012025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_912769-MLU74696060400_022024-E.webp</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-futebol-de-campo-bola-8-penalty-cor-preto/p/MLB22210458#polycard_client=search-nordic&amp;searchVariation=MLB22210458&amp;wid=MLB3945165169&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/kagiva-profissional-f5-branco-2022-64/p/MLB19754377?searchVariation=MLB19754377#polycard_client=search-nordic&amp;searchVariation=MLB19754377&amp;wid=MLB4540427612&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Bola De Futebol Dalponte 81 Nitro Society Costurada À Mão Cor Branco</t>
+          <t>Bola De Futebol Society 8 X Penalty</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>176.62</v>
+        <v>157.53</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_756582-MLU74393181908_022024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_818310-MLU76366734942_052024-E.webp</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-dalponte-81-nitro-society-costurada-mo-cor-branco/p/MLB32946547#polycard_client=search-nordic&amp;searchVariation=MLB32946547&amp;wid=MLB3596272369&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futebol-society-8-x-penalty/p/MLB19776132?searchVariation=MLB19776132#polycard_client=search-nordic&amp;searchVariation=MLB19776132&amp;wid=MLB4128367346&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bola Futebol Society 8 Pro Xxiv Tamanho 5 Cor Preto e Branco Penalty</t>
+          <t>Bola Futebol Society Dalponte Alpha Verde E Marinho Society</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>297</v>
+        <v>172</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_819669-MLU75482475121_032024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_955981-MLB84217672272_052025-E-bola-futebol-society-dalponte-alpha-verde-e-marinho-society.webp</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-futebol-society-8-pro-xxiv-tamanho-5-cor-preto-e-branco-penalty/p/MLB35142675#polycard_client=search-nordic&amp;searchVariation=MLB35142675&amp;wid=MLB4630087278&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4057576185-bola-futebol-society-dalponte-alpha-verde-e-marinho-society-_JM?searchVariation=187880594707#polycard_client=search-nordic&amp;searchVariation=187880594707&amp;position=45&amp;search_layout=grid&amp;type=item&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Bola De Futsal Penalty Max 1000 Xxiv Cor Azul</t>
+          <t>Bola Society 8 X Amarelo, Branco E Preto Penalty</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>298.28</v>
+        <v>185</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_973308-MLU75866936168_042024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_692679-MLA80330996332_112024-E.webp</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futsal-penalty-max-1000-xxiv-cor-azul/p/MLB36227619#polycard_client=search-nordic&amp;searchVariation=MLB36227619&amp;wid=MLB3937932227&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bola-society-8-x-amarelo-branco-e-preto-penalty/p/MLB19719046?searchVariation=MLB19719046#polycard_client=search-nordic&amp;searchVariation=MLB19719046&amp;wid=MLB3955181335&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Bola Uhlsport Campo Game Pro Brasileirão Série C E D 2025</t>
+          <t>Conjunto De Jogos Para Diversão Na Praia, No Jardim E Ao Ar</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>379</v>
+        <v>215.4</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_652481-MLB82865558482_032025-E-bola-uhlsport-campo-game-pro-brasileiro-serie-c-e-d-2025.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_653456-CBT84582210979_052025-E.webp</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4006258699-bola-uhlsport-campo-game-pro-brasileiro-serie-c-e-d-2025-_JM?searchVariation=187252357205#polycard_client=search-nordic&amp;searchVariation=187252357205&amp;position=42&amp;search_layout=grid&amp;type=item&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
+          <t>https://www.mercadolivre.com.br/game-set-for-beach-yardoutdoor-fun-complete-kit-for-kids/p/MLB2017925542#polycard_client=search-nordic&amp;searchVariation=MLB2017925542&amp;wid=MLB5384145428&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Kit 50 Bolas Futebol Couro Sintético Costurada N°05</t>
+          <t>Bola De Futsal Penalty Max 1000 Xxiv Cor Azul</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>916</v>
+        <v>254.24</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_871334-MLB82990085837_032025-E-kit-50-bolas-futebol-couro-sintetico-costurada-n05.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_809733-MLA83760374857_042025-E.webp</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-5313103164-kit-50-bolas-futebol-couro-sintetico-costurada-n05-_JM?searchVariation=183096595076#polycard_client=search-nordic&amp;searchVariation=183096595076&amp;position=41&amp;search_layout=grid&amp;type=item&amp;tracking_id=8e611849-75a7-4304-8cbe-30b2b6ffa88d</t>
+          <t>https://www.mercadolivre.com.br/bola-de-futsal-penalty-max-1000-xxiv-cor-azul/p/MLB36227619?searchVariation=MLB36227619#polycard_client=search-nordic&amp;searchVariation=MLB36227619&amp;wid=MLB3892608145&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
         </is>
       </c>
     </row>

--- a/produtos_ordenados.xlsx
+++ b/produtos_ordenados.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,1012 +453,4812 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>imagem</t>
+          <t>Imagem</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>Link</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saco Para Até 10 Bolas / Porta Bolas Fio 4mm Branco</t>
+          <t>Bandimu Óculos De Sol Preto Grande Estilo Retrô Espelho Fones De Ouvido Preto-cinza Cinza Preto Preto</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>21.65</v>
+        <v>17.85</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_720045-MLU72700298625_112023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_992875-CBT102912492909_122025-E.webp</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/saco-para-ate-10-bolas-porta-bolas-fio-4mm-branco/p/MLB25996601?searchVariation=MLB25996601#polycard_client=search-nordic&amp;searchVariation=MLB25996601&amp;wid=MLB3489017277&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bandimu-oculos-de-sol-preto-grande-estilo-retro/up/MLBU3704296346#polycard_client=search-desktop&amp;search_layout=grid&amp;position=20&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4410831223&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bola Infantil Escolar Queimada T10 Vollo Iniciação Esportiva Cor Laranja</t>
+          <t>Fones de ouvido Bluetooth I12 Touch Tws 5.0 versão sem fio luz LED branca</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>36.92</v>
+        <v>19</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_878434-MLB51582630730_092022-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_708291-MLA95238461243_102025-E.webp</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-infantil-escolar-queimada-t10-vollo-iniciaco-esportiva-cor-laranja/p/MLB19718998?searchVariation=MLB19718998#polycard_client=search-nordic&amp;searchVariation=MLB19718998&amp;wid=MLB2940254386&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fones-de-ouvido-bluetooth-i12-touch-tws-50-verso-sem-fio-luz-led-branca/p/MLB23173285#polycard_client=search-desktop&amp;search_layout=grid&amp;position=53&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB5957766734&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bola Iniciação De Borracha 12 Magussy Cor Verde</t>
+          <t>Fones de ouvido Bluetooth I12 Touch Tws 5.0 versão sem fio luz LED branca</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>38.9</v>
+        <v>19</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_854080-MLB31117752008_062019-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_708291-MLA95238461243_102025-E.webp</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-iniciaco-de-borracha-12-magussy-cor-verde/p/MLB20578581?searchVariation=MLB20578581#polycard_client=search-nordic&amp;searchVariation=MLB20578581&amp;wid=MLB3079846120&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fones-de-ouvido-bluetooth-i12-touch-tws-50-verso-sem-fio-luz-led-branca/p/MLB23173285#polycard_client=search-desktop&amp;search_layout=grid&amp;position=53&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB5957766734&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bola Futebol Queimada Iniciação De Borracha 14 Magussy Cor Laranja</t>
+          <t>Fones de ouvido Bluetooth I12 Touch Tws 5.0 versão sem fio luz LED branca</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43.5</v>
+        <v>19</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_907909-MLB42249022185_062020-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_708291-MLA95238461243_102025-E.webp</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-futebol-queimada-iniciaco-de-borracha-14-magussy-cor-laranja/p/MLB22313946?searchVariation=MLB22313946#polycard_client=search-nordic&amp;searchVariation=MLB22313946&amp;wid=MLB3409769135&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fones-de-ouvido-bluetooth-i12-touch-tws-50-verso-sem-fio-luz-led-branca/p/MLB23173285#polycard_client=search-desktop&amp;search_layout=grid&amp;position=53&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB5957766734&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bola De Futsal Sandrini Strike Pro Oficial Alta Performance</t>
+          <t>Fones de ouvido Bluetooth I12 Touch Tws 5.0 versão sem fio luz LED branca</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>49.58</v>
+        <v>19</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_853272-MLB83998028405_042025-E-bola-de-futsal-sandrini-strike-pro-oficial-alta-performance.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_708291-MLA95238461243_102025-E.webp</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=yFY0NMfIaBac5HMHB%2Fm3ln6SBTS%2BBbkMb5m8dDJHYYxNtiu9JYhED9fjlhQLDMlCd7URHt0g10ZJLlucFpNU0wgOdely6tKw01%2Bp8XrXyQfHdb3boJ1Q8SmvnpcWBjX3TizitpnJm4nZJJNTw0UfB2ZOJmaOCg%2B4yB2amrm%2BHZTJ3TI1oCQeoXvO0R2wgcpgF46i7xcbV870eUc319etjml%2F6ejxQU1epBt%2BM8OQzgHpxQaZoi%2FsHQfCIM0idyze7zGYAAJyhoLtVN7%2B8hPFaL0ekLhvSUrnnEOdtPvcBSdS2MFXVfGjSUYcIRa8Pd2jD0s1dVfKxT1kM9Tgma3vzlgAMHVZ%2F%2BwAhBuvckmPSMRuT1D4PDOk3nXDV%2BFZROI4P2frfVCKZLMwWlZINW%2BswoY%2BZTxFw3hqcoCkZ6KoAuilMkPHPaporJDr3VTpa5Mf7MIXD%2FzlloxOR9uFDrkTzdFmn%2B1bRJrS1%2FFnjOud0qnKQQt9RH1ydJrYUf6rkeZaoG38NucQmX%2FTaBNDTx5gsYGpfQKwqa%2B4R7IRRQzdj4rvH%2FvI1MC%2FbZKx3NUkJ%2BeNkgwYzbV9ItbA1IwPUVsZcnU6fq%2BJ54gDgw8PmrhapJ%2BrK3GVRL99rDd61pBfcaFzz3lg7QvbIY1RsMVHlw3Ihr4CNuinIrznyMEDYJVYas6N3PYofB7ERVwoGe4rAXkj7jtdQHNly5a42rKsJ0RpaoS1REoRt1ubXnt0WfsiVxYl9NFdWidFtA2hBlmK6Z%2F7kedw1IhMR90FOa%2BGBwUunSgyh68PP5pu%2FiH44oikk0tyBzaUEE22Ek%2BbKkd8%2Fn6VYBlr6VN5hy7D45dXed0OvP3EiBvLcNNDUx4H9sxWvouMO4gucf%2B5WD7qBD4%3D&amp;searchVariation=187629540185#polycard_client=search-nordic&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714</t>
+          <t>https://www.mercadolivre.com.br/fones-de-ouvido-bluetooth-i12-touch-tws-50-verso-sem-fio-luz-led-branca/p/MLB23173285#polycard_client=search-desktop&amp;search_layout=grid&amp;position=53&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB5957766734&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bola De Futsal Sandrini Strike Pro Oficial Alta Performance</t>
+          <t>Fone De Ouvido Bluetooth Sem Fio Tws Bateria De Longa Duração E Conexão Ultra Rápida Hardline</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>49.58</v>
+        <v>21.84</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_853272-MLB83998028405_042025-E-bola-de-futsal-sandrini-strike-pro-oficial-alta-performance.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_837885-MLA100107127151_122025-E.webp</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4040460061-bola-de-futsal-sandrini-strike-pro-oficial-alta-performance-_JM?searchVariation=187629540185#polycard_client=search-nordic&amp;searchVariation=187629540185&amp;position=47&amp;search_layout=grid&amp;type=item&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714</t>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-sem-fio-tws-bateria-de-longa-duraco-e-conexo-ultra-rapida-hardline/p/MLB53398167#polycard_client=search-desktop&amp;search_layout=grid&amp;position=5&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB5539942492&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bola Iniciação De Borracha T12 Penalty Iniciação Crianças Cor Azul</t>
+          <t>Fone De Ouvido Bluetooth Sem Fio Tws Bateria De Longa Duração E Conexão Ultra Rápida Hardline</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>52.9</v>
+        <v>21.84</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_631736-MLB52523687277_112022-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_837885-MLA100107127151_122025-E.webp</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-iniciaco-de-borracha-t12-penalty-iniciaco-criancas-cor-azul/p/MLB21906104?searchVariation=MLB21906104#polycard_client=search-nordic&amp;searchVariation=MLB21906104&amp;wid=MLB5348589720&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-sem-fio-tws-bateria-de-longa-duraco-e-conexo-ultra-rapida-hardline/p/MLB53398167#polycard_client=search-desktop&amp;search_layout=grid&amp;position=5&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB5539942492&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A+ Futebol De Treinamento Euro 5 2024</t>
+          <t>Fone De Ouvido Bluetooth Sem Fio Tws Bateria De Longa Duração E Conexão Ultra Rápida Hardline</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>55.74</v>
+        <v>21.84</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_893064-MLB84246921498_052025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_837885-MLA100107127151_122025-E.webp</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/entrenamiento-de-futbol-euro5-2024/p/MLB2017321288#polycard_client=search-nordic&amp;searchVariation=MLB2017321288&amp;wid=MLB4058260225&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-sem-fio-tws-bateria-de-longa-duraco-e-conexo-ultra-rapida-hardline/p/MLB53398167#polycard_client=search-desktop&amp;search_layout=grid&amp;position=5&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB5539942492&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bola De Futsal Slick 22 Topper Cor Branco/Amarelo Neon/Azul</t>
+          <t>Fone De Ouvido Bluetooth Sem Fio Tws Bateria De Longa Duração E Conexão Ultra Rápida Hardline</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>62.23</v>
+        <v>21.84</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_656329-MLB54078855245_022023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_837885-MLA100107127151_122025-E.webp</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futsal-slick-22-topper-cor-brancoamarelo-neonazul/p/MLB22262771?searchVariation=MLB22262771#polycard_client=search-nordic&amp;searchVariation=MLB22262771&amp;wid=MLB3820042822&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-sem-fio-tws-bateria-de-longa-duraco-e-conexo-ultra-rapida-hardline/p/MLB53398167#polycard_client=search-desktop&amp;search_layout=grid&amp;position=5&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB5539942492&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bola De Futebol Society Slick 2020 Cor Branco/Preto/Amarelo Tamanho Único Topper</t>
+          <t>Fone De Ouvido Bluetooth Sem Fio Com Visor Intra Auricular Estéreo Graves Potentes Microfone Integrado Bateria Longa Duração Compatível Com Todos Os Celulares Notebook Tablet Música Corrida</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>64.59999999999999</v>
+        <v>22.13</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_869053-MLB51937100243_102022-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_774392-MLA99758844476_122025-E.webp</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-society-slick-2020-cor-brancopretoamarelo-tamanho-unico-topper/p/MLB19744266?searchVariation=MLB19744266#polycard_client=search-nordic&amp;searchVariation=MLB19744266&amp;wid=MLB5222132312&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-sem-fio-com-visor-intra-auricular-estereo-graves-potentes-microfone-integrado-bateria-longa-duraco-compativel-com-todos-os-celulares-notebook-tablet-musica-corrida/p/MLB54015578#polycard_client=search-desktop&amp;search_layout=grid&amp;position=57&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB5605902294&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bola De Futevôlei Diadora Elite-r Cor Amarelo</t>
+          <t>Fone De Ouvido Bluetooth Sem Fio Com Visor Intra Auricular Estéreo Graves Potentes Microfone Integrado Bateria Longa Duração Compatível Com Todos Os Celulares Notebook Tablet Música Corrida</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>67.13</v>
+        <v>22.13</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_699842-MLU70081962810_062023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_774392-MLA99758844476_122025-E.webp</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futevlei-diadora-elite-r-cor-amarelo/p/MLB21096382?searchVariation=MLB21096382#polycard_client=search-nordic&amp;searchVariation=MLB21096382&amp;wid=MLB3383487155&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-sem-fio-com-visor-intra-auricular-estereo-graves-potentes-microfone-integrado-bateria-longa-duraco-compativel-com-todos-os-celulares-notebook-tablet-musica-corrida/p/MLB54015578#polycard_client=search-desktop&amp;search_layout=grid&amp;position=57&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB5605902294&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bola Futevolei Protech Diadora Elite-r Cor Branco</t>
+          <t>Fone De Ouvido Bluetooth Sem Fio Com Visor Intra Auricular Estéreo Graves Potentes Microfone Integrado Bateria Longa Duração Compatível Com Todos Os Celulares Notebook Tablet Música Corrida</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>67.13</v>
+        <v>22.13</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_645165-MLU78631385474_092024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_774392-MLA99758844476_122025-E.webp</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-futevolei-protech-diadora-elite-r-cor-branco/p/MLB39111515?searchVariation=MLB39111515#polycard_client=search-nordic&amp;searchVariation=MLB39111515&amp;wid=MLB3809247007&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-sem-fio-com-visor-intra-auricular-estereo-graves-potentes-microfone-integrado-bateria-longa-duraco-compativel-com-todos-os-celulares-notebook-tablet-musica-corrida/p/MLB54015578#polycard_client=search-desktop&amp;search_layout=grid&amp;position=57&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB5605902294&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bola De Futebol Uhlsport Score Society Laranja</t>
+          <t>Fone De Ouvido Bluetooth Sem Fio Com Visor Intra Auricular Estéreo Graves Potentes Microfone Integrado Bateria Longa Duração Compatível Com Todos Os Celulares Notebook Tablet Música Corrida</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>67.72</v>
+        <v>22.13</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_776421-MLA83745761947_042025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_774392-MLA99758844476_122025-E.webp</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-uhlsport-score-society-laranja/p/MLB48256018?searchVariation=MLB48256018#polycard_client=search-nordic&amp;searchVariation=MLB48256018&amp;wid=MLB4055108227&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-sem-fio-com-visor-intra-auricular-estereo-graves-potentes-microfone-integrado-bateria-longa-duraco-compativel-com-todos-os-celulares-notebook-tablet-musica-corrida/p/MLB54015578#polycard_client=search-desktop&amp;search_layout=grid&amp;position=57&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB5605902294&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bola De Futebol Para Campo 22 I Topper Cor Branco/Verde Mar/Preto</t>
+          <t>Fone de Ouvido sem fio Bluetooth M10 V5.3 com Power Bank</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>68.84999999999999</v>
+        <v>22.27</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_967540-MLU69495823375_052023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_868164-MLA100053579755_122025-E.webp</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-para-campo-22-i-topper-cor-brancoverde-marpreto/p/MLB22272252?searchVariation=MLB22272252#polycard_client=search-nordic&amp;searchVariation=MLB22272252&amp;wid=MLB4198884500&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-sem-fio-bluetooth-m10-v53-com-power-bank/p/MLB25968257#polycard_client=search-desktop&amp;search_layout=grid&amp;position=12&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB5578278840&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bola De Futsal Kagiva Slick  Sub 11</t>
+          <t>Fone de Ouvido sem fio Bluetooth M10 V5.3 com Power Bank</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>68.90000000000001</v>
+        <v>22.27</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_908540-MLB84342735079_052025-E-bola-de-futsal-kagiva-slick-sub-11.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_868164-MLA100053579755_122025-E.webp</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4052328075-bola-de-futsal-kagiva-slick-sub-11-_JM?searchVariation=187815505187#polycard_client=search-nordic&amp;searchVariation=187815505187&amp;position=46&amp;search_layout=grid&amp;type=item&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714</t>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-sem-fio-bluetooth-m10-v53-com-power-bank/p/MLB25968257#polycard_client=search-desktop&amp;search_layout=grid&amp;position=12&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB5578278840&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Topper Futsal Slick Bola Futebol Salão Branco Com Azul</t>
+          <t>Fone de Ouvido sem fio Bluetooth M10 V5.3 com Power Bank</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>68.90000000000001</v>
+        <v>22.27</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_880504-MLU71134471481_082023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_868164-MLA100053579755_122025-E.webp</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/topper-futsal-slick-bola-futebol-salo-branco-com-azul/p/MLB26148855?searchVariation=MLB26148855#polycard_client=search-nordic&amp;searchVariation=MLB26148855&amp;wid=MLB4703197748&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-sem-fio-bluetooth-m10-v53-com-power-bank/p/MLB25968257#polycard_client=search-desktop&amp;search_layout=grid&amp;position=12&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB5578278840&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bola De Futebol Slick Campo Cor Azul/Branco/Preto Topper</t>
+          <t>Fone de Ouvido sem fio Bluetooth M10 V5.3 com Power Bank</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>69.11</v>
+        <v>22.27</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_979047-MLU71168535619_082023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_868164-MLA100053579755_122025-E.webp</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-slick-campo-cor-azulbrancopreto-topper/p/MLB19765484?searchVariation=MLB19765484#polycard_client=search-nordic&amp;searchVariation=MLB19765484&amp;wid=MLB3784862677&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-sem-fio-bluetooth-m10-v53-com-power-bank/p/MLB25968257#polycard_client=search-desktop&amp;search_layout=grid&amp;position=12&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB5578278840&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bola Futebol Society Ótimo Custo Beneficio Peso Ideal Top Cor Azul</t>
+          <t>Fone i12 TWS Bluetooth 5.3 para Android e IOS</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>69.11</v>
+        <v>23.99</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_822484-MLA84472440243_052025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_654491-MLU77114247082_062024-E.webp</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-futebol-society-otimo-custo-beneficio-peso-ideal-top-cor-azul/p/MLB23339357?searchVariation=MLB23339357#polycard_client=search-nordic&amp;searchVariation=MLB23339357&amp;wid=MLB5105345848&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fone-i12-tws-bluetooth-53-para-android-e-ios/p/MLB26110374#polycard_client=search-desktop&amp;search_layout=grid&amp;position=37&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB5910577702&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Bola De Futebol Licenciada Corinthians (sccp) N° 5 Cor Preto</t>
+          <t>Fone Bluetooth TWS Sem Fio Davely com Som Imersivo e Potente Bateria Duradoura Conexão Rápida 5.0 de Longo Alcance Controle por Botão para Treinos Viagens Academia Jogos Corridas Caminhadas Exercícios</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>77.88</v>
+        <v>24.15</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_836019-MLU78000914804_082024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_891213-MLA99600579468_122025-E.webp</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-licenciada-corinthians-sccp-n-5-cor-preto/p/MLB39115009?searchVariation=MLB39115009#polycard_client=search-nordic&amp;searchVariation=MLB39115009&amp;wid=MLB3956648899&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=OJzLUvO8pNTT0msqD6l1SgpllphZoNBFEjHMndY7OiZs8LUd79FOQn3VZGaQOmz0YYIp6KGGvgynJc8NYhpO78%2Fb0OAf4hOUI6jI%2BJ%2BWcV83IXAWbk194KKtQxMyhmlxL5dYfcLklYKGqC4X%2FMBda1YDPZyOibT2W6p%2F4SKtHZpKGf9szmh9fM5qI7b54zmnhJanbiSuInK0ya%2FyMu6Kkz0DcIlzSFfajKA%2FLqfSDWN0cJoLnOF3FOGH9RHcN063zUiBb5HCWE7uHNrWtjLlkjuMngMlhxoKjnQXoemyqtLzjo%2FJ0%2B8%2Fgt39iwIfyJApOWGgbsLABg0zwD3w%2F27%2Fhrn0q6joFTNBSJxMd8oTpZINOFI%2F146F0rSHQKpFB33YtXYrxrNxWfAF%2BS1Ay1A0VbxSNt6gkmjIUEMj9sQpfN2o%2FtWj%2FECQRf53nHSumCSN1veHexwy4qkVW0gHqE9IpfVXvEWrYi340P4zt1yUommgzE%2FBIdCdkCLxZOi2YIeFkm0Wuq13jHuTeR%2F%2F89J%2Fs9mz%2B%2Bx04BAZYIujwaXtwNFZJxFY%2B1RK05UqVJ%2B8%2Bm1PZA3CvAdycLyTF2jEnc0WFzZF0fjkrNIm2TwPpcheJCS%2F2wIHlAdu9VLE1zA8Wt8w2RKWB2Vapzo53iEWxk3yBpwm%2F9Q6IiUniHjWqt5WrjsBmZudfKLQtioUNBIrRMUB8gWWoK0PgVy%2Bf2Cs8KtayJIKyszpNwpP4Wl3I9%2B7JompymBPPgZIYsrrYwOdw4p87qlBHdWCBuQHHbwELe9Vfc2THV%2F5lTnpisfNtcFio2D8d3vAAZbz9l%2FpyxwAftWhW1HqJOxvBMPYioNzn%2By8SSKgR%2BYoQ1tsoRZhOuexSIgJIf8xUZl0BvtG40ihW%2FXhGt%2BLN8kQZ85BF%2FmqaZ2eRhUZjORFraypgRls7%2BVNbIn4gl5LdTtQe9tDcKldpItL1CR%2FU0c%2FrGhERFraneCXqxmpc%2F8z8RCvlBeC9Qzq%2BYdxWau9tqKr8lTlhtoBk1KOxFSYBUGqhBlByK6%2BcY58uCe3L6%2FlB6jyN4oULKqO%2B3a1LUWJp6Re6XIrrn3%2BzNwDGKovUBNAxRBLhvcdkQIYfq3tGnu38RcM2JcP9gFfZmow1%2F0X0Jro4ryNLEkzfR6%2Bkkngmlv%2BAEdmROoTnYw4Ks%2B9E5Y%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB48564939&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=25&amp;type=pad&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4156439551&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bola Futevolei Altinha Rio Vulcanizada Fut Mesa Luke Sports Cor Amarelo</t>
+          <t>Fone Bluetooth TWS Sem Fio Davely com Som Imersivo e Potente Bateria Duradoura Conexão Rápida 5.0 de Longo Alcance Controle por Botão para Treinos Viagens Academia Jogos Corridas Caminhadas Exercícios</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>77.98999999999999</v>
+        <v>24.15</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_896782-MLU72643073783_112023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_891213-MLA99600579468_122025-E.webp</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-futevolei-altinha-rio-vulcanizada-fut-mesa-luke-sports-cor-amarelo/p/MLB21418949?searchVariation=MLB21418949#polycard_client=search-nordic&amp;searchVariation=MLB21418949&amp;wid=MLB4035567809&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=caSrSwePZw7%2BAQV6Gcny5GRuLJ3%2F7FUVlbdss%2FynvTN%2FHEn7bcXzzY%2F6t%2BUSBUzf5g0clQqUcjCBeefXGfwCNaikbZdJXIs5Lv8n%2FNMCKsQcNWxBzEMvQh4zDjEGI9joNv18G91B2JiJUaS4sQ70ZVMzugnbKzgfJK%2FugXL3UYmhYYtWTCNtDqvmH1b28vh8zLrm2Qed3NhY3jRoQCcFP9fM8XQloyyLGVk%2BCFbsa13Cjo65q60sqDxUFDMtqi1e2zthWrTrFz6Halnp9mvzG8gOn1s6inS6Dqg%2FTc90YpoUu7%2BMBJ5vYDO2HenLKn6CeoPjI3A1fFErU6bHYQmMMj%2F274iX0SAIlnxGdogEyOpvv0qbdbkQ7W13Fb21GnjfRzWx87andt7TL60qb7WFinSssBf3nNgKxNa6fYrbuXXAlTU1xI62AGkLVL0dDHeZu5zDXddFmp%2FJtaHmZ9d%2BerWD7MFBTRH4DGZCecNkWpH44I1lAxaGuMZbxIqgSaxrNg47azhpsDOKK1atdvC%2B0Vgi0jOnN%2FwfcQ4%2BUNtG7uT33akdsXxmPN9jXcx%2BE7keSRoiQV9Dy%2FB8%2FzB2eq4oBjkVjx3NvMcf%2Bhkc4Yo%2FxyEd%2Fu9oV7RQ0X3QbYonmKH0IKFEmHKWoP4B5CTIEqq3Wn15NC8aKJZP1hXnvBes7QCYDc3eEVZZ%2FE6pM44T7NvbUKA3tP0iFwlIwtWzTp%2BL9cPfQtjjyp7mKdSY%2BS5qoyAd%2BB5PUDpVglsK6NcED0tFZN6GyGNaoC0oIuPb8JQKfPzZhqQw5ATR3hjr4IjgWqEiKEE5ITY3XKt5rIIYoO3lDWwCYbcO%2B7IeLAXQj7YF59xX%2FDT75Z12J%2F4aw44jrSpGHPe1sZk9ObwA9A1yABRoJnPDpDHkx1oNTuldGq9hklc5TnLmfwO%2B1IZ4%2BY5mGxw%2FudPpfZv8rk2zYc3MjVPTsXq7m3yNrY5jxGhIR3Bn2t6qCGSnOzgY49ZpRFrJ%2FUiRglzqqTHE0g5HL0By60WGbC3jalmm0zhkHe1B1x4YSXPx%2BQ4GOYkLnjLUW76bgz3R7Co7IHvFFefYF486esskMU7pschMnARE7i2I2s72UkmTfTJo4uoU19NYnJB82TQ%2BuHIHZud8C2Uxgw%2Bnf54Gr0lhNRAlZbvR85jrFuuLshuQti4Z#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB48564939&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=25&amp;type=pad&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4156439551&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bola Futevolei Altinha Rio Vulcanizada Fut Mesa Luke Sports Cor Branco</t>
+          <t>Fone Bluetooth TWS Sem Fio Davely com Som Imersivo e Potente Bateria Duradoura Conexão Rápida 5.0 de Longo Alcance Controle por Botão para Treinos Viagens Academia Jogos Corridas Caminhadas Exercícios</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>77.98999999999999</v>
+        <v>24.15</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_969914-MLA53311863193_012023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_891213-MLA99600579468_122025-E.webp</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-futevolei-altinha-rio-vulcanizada-fut-mesa-luke-sports-cor-branco/p/MLB21740597?searchVariation=MLB21740597#polycard_client=search-nordic&amp;searchVariation=MLB21740597&amp;wid=MLB4035606743&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=kVMx%2BgRBdcQFINvKVuo4Bov4k87H7YrSPN3TAquNy3jDRrlB7%2FZ%2Fstq9k7WUBbSB39SF8ak4U%2Fmw3oSolAorn6V5Og6Hqa793lPD68o5oUz%2B8%2BN1sJNcwe0ASKPCJerdBywtuvErbe%2Fh3EJjXfHRHlWRcxBWgmqE0%2B6HaeHQ4llfETrvkHPPVKMnQabFJmwe%2FZOu4Zkx7YiTF%2FJ6asOV7TZejj3%2F1bzrqdxzxXASR%2B54W7WIiVGRRPD%2B8CuUiqj1he1%2BnwBLSzVZStcoo0pT3J6Mht0IY6lj7kchULT5he1bFUPToS1DspiXnaiSN4Sc4IzZ2sUHN%2BSct1EN2mjFOrmWp4wCokb0Td7KMCw%2B4Y2aiPmsg7E9wQaad2yox6gwnGI7JOLewOdbcES0pzbeMJX6Bn09yfz7FyhTUFuUc3Cx38sr1ZuN4uLPs67nmKW2DCOZiYzvGSCp2skg%2FRF9IREnh%2FDmZMlEN4YCkLmCsGf4n6iqF3nYBSMYFj7Z3%2B3ueHNb4sI%2BZmf%2Fft1N0chHNy5HdYgilxuyoMNOy2g5h3ozyfkHh2E4qf3x4zHSiX2ocBOjLpJd3GuejsX4pJ6Q6ERkRk5IH4n2dAcI%2FAFIwr9w%2BAtMWUToSDmxfFD6uBkUEWBNe0mw0m3Pb0L%2BEuxKU8hwfjG0flV1fGpioA%2Bg89nVRro8%2BoJYqNHbB1XZBaYlJslDMudACg3LuNYNCmokal2vr23%2F3LwBKUOejybbhu5jLBt3GOfHnNLuiSiVEBOMvrF3FVQrksiFlZV%2F8lD76JbRwk1zJOz2%2BZcXyUiz%2FsgeOkGbeiU58yCxqDkGXl%2B%2F1sd7PaQ1UhCWUVqzxlLM5vZc2VHtRi2rxap2VjAYaU9uc9mh71YeQZ9fkcYdiVuiTyHi9f2RjNni7oiM1pQVVYp30uS2XAIcZsOQ1Cu8Qxihg3Sd7E9zbH6fIA5i6umMT0f5LISTPMOTvLVFldtibgA5TArvXj%2Bm40ebUuqSsaCWHbHmLZ7P7B126kNvm1d%2FKkE8jSrKPgqdZetaUV9syH35O%2FLOgEHLlIUYsAAplwyhjogEph8Igx1ayw7pDsPNqI7iQEq7dhG3oOMA4yaLxEmw0t%2BmrG8k1YckT%2F3kq8d%2Be3PFxzmL4zgI0%2F6prqWdkfuNfyd4cYs%2F2y0dLYGzI5VLw06g#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB48564939&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=25&amp;type=pad&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4156439551&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bola Campo Kappa Blasty</t>
+          <t>Fone Bluetooth TWS Sem Fio Davely com Som Imersivo e Potente Bateria Duradoura Conexão Rápida 5.0 de Longo Alcance Controle por Botão para Treinos Viagens Academia Jogos Corridas Caminhadas Exercícios</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>78.90000000000001</v>
+        <v>24.15</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_647523-MLB83740061954_042025-E-bola-campo-kappa-blasty.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_891213-MLA99600579468_122025-E.webp</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4041791677-bola-campo-kappa-blasty-_JM?searchVariation=187650319665#polycard_client=search-nordic&amp;searchVariation=187650319665&amp;position=50&amp;search_layout=grid&amp;type=item&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=icyQK9oxPPt2ADzfRrXLDs9x4qIP9y%2FblMQDwT76oE6SapyyVd5Fg2GaXKOrkL5jwDQ1%2Bzc1fSmvvptzBly3VrqaU3QpKSK9AXxVEktfbyBSdwTCrrMJ4gM6aOEUDQtu2nK9tjog7PbfiSDQtXKUXQ24jaesbws76gEpBz%2Fuui8akA9hwzPrYZsAsUgsMG4q5qd3ED2QHgOagLhfNm03kCwcWI3wN9qMSyunYRHbNzelaHTHAefdGZaVEquhiOWx8pifewJgl0JxwpdPFyGxzjCSSC%2BqfwkBHIl%2Btba%2BvW9RhjCqSScYZwtCtGIHUZD1vRXBfdhuZHMJvCyIIkKZlxKwMfE4lVwfwe7PZGVxL2cay20opIalSYNJ5%2FmYkslEsfPvYBPWomVPWZU8uCLTfUZIQew7E8KgaQyDCzB9CeKTVm4GqZxzQsKzjzjgZB2ifgm2lwyCgwMRZTUchv%2Fdc6TmBmj2BJ1ampgiKVe0YUv0MuqYSf3mnwsuWpY4lROPw2q8yLnhHL9PSDcB5Xkbaodh876lyl8ZPrwMv1gLMqdjttwL8jVbCd%2FUTWaaNCK8eEnA%2FmIzJaYRfEhf5%2Bdc%2BujIFcIcjpUWAxf%2FdmJS6wTiWO8MUgJfDwmtiydNw1Ba3HShFxVPYkzPEmIb0y1AaZ%2Bwil9FNjeDRPAiIzUhVHLEJz1%2FCSVX7OpTMrKnM8b3lc8YDBYmIOroREtl0nhwnTdzstQBe%2F%2BbxljL3J%2B85%2Bh4GsuPU2pVoo60u8p3DB0h1iRTUuTRgtKOMgUI7kCjqmieW8ukjtZI%2B1ItDLicflOJqrI2ul7gc1zpmLmXtqDr59Dk%2FbMFSpjLiZmFozlehIzJ%2FGFD9l9HphKICQ%2BGq8zDR7%2FfgeFtR2kneayx499QH4g6J1PbXukhCwya8QocsEsco%2FGz5myDvsjbd1ThB7W2M7R09QuX1ETjoTDctwTd9y90p97ZrpQfGfIDxBN3YD9CgiHFXuq2NeRxUfqhE2P1jsjM5uy2KmKoyhtLfkozVsvOhJXhFkpcpUHVqMEs1TL77QMX%2BSwMNswmVa3Kjx9MUUUPmoT2JwtG6RVZkVsOqQmZaxJ8CNJehnVyuBYW6AaoYhEPFqoxrAg7fND7%2Fl3AFyWxb9RBH89B19sloum2JeHnr%2BD%2FBISJqOxL5JKX%2FMvduUK0kw%3D%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB48564939&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=25&amp;type=pad&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4156439551&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bola Futsal Penalty Rx 500 Xxiii Cor Azul</t>
+          <t>Suporte Mesa Fone De Ouvido 4 Headset Gammer Moderno</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>78.98999999999999</v>
+        <v>24.9</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_722195-MLU77108763060_062024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_880446-MLB99140766959_112025-E.webp</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-futsal-penalty-rx-500-xxiii-cor-azul/p/MLB25820360?searchVariation=MLB25820360#polycard_client=search-nordic&amp;searchVariation=MLB25820360&amp;wid=MLB3954480337&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4319887269-suporte-mesa-fone-de-ouvido-4-headset-gammer-moderno-_JM?searchVariation=187326994654#polycard_client=search-desktop&amp;searchVariation=187326994654&amp;search_layout=grid&amp;position=7&amp;type=item&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bola De Futsal Rx 500 Xxiii Cor Branco Amarelo E Preto Penalty</t>
+          <t>Suporte Mesa Fone De Ouvido 4 Headset Gammer Moderno</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>84.12</v>
+        <v>24.9</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_750391-MLA72526096144_102023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_880446-MLB99140766959_112025-E.webp</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futsal-rx-500-xxiii-cor-branco-amarelo-e-preto-penalty/p/MLB22341158?searchVariation=MLB22341158#polycard_client=search-nordic&amp;searchVariation=MLB22341158&amp;wid=MLB3497005067&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4319887269-suporte-mesa-fone-de-ouvido-4-headset-gammer-moderno-_JM?searchVariation=187326994654#polycard_client=search-desktop&amp;searchVariation=187326994654&amp;search_layout=grid&amp;position=7&amp;type=item&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bola Futsal Penalty Rx 200 Xxiii - Tamanho Único Cor Amarelo</t>
+          <t>Suporte Mesa Fone De Ouvido 4 Headset Gammer Moderno</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>88.86</v>
+        <v>24.9</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_924774-MLU74087035735_012024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_880446-MLB99140766959_112025-E.webp</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-futsal-penalty-rx-200-xxiii-tamanho-unico-cor-amarelo/p/MLB24090041?searchVariation=MLB24090041#polycard_client=search-nordic&amp;searchVariation=MLB24090041&amp;wid=MLB3632679633&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4319887269-suporte-mesa-fone-de-ouvido-4-headset-gammer-moderno-_JM?searchVariation=187326994654#polycard_client=search-desktop&amp;searchVariation=187326994654&amp;search_layout=grid&amp;position=7&amp;type=item&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Bolas De Futebol Tamanho 5 Team Match Group Training Pvc Hig</t>
+          <t>Suporte Mesa Fone De Ouvido 4 Headset Gammer Moderno</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>92.25</v>
+        <v>24.9</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_941067-CBT84265222412_052025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_880446-MLB99140766959_112025-E.webp</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/size-5-soccer-balls-team-match-group-training-pvc-high-quali/p/MLB2017854866#polycard_client=search-nordic&amp;searchVariation=MLB2017854866&amp;wid=MLB4058867027&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4319887269-suporte-mesa-fone-de-ouvido-4-headset-gammer-moderno-_JM?searchVariation=187326994654#polycard_client=search-desktop&amp;searchVariation=187326994654&amp;search_layout=grid&amp;position=7&amp;type=item&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bola Starlancer Club adidas Cor Blue / White</t>
+          <t>Fones De Ouvido Bluetooth Dobráveis Esportivos Verde-limão</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>93.16</v>
+        <v>26.45</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_653697-MLA79844507542_102024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_679462-CBT100915966064_122025-E.webp</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-starlancer-club-adidas-cor-blue-white/p/MLB32495473?searchVariation=MLB32495473#polycard_client=search-nordic&amp;searchVariation=MLB32495473&amp;wid=MLB5122408382&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fones-de-ouvido-bluetooth-dobraveis-esportivos/up/MLBU3682390336#polycard_client=search-desktop&amp;search_layout=grid&amp;position=18&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4411189327&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Conjunto De Guirlandas De Balões De Decoração De Morango Str</t>
+          <t>Fones De Ouvido Bluetooth Dobráveis Esportivos Verde-limão</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>96.56</v>
+        <v>26.45</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_975428-CBT84563384451_052025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_679462-CBT100915966064_122025-E.webp</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/trawberry-gathering-decoration-balloon-garland-set-strawberr/p/MLB2017423693#polycard_client=search-nordic&amp;searchVariation=MLB2017423693&amp;wid=MLB4058639209&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fones-de-ouvido-bluetooth-dobraveis-esportivos/up/MLBU3682390336#polycard_client=search-desktop&amp;search_layout=grid&amp;position=18&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4411189327&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bola Futebol De Campo Topper Slick 22 Oficial + Bomba De Ar</t>
+          <t>Fones De Ouvido Bluetooth Dobráveis Esportivos Verde-limão</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>97.63</v>
+        <v>26.45</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_732799-MLB74418884230_022024-E-bola-futebol-de-campo-topper-slick-22-oficial-bomba-de-ar.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_679462-CBT100915966064_122025-E.webp</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=sw6uyYhc3hvfNFUV1ejBrq2tXIwUeasI5mxwjRmJWVc4ySkcLEDbuubv%2BXJsyuu5qf6o7cJNtgOqJcOepGZoFooUT%2BTIJSPcJFa%2F0d50NIABDAX%2BOqKyMi%2F5jboz3on4ONPxziMUdm1TdJ8MEfJvfZFccubWdGa5BHPS7xbJYiCciMa0D7zXQdzdMz29ZNpwXWmX3wen7HU5JdWJayefOMbewUj6WlFcOlp3GlW9mH5eaTRIywTJfuOu9C67254Kc%2FPjaLFg64H7GhWLnSwdAdu8nPno7P4OEThUlEkuriOypj3xg%2BCo9AmmRVb2%2Bwn2e0EP1UE05O603%2FqQ8MihmnXNWTp5vkDQPLy6mf6X9c7B25rhkYHc3KoWbacDy6%2FgcqbCXH3nSEmZJIPhbT61IF7512vVVO0hhTQhFLm%2FqiDDRfPlaww9mjXnDAzDPEn2BN2fXR1YfI%2B1TwT43ttowkkBDUV0w4qW031gIc21URKeDJ2cO%2BK1GXthWPztXSI3vL3oCmc0915P%2BUA9U7o%2Fd8jTgBkcMlUKo4OWD0xVxdgVt7E6l%2FSQKsX3XJWRBQdUAo6cRoeniayTwQVeJW%2FMt0e8CODC14wA%2BiVCOpSRb0DA7F4rUvHhbGlAZXd0ZdBqJUTUWIa8t3cX8WOlnuAeq2aIQR8ZtkX0TMKk0irXQfhHNueTRyNte1aWTxZW3%2FojfnkQYCqGN8NQ%2F8KkHo%2BgJEH9jTUoAtxZG3dTCuCGqREEIdreVqmnWMOqC8avcm5orCV%2BO6KDDmFWZZh%2FbbiKd5UMcE9kl%2B4BvlTi4QtExbti%2BrEdQ15cnd6fbZ19wqlUzA%2BgN2gyD1qqMn%2FtFl0DVw5AIb46FwbC7zmYVjZH4wn%2BEow0o3wEhT0%3D&amp;searchVariation=177634599863#polycard_client=search-nordic&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714</t>
+          <t>https://www.mercadolivre.com.br/fones-de-ouvido-bluetooth-dobraveis-esportivos/up/MLBU3682390336#polycard_client=search-desktop&amp;search_layout=grid&amp;position=18&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4411189327&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Bola Futebol De Campo Topper Slick 22 Oficial + Bomba De Ar</t>
+          <t>Fones De Ouvido Bluetooth Dobráveis Esportivos Verde-limão</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>97.63</v>
+        <v>26.45</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_732799-MLB74418884230_022024-E-bola-futebol-de-campo-topper-slick-22-oficial-bomba-de-ar.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_679462-CBT100915966064_122025-E.webp</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3283893849-bola-futebol-de-campo-topper-slick-22-oficial-bomba-de-ar-_JM?searchVariation=177634599863#polycard_client=search-nordic&amp;searchVariation=177634599863&amp;position=49&amp;search_layout=grid&amp;type=item&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714</t>
+          <t>https://www.mercadolivre.com.br/fones-de-ouvido-bluetooth-dobraveis-esportivos/up/MLBU3682390336#polycard_client=search-desktop&amp;search_layout=grid&amp;position=18&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4411189327&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Bola adidas Starlancer Jh3748 Tamanho 5</t>
+          <t>Fone De Ouvido Sem Fio F9-5 Touch Bluetooth Cor Preto À Prova D'água E Powerbank</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>99.98999999999999</v>
+        <v>27.9</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_700816-MLA80927391270_122024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_628185-MLA95657346812_102025-E.webp</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-adidas-starlancer-jh3748-tamanho-5/p/MLB44513782?searchVariation=MLB44513782#polycard_client=search-nordic&amp;searchVariation=MLB44513782&amp;wid=MLB3996195869&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-sem-fio-f9-5-touch-bluetooth-cor-preto-prova-dagua-e-powerbank/p/MLB40375954#polycard_client=search-desktop&amp;search_layout=grid&amp;position=31&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4032325503&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Cabo De Freio 133-8158 Para Cortador De Grama Timemaster De</t>
+          <t>Fone De Ouvido Sem Fio F9-5 Touch Bluetooth Cor Preto À Prova D'água E Powerbank</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>105.46</v>
+        <v>27.9</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_760371-CBT84265591818_052025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_628185-MLA95657346812_102025-E.webp</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/133-8158-brake-cable-for-toro-30inch-timemaster-lawn-mower/p/MLB2017418961#polycard_client=search-nordic&amp;searchVariation=MLB2017418961&amp;wid=MLB4058727039&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-sem-fio-f9-5-touch-bluetooth-cor-preto-prova-dagua-e-powerbank/p/MLB40375954#polycard_client=search-desktop&amp;search_layout=grid&amp;position=31&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4032325503&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Penalty Bola Campo S11 R2 Xxv</t>
+          <t>Fone De Ouvido Sem Fio F9-5 Touch Bluetooth Cor Preto À Prova D'água E Powerbank</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>111.84</v>
+        <v>27.9</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_809583-MLA82638539265_022025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_628185-MLA95657346812_102025-E.webp</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/penalty-bola-campo-s11-r2-xxv/p/MLB45335231?searchVariation=MLB45335231#polycard_client=search-nordic&amp;searchVariation=MLB45335231&amp;wid=MLB3957681981&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-sem-fio-f9-5-touch-bluetooth-cor-preto-prova-dagua-e-powerbank/p/MLB40375954#polycard_client=search-desktop&amp;search_layout=grid&amp;position=31&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4032325503&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Penalty Bola Society S11 R2 Xxv</t>
+          <t>Fone De Ouvido Sem Fio F9-5 Touch Bluetooth Cor Preto À Prova D'água E Powerbank</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>120</v>
+        <v>27.9</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_909398-MLA81733802801_012025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_628185-MLA95657346812_102025-E.webp</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/penalty-bola-society-s11-r2-xxv/p/MLB45246763?searchVariation=MLB45246763#polycard_client=search-nordic&amp;searchVariation=MLB45246763&amp;wid=MLB3957630395&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-sem-fio-f9-5-touch-bluetooth-cor-preto-prova-dagua-e-powerbank/p/MLB40375954#polycard_client=search-desktop&amp;search_layout=grid&amp;position=31&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4032325503&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Bola De Futebol De Campo Líder Xxiv Tamanho 5 Penalty</t>
+          <t>Bateria De Longa Duração + Fone Bluetooth Supra-aural Verde</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>124.9</v>
+        <v>28.56</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_820448-MLU74857870237_032024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_889952-CBT102369021951_122025-E.webp</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-de-campo-lider-xxiv-tamanho-5-penalty/p/MLB28612487?searchVariation=MLB28612487#polycard_client=search-nordic&amp;searchVariation=MLB28612487&amp;wid=MLB4397815064&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bateria-de-longa-duracao--fone-bluetooth-supraaural/up/MLBU3694544686#polycard_client=search-desktop&amp;search_layout=grid&amp;position=20&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4410831371&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Bola 81 Dalponte Star Campo Costurada A Mão Original</t>
+          <t>Bateria De Longa Duração + Fone Bluetooth Supra-aural Verde</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>128</v>
+        <v>28.56</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_947113-MLB45202965881_032021-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_889952-CBT102369021951_122025-E.webp</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-81-dalponte-star-campo-costurada-a-mo-original/p/MLB20563342?searchVariation=MLB20563342#polycard_client=search-nordic&amp;searchVariation=MLB20563342&amp;wid=MLB4006264629&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bateria-de-longa-duracao--fone-bluetooth-supraaural/up/MLBU3694544686#polycard_client=search-desktop&amp;search_layout=grid&amp;position=20&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4410831371&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bola Futevolei Altinha Ftv Ft5 Penta Futemesa Rio Footvoley Super PU Cor Amarelo</t>
+          <t>Bateria De Longa Duração + Fone Bluetooth Supra-aural Verde</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>129</v>
+        <v>28.56</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_905834-MLA83851667349_042025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_889952-CBT102369021951_122025-E.webp</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-futevolei-altinha-ftv-ft5-penta-futemesa-rio-footvoley-super-pu-cor-amarelo/p/MLB29146288?searchVariation=MLB29146288#polycard_client=search-nordic&amp;searchVariation=MLB29146288&amp;wid=MLB4321183780&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/bateria-de-longa-duracao--fone-bluetooth-supraaural/up/MLBU3694544686#polycard_client=search-desktop&amp;search_layout=grid&amp;position=20&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4410831371&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Bola De Futebol Society Kappa Player + Bomba De Ar</t>
+          <t>Fone De Ouvido Usb-c Compatível Para Iphone 15, 16, Samsung Branco</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>132.9</v>
+        <v>29</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_877613-MLB84075225265_042025-E-bola-de-futebol-society-kappa-player-bomba-de-ar.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_724640-MLB93570249485_092025-E.webp</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-5365605436-bola-de-futebol-society-kappa-player-bomba-de-ar-_JM?searchVariation=183447294694#polycard_client=search-nordic&amp;searchVariation=183447294694&amp;position=48&amp;search_layout=grid&amp;type=item&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714</t>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-usbc-compativel-para-iphone-15-16-samsung/up/MLBU3358812215#polycard_client=search-desktop&amp;search_layout=grid&amp;position=48&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB5579414240&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Bola de futebol Dalponte nº 70 Unidade x 1 unidades cor branco</t>
+          <t>Fone De Ouvido Usb-c Compatível Para Iphone 15, 16, Samsung Branco</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>133.22</v>
+        <v>29</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_730532-MLU75289033019_032024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_724640-MLB93570249485_092025-E.webp</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-dalponte-n-70-unidade-x-1-unidades-cor-branco/p/MLB22996803?searchVariation=MLB22996803#polycard_client=search-nordic&amp;searchVariation=MLB22996803&amp;wid=MLB3304776185&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-usbc-compativel-para-iphone-15-16-samsung/up/MLBU3358812215#polycard_client=search-desktop&amp;search_layout=grid&amp;position=48&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB5579414240&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Bola de futevolei Poker Rio Poker nº 5 Unidade x 1 unidades cor branco e preto</t>
+          <t>Fone De Ouvido Usb-c Compatível Para Iphone 15, 16, Samsung Branco</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>137.93</v>
+        <v>29</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_773647-MLA79588973813_092024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_724640-MLB93570249485_092025-E.webp</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futevolei-poker-rio-poker-n-5-unidade-x-1-unidades-cor-branco-e-preto/p/MLB19698708?searchVariation=MLB19698708#polycard_client=search-nordic&amp;searchVariation=MLB19698708&amp;wid=MLB5338642928&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-usbc-compativel-para-iphone-15-16-samsung/up/MLBU3358812215#polycard_client=search-desktop&amp;search_layout=grid&amp;position=48&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB5579414240&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Bola De Futevôlei Altinha Poker Rio N° 5 Esporte Praia Pro Cor Branca e Laranja</t>
+          <t>Fone De Ouvido Usb-c Compatível Para Iphone 15, 16, Samsung Branco</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>137.93</v>
+        <v>29</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_740496-MLA84473749359_052025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_724640-MLB93570249485_092025-E.webp</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futevlei-altinha-poker-rio-n-5-esporte-praia-pro-cor-branca-e-laranja/p/MLB24350523?searchVariation=MLB24350523#polycard_client=search-nordic&amp;searchVariation=MLB24350523&amp;wid=MLB4006415601&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-usbc-compativel-para-iphone-15-16-samsung/up/MLBU3358812215#polycard_client=search-desktop&amp;search_layout=grid&amp;position=51&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB5579414240&amp;sid=search</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Bola de futevolei Poker Rio Poker nº 5 Unidade x 1 unidades cor rosa e azul marinho</t>
+          <t>Fone De Ouvido Sem Fio Bt 5.0 Em Forma De Orelha De Gato</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>137.93</v>
+        <v>29.28</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_904045-MLU79036618824_092024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_681329-MLB83305669711_032025-E.webp</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futevolei-poker-rio-poker-n-5-unidade-x-1-unidades-cor-rosa-e-azul-marinho/p/MLB19698706?searchVariation=MLB19698706#polycard_client=search-nordic&amp;searchVariation=MLB19698706&amp;wid=MLB4006299477&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://produto.mercadolivre.com.br/MLB-5328556336-fone-de-ouvido-sem-fio-bt-50-em-forma-de-orelha-de-gato-_JM?searchVariation=187319335301#polycard_client=search-desktop&amp;searchVariation=187319335301&amp;search_layout=grid&amp;position=44&amp;type=item&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bola De Futevôlei Poker Rio Ftv-5 Pro</t>
+          <t>Fone De Ouvido Sem Fio Bt 5.0 Em Forma De Orelha De Gato</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>137.93</v>
+        <v>29.28</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_718503-MLU75290479961_032024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_681329-MLB83305669711_032025-E.webp</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futevlei-poker-rio-ftv-5-pro/p/MLB27949636?searchVariation=MLB27949636#polycard_client=search-nordic&amp;searchVariation=MLB27949636&amp;wid=MLB3596574425&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://produto.mercadolivre.com.br/MLB-5328556336-fone-de-ouvido-sem-fio-bt-50-em-forma-de-orelha-de-gato-_JM?searchVariation=187319335301#polycard_client=search-desktop&amp;searchVariation=187319335301&amp;search_layout=grid&amp;position=44&amp;type=item&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bola Futebol De Salão Futsal Dalponte 81 Costurada</t>
+          <t>Fone De Ouvido Sem Fio Bt 5.0 Em Forma De Orelha De Gato</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>139.4</v>
+        <v>29.28</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_949578-MLU72859154453_112023-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_681329-MLB83305669711_032025-E.webp</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-futebol-de-salo-futsal-dalponte-81-costurada/p/MLB24560282?searchVariation=MLB24560282#polycard_client=search-nordic&amp;searchVariation=MLB24560282&amp;wid=MLB3468247509&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://produto.mercadolivre.com.br/MLB-5328556336-fone-de-ouvido-sem-fio-bt-50-em-forma-de-orelha-de-gato-_JM?searchVariation=187319335301#polycard_client=search-desktop&amp;searchVariation=187319335301&amp;search_layout=grid&amp;position=44&amp;type=item&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Kagiva Profissional F5 Branco 2022 64</t>
+          <t>Fone De Ouvido Sem Fio Bt 5.0 Em Forma De Orelha De Gato</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>150.5</v>
+        <v>29.28</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_912769-MLU74696060400_022024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_681329-MLB83305669711_032025-E.webp</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/kagiva-profissional-f5-branco-2022-64/p/MLB19754377?searchVariation=MLB19754377#polycard_client=search-nordic&amp;searchVariation=MLB19754377&amp;wid=MLB4540427612&amp;position=44&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://produto.mercadolivre.com.br/MLB-5328556336-fone-de-ouvido-sem-fio-bt-50-em-forma-de-orelha-de-gato-_JM?searchVariation=187319335301#polycard_client=search-desktop&amp;searchVariation=187319335301&amp;search_layout=grid&amp;position=44&amp;type=item&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Bola De Futebol Society 8 X Penalty</t>
+          <t>Fones De Ouvido Bluetooth Sem Fio C/ Espelho Impermeável S20</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>157.53</v>
+        <v>30.55</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_818310-MLU76366734942_052024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_643677-MLB89830004223_082025-E.webp</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futebol-society-8-x-penalty/p/MLB19776132?searchVariation=MLB19776132#polycard_client=search-nordic&amp;searchVariation=MLB19776132&amp;wid=MLB4128367346&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=FkS0dR0vnwhzzTZalRB6z7NytP3cJJ7pEZ6dtbk7Et6TkNcvXZXTK0eQpdLH4l0Dph%2BdrxcE5xLY2I0m4zqUrHEHfeX0Cnk6qAnwNDFRQYllobeyUVW95up34RBXtblQStwO3zNDH238u50MvyWtA%2FxjxVWRm1TJbf5lvDNNDEkGTZKeHXFAYewmarbkEBQE4nsFq1GuU7eEaZ81%2BmJSKAFUF9DxMIVWw9XmFJgChRtmqjQ3E32rbGnTZE7Kn4PIPaN5%2FYbUfYcJQo99EN2W4civJEvENxKxv%2FsSOk00luYqYJRZ7hGr4fkpgbwopXYnrhotsoOCvkL9hDw4qSt1iqt0UrAOjy5eASJPOefj7PtMqYf8Qt2Q9C137%2BcbZfxHqAgtpGQTjVoeXb2nVZw9ONsrwftNC0ZNewssMOkQLMzXQ%2FelFFbTPCu7RzsZNKNc4WQHY3AX7h1P5d34KqtAemWayF74zEtHbGa002nsnbmk1iDs%2FFtShRsINA1yhRvQCJvC8jd6%2FJjh8aHWnSQy%2BRud0hExT0q45Zlaih0Eod4IUEV4OSvBhjkrn4tpUB6B7nr%2BHAYdKgCpJSNcOKP0YTDbxvLYgvD5dSGM2ToCSXn9bu%2FqNllFZjO%2FhQfRWex5xqQSb2ekrX4fbTGFwIYoFvOPBTQBp4qOixXkezlpnN2on3vT%2FH%2FFY4n1KqTh6KxkJ46naHjIAm8QHJ%2BK9D%2FRrupus2dFQCpkBL4OQ3yif%2FLp1pjUFlBAClQ2nmGvJcP1YfsGIrywTZCfqqClqINfmi%2BkbzkFtkxbf%2F8BLmtag4KjlKCw3LtRldi0Ubtj6FeGYecN%2F%2B3qEIdVkb7lKiHPTibb7WgBD57NKx%2F9p%2BjyDSna9x1SQikA6HyoLnfQhpd1mIyuOeVsxsWyjpTm0bjf6JxJ6yreGkraBZdrGJXYtFv%2BBiu94BQZkqVfxjRFubRhUnRcPdGKruLVePRCcqI54PpCzexGoP5zLci6&amp;searchVariation=187003493391#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=187003493391&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=28&amp;type=pad&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bola Futebol Society Dalponte Alpha Verde E Marinho Society</t>
+          <t>Fones De Ouvido Bluetooth Sem Fio C/ Espelho Impermeável S20</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>172</v>
+        <v>30.55</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_955981-MLB84217672272_052025-E-bola-futebol-society-dalponte-alpha-verde-e-marinho-society.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_643677-MLB89830004223_082025-E.webp</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4057576185-bola-futebol-society-dalponte-alpha-verde-e-marinho-society-_JM?searchVariation=187880594707#polycard_client=search-nordic&amp;searchVariation=187880594707&amp;position=45&amp;search_layout=grid&amp;type=item&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=EGkUw4V%2F6yzy1OOrGOLcns7VUFp7AVOfeYftad2yUpwTqKcBBDiF3ew8%2FGxgMG97bP1bb2bOeoH0LsLlsyzKj7wO2RjUnCo2wc%2BCr8G8QqXQzQJulm2yf3RgYAtoV5g9i5PxLZdq1RrTxoZXC7b4hdJLgVdAZPbCA8Xz8V7%2FEgU6%2BG%2Fl3d207mZ%2FKvp%2BtZ58oG9HG%2FKS3wZSfXgTpl5dD3FAavFP73t2f7uhBhRLlbsUrqKnv1tT5UQIyIrpiVDeLJ9e4EY5S7l4Pzk%2BdZ89XeSUTg08JNrKV9fXZmurA5NEgmLGSFQqHtIc%2BNji%2B%2FgQAjL7B%2F3oeb3IwQadTvIDG8jF7RcS%2Bew1PzpmgK69ELyr0YLzXpR37GcrqQL%2FF2LR1ol50ghDVE45to8%2FE048JSn9rSI96MfbSF5YWhcCev0kH22btNPVdRpsay4ZLKKhAsUFLCS%2FiamA5QKugTH6JxsUv03XaXM6rSK5T8V5W%2BmvQyWMuQBYa7wInB7gO%2F%2Fs2EJmImskBoFnGiqH%2FQKTQn0Rs4dv4zyYg06uyH1ThLGrbfguWZEoaD25AbbmBC6ck9q955Swtkskd5OJeUcmRyvekCOCcWnchfYoZAs40A7OqwW0%2B%2F2ArvYOQUeIcmptkVlqdoIVP55heS1Zhz7LztZ8c2BJlepUkxYNuYD6A2Fy4cCS%2FH2B78wgyC2bCJLHzGEbIcsctHEV3j9vxL5FGNOcMmAojO4NcwGGG%2FqKf3yhlR6JV3wRdFoOVYAacA2hpDlQAmGDBW9c1NT7t6OQMGfJdkGOxVGifI%2FP9XSusrIy%2FjB4qcuIFSyPlF2uCpXItBIxGIYyYV0ZOOLa0eUn5LYJVwyfvWyU8NraHUIXfSDLU4uqF1pzz1c%2B%2F7cuYqwcN32MWbGCCLBN93eZl0VdQRXLjEEH3IPx9su2Wm7F1L9D8Ur1Ra%2Buw1l3vwuOgZ0V95eyKUR9e6fzMYTQmbgduojn6rINfOtrZY%2B%2B&amp;searchVariation=187003493391#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=187003493391&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=28&amp;type=pad&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Bola Society 8 X Amarelo, Branco E Preto Penalty</t>
+          <t>Fones De Ouvido Bluetooth Sem Fio C/ Espelho Impermeável S20</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>185</v>
+        <v>30.55</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_692679-MLA80330996332_112024-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_643677-MLB89830004223_082025-E.webp</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-society-8-x-amarelo-branco-e-preto-penalty/p/MLB19719046?searchVariation=MLB19719046#polycard_client=search-nordic&amp;searchVariation=MLB19719046&amp;wid=MLB3955181335&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=%2BQGkbq3CIDQFOLjGXFN9IKKw7ptWnNcL2YJPdhstfVolKY6VS7Zi9dn95sNC76HEi2XQRMDy90e2gQ2KJlwH%2BWv9uVmuYWfoGCBQkYuvdla4Qu%2Bqd5lMKRE%2BdynwEGj9OmLtkUrSg09Jf2iBsmJ1wKWuO2SPvg4B0xKzdsYKBUVjJzETj%2ByQUUtZqg%2FKquhlUUxDLmf2%2BBGrlOY2SHHYPtbrrfXNX%2FFgKz0qskp67u8NPzKRcznSVxdcCw9Ee965k%2Fb8KDnRA3qGea1qNv8%2BnGaOQ219d4i26egSmkh68tBwPqEnqnme0LzlYxjj19umIUqVWwyl7W8HmKKE5Y4U8xxKkIYOOLXFgj6XSpSnAVayXQnYPQZ%2FglugNlN%2F%2FwxfBLjPHO9O97kwfeB12mS07W0PfOiqlLbGKFo1qEcABGc3vx2agG8GR5hTqFBx4Np0v6BJv1trRDsLY9RJiJe%2FGV4zB4x94NZWd22E%2BqxOL90qdqnOq3dXyDZuKmvIF8vGf%2Bm0IzRXexjH2KguL79Yaqw1raEvD%2BXKTKJV3IcWe5o4aW7wBQx8OKGYPPVUmWu3R4sed25V%2BRCn5ZghMOviQhagXtwjIw1q3ATRTvMve%2B1OvtyQld4zJ47A2dLhuqQFnMeDBpsPInLNsO7g6A3q4JJCaqk4nhDkut3kS5HpD2CskV6FjLVoqrrYaPDe9%2FoWAmjq9iJJxKhzTglesKFGizfs2MCVuKKuJzT262V0nPvk1rwAoIQMhQgZNy5cOZgbzF3CWm7MfClp0hB5JwBB%2F047MbnRUNbvsDUGSicudXuw3ppQnS2WRgOVkqH6e1q5B%2F4soOXIhFk5Tf9oS4LQLG7LKKspDSYzkJDMU3qxdM0v7VnfRv8TFGu6UuPyEv2yHgmB71fX30GQHUDq3jf3AKthD1l%2BcsUlLUIfBbbCH2JZBu86BN5j2epTd58MnQBVWq%2FtOFaZL56YCvmKxlu9FB8fgc7Y7hzxjYTK&amp;searchVariation=187003493391#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=187003493391&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=28&amp;type=pad&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Conjunto De Jogos Para Diversão Na Praia, No Jardim E Ao Ar</t>
+          <t>Fones De Ouvido Bluetooth Sem Fio C/ Espelho Impermeável S20</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>215.4</v>
+        <v>30.55</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_653456-CBT84582210979_052025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_643677-MLB89830004223_082025-E.webp</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/game-set-for-beach-yardoutdoor-fun-complete-kit-for-kids/p/MLB2017925542#polycard_client=search-nordic&amp;searchVariation=MLB2017925542&amp;wid=MLB5384145428&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=cEqxcJBaxW6zUuPQDXJ0pHCE3XxFAbcb%2FmDZjwfgYXBGsJGykQqsrpdhmTctm0WJV8k1wXJx9hPbujoASOgrHF%2BUod4eUTz2Lc17pWd%2BfCYGD5Jz3bPxJJxrw02Nt7kxY2%2FzKawjkY0zmZ5F1Ky9IvUQgVuy34%2B4hb0TEphD3QsuHrS5MTxK%2Bge7CvzTQHZ0qZUDrYSsJlNs%2BJ0DQhy1EgABLPZRaSqsMqasaIFfxReflb9uOS3xhIrlnCTxVoOz4%2FOoneR1uBlrQ0E0jjrxiR%2FHw%2FcSMnjfJOY86u1dT4UHQcyBMPRafqiQDcxOaEu19Ml2okVRlE0M179%2FSdZIoGqWQSDsimaDKn4M8dci%2FLiC%2BqWzCs%2Ff9bNUjjApW8gRYDMEkBq2EFsITzUqdkpj3ATqyyhpHmtC1%2FI%2BvuvqoKTqxSODWYmlA%2F%2F36pbGz1iuBlYiSQ6981PI%2BcVAApCaruj9SXklNJ3s4mTK1RZxemvu09f98C9JUqTk2NdmUGcmgZ0yAaKOoDLc8DveKSU%2FF6BedaVtmC5CSism6mNshv%2Bp1CVx0XXU6TA6UxSFDmQJHSns45W4WI4zQ50Zk7VLdpFazT552D%2FtG6HPwDtTJ5B26ZcuTfggi8ZeZ%2FPaX3gdgdnU%2B1oPrqw6%2Bk8GXtv4b4afVRnVlyENwd1Apn%2BaZBgcqbzIeVHE2eB5qWxmqnYKN6aYx56OrlKULNdjJpx6aZoKxP5fUiBivc%2FnIfViNNesPj3%2FSfolc3OvzMy4BfTIyTFjhBYB59h73cva32jQzPVE0nvUt0oea7qztX3v19qFf0nR8Mt1CVO71tGps8%2F4HEFS4iWTide3Y%2BZWqJ%2BSk7mqPFl1qt7uTdUpWMt4g7A5i4wAD3%2BvkJYIZ5sprP0KSMHdMn1ZjxYP6jVaP5%2B4VTaaZBBmZNzvfB%2FWvum2q7qB3QzXC2Bq9qXop7m7BXe54Z3UKg6SjUFfQ5AUT5ti%2Bz6sX6sbOFDUujc%3D&amp;searchVariation=187003493391#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=187003493391&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=28&amp;type=pad&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Bola De Futsal Penalty Max 1000 Xxiv Cor Azul</t>
+          <t>Fone de Ouvido In-ear QKZ AK6 Gamer com Microfone Redução Ruído Preto</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>254.24</v>
+        <v>32.97</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://http2.mlstatic.com/D_Q_NP_2X_809733-MLA83760374857_042025-E.webp</t>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_658461-MLA100083105523_122025-E.webp</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/bola-de-futsal-penalty-max-1000-xxiv-cor-azul/p/MLB36227619?searchVariation=MLB36227619#polycard_client=search-nordic&amp;searchVariation=MLB36227619&amp;wid=MLB3892608145&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=735c4488-9560-4c3f-be27-573d812e2714&amp;sid=search</t>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-in-ear-qkz-ak6-gamer-com-microfone-reduco-ruido-preto/p/MLB21416421#polycard_client=search-desktop&amp;search_layout=grid&amp;position=17&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4078399020&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido In-ear QKZ AK6 Gamer com Microfone Redução Ruído Preto</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>32.97</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_658461-MLA100083105523_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-in-ear-qkz-ak6-gamer-com-microfone-reduco-ruido-preto/p/MLB21416421#polycard_client=search-desktop&amp;search_layout=grid&amp;position=17&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4078399020&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido In-ear QKZ AK6 Gamer com Microfone Redução Ruído Preto</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>32.97</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_658461-MLA100083105523_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-in-ear-qkz-ak6-gamer-com-microfone-reduco-ruido-preto/p/MLB21416421#polycard_client=search-desktop&amp;search_layout=grid&amp;position=17&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4078399020&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido In-ear QKZ AK6 Gamer com Microfone Redução Ruído Preto</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>32.97</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_658461-MLA100083105523_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-in-ear-qkz-ak6-gamer-com-microfone-reduco-ruido-preto/p/MLB21416421#polycard_client=search-desktop&amp;search_layout=grid&amp;position=17&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4078399020&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Kaidi Sem Fio Tws Bluetooth 5.1 Cancelamento Cvc Chamadas Hd Modo Jogo Baixa Latência Bateria Longa Estojo Magnético Som Premium Versão Avançada Cor Branco Kaidi</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>41.19</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_829906-MLA100093662831_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-kaidi-sem-fio-tws-bluetooth-51-cancelamento-cvc-chamadas-hd-modo-jogo-baixa-latncia-bateria-longa-estojo-magnetico-som-premium-verso-avancada-cor-branco-kaidi/p/MLB19567289#polycard_client=search-desktop&amp;search_layout=grid&amp;position=49&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4417494485&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Kaidi Sem Fio Tws Bluetooth 5.1 Cancelamento Cvc Chamadas Hd Modo Jogo Baixa Latência Bateria Longa Estojo Magnético Som Premium Versão Avançada Cor Branco Kaidi</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>41.19</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_829906-MLA100093662831_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-kaidi-sem-fio-tws-bluetooth-51-cancelamento-cvc-chamadas-hd-modo-jogo-baixa-latncia-bateria-longa-estojo-magnetico-som-premium-verso-avancada-cor-branco-kaidi/p/MLB19567289#polycard_client=search-desktop&amp;search_layout=grid&amp;position=49&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4417494485&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Kaidi Sem Fio Tws Bluetooth 5.1 Cancelamento Cvc Chamadas Hd Modo Jogo Baixa Latência Bateria Longa Estojo Magnético Som Premium Versão Avançada Cor Branco Kaidi</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>41.19</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_829906-MLA100093662831_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-kaidi-sem-fio-tws-bluetooth-51-cancelamento-cvc-chamadas-hd-modo-jogo-baixa-latncia-bateria-longa-estojo-magnetico-som-premium-verso-avancada-cor-branco-kaidi/p/MLB19567289#polycard_client=search-desktop&amp;search_layout=grid&amp;position=49&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4417494485&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Kaidi Sem Fio Tws Bluetooth 5.1 Cancelamento Cvc Chamadas Hd Modo Jogo Baixa Latência Bateria Longa Estojo Magnético Som Premium Versão Avançada Cor Branco Kaidi</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>41.19</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_829906-MLA100093662831_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-kaidi-sem-fio-tws-bluetooth-51-cancelamento-cvc-chamadas-hd-modo-jogo-baixa-latncia-bateria-longa-estojo-magnetico-som-premium-verso-avancada-cor-branco-kaidi/p/MLB19567289#polycard_client=search-desktop&amp;search_layout=grid&amp;position=49&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4417494485&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Bluetooth Sem Fio Luuk Young LT30 Gamer Infantil LED Lilás</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_801469-MLA99623097018_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-sem-fio-luuk-young-lt30-gamer-infantil-led-lilas/p/MLB18218518#polycard_client=search-desktop&amp;search_layout=grid&amp;position=46&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB3908846491&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Bluetooth Sem Fio Luuk Young LT30 Gamer Infantil LED Lilás</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_801469-MLA99623097018_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-sem-fio-luuk-young-lt30-gamer-infantil-led-lilas/p/MLB18218518#polycard_client=search-desktop&amp;search_layout=grid&amp;position=46&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB3908846491&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Bluetooth Sem Fio Luuk Young LT30 Gamer Infantil LED Lilás</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_801469-MLA99623097018_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-sem-fio-luuk-young-lt30-gamer-infantil-led-lilas/p/MLB18218518#polycard_client=search-desktop&amp;search_layout=grid&amp;position=46&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB3908846491&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Bluetooth Sem Fio Luuk Young LT30 Gamer Infantil LED Lilás</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_801469-MLA99623097018_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-sem-fio-luuk-young-lt30-gamer-infantil-led-lilas/p/MLB18218518#polycard_client=search-desktop&amp;search_layout=grid&amp;position=47&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB3908846491&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Intra-auricular Com Fio Tune 110 Preto Jbl</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>51.16</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_895718-MLA95706227410_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-intra-auricular-com-fio-tune-110-preto-jbl/p/MLB6344841#polycard_client=search-desktop&amp;search_layout=grid&amp;position=41&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB3708026866&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Intra-auricular Com Fio Tune 110 Preto Jbl</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>51.16</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_895718-MLA95706227410_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-intra-auricular-com-fio-tune-110-preto-jbl/p/MLB6344841#polycard_client=search-desktop&amp;search_layout=grid&amp;position=41&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB3708026866&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Intra-auricular Com Fio Tune 110 Preto Jbl</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>51.16</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_895718-MLA95706227410_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-intra-auricular-com-fio-tune-110-preto-jbl/p/MLB6344841#polycard_client=search-desktop&amp;search_layout=grid&amp;position=41&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB3708026866&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Intra-auricular Com Fio Tune 110 Preto Jbl</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>51.16</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_895718-MLA95706227410_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-intra-auricular-com-fio-tune-110-preto-jbl/p/MLB6344841#polycard_client=search-desktop&amp;search_layout=grid&amp;position=41&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB3708026866&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Fone Ouvido Kaidi Bluetooth 5.3 Sem Fio Kd790 Branco Kaidi</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>51.87</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_615673-MLA99936995707_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-ouvido-kaidi-bluetooth-53-sem-fio-kd790-branco-kaidi/p/MLB30542106#polycard_client=search-desktop&amp;search_layout=grid&amp;position=32&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4345858499&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Fone Ouvido Kaidi Bluetooth 5.3 Sem Fio Kd790 Branco Kaidi</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>51.87</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_615673-MLA99936995707_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-ouvido-kaidi-bluetooth-53-sem-fio-kd790-branco-kaidi/p/MLB30542106#polycard_client=search-desktop&amp;search_layout=grid&amp;position=32&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4345858499&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Fone Ouvido Kaidi Bluetooth 5.3 Sem Fio Kd790 Branco Kaidi</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>51.87</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_615673-MLA99936995707_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-ouvido-kaidi-bluetooth-53-sem-fio-kd790-branco-kaidi/p/MLB30542106#polycard_client=search-desktop&amp;search_layout=grid&amp;position=32&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4345858499&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Fone Ouvido Kaidi Bluetooth 5.3 Sem Fio Kd790 Branco Kaidi</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>51.87</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_615673-MLA99936995707_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-ouvido-kaidi-bluetooth-53-sem-fio-kd790-branco-kaidi/p/MLB30542106#polycard_client=search-desktop&amp;search_layout=grid&amp;position=32&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4345858499&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Bluetooth Estéreo Gamer Sem Fio Led Original Preto 2406 Original</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_791938-MLB92696850443_092025-E.webp</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-estereo-gamer-sem-fio-led-original/up/MLBU785262657#polycard_client=search-desktop&amp;search_layout=grid&amp;position=56&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4939186018&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Bluetooth Estéreo Gamer Sem Fio Led Original Preto 2406 Original</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_791938-MLB92696850443_092025-E.webp</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-estereo-gamer-sem-fio-led-original/up/MLBU785262657#polycard_client=search-desktop&amp;search_layout=grid&amp;position=56&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4939186018&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Bluetooth Estéreo Gamer Sem Fio Led Original Preto 2406 Original</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_791938-MLB92696850443_092025-E.webp</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-estereo-gamer-sem-fio-led-original/up/MLBU785262657#polycard_client=search-desktop&amp;search_layout=grid&amp;position=56&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4939186018&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Bluetooth Estéreo Gamer Sem Fio Led Original Preto 2406 Original</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>52.8</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_791938-MLB92696850443_092025-E.webp</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-estereo-gamer-sem-fio-led-original/up/MLBU785262657#polycard_client=search-desktop&amp;search_layout=grid&amp;position=59&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4939186018&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido In-ear Bluetooth Sem Fio Qualidade Inv Tech</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>57.02</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_704099-MLA96785361624_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-in-ear-bluetooth-sem-fio-qualidade-inv-tech/p/MLB37899897#polycard_client=search-desktop&amp;search_layout=grid&amp;position=52&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB6132987092&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido In-ear Bluetooth Sem Fio Qualidade Inv Tech</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>57.02</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_704099-MLA96785361624_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-in-ear-bluetooth-sem-fio-qualidade-inv-tech/p/MLB37899897#polycard_client=search-desktop&amp;search_layout=grid&amp;position=52&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB6132987092&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido In-ear Bluetooth Sem Fio Qualidade Inv Tech</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>57.02</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_704099-MLA96785361624_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-in-ear-bluetooth-sem-fio-qualidade-inv-tech/p/MLB37899897#polycard_client=search-desktop&amp;search_layout=grid&amp;position=52&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB6132987092&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido In-ear Bluetooth Sem Fio Qualidade Inv Tech</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>57.02</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_704099-MLA96785361624_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-in-ear-bluetooth-sem-fio-qualidade-inv-tech/p/MLB37899897#polycard_client=search-desktop&amp;search_layout=grid&amp;position=52&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB6132987092&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Tws 5.3 Chip Fone Ouvido Bluetooth Sem Fio Carregamento Usb Preto</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>57.62</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_787444-MLB95039815937_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/tws-53-chip-fone-ouvido-bluetooth-sem-fio-carregamento-usb/up/MLBU3149410985#polycard_client=search-desktop&amp;search_layout=grid&amp;position=59&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB5371111772&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Tws 5.3 Chip Fone Ouvido Bluetooth Sem Fio Carregamento Usb Preto</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>57.62</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_787444-MLB95039815937_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/tws-53-chip-fone-ouvido-bluetooth-sem-fio-carregamento-usb/up/MLBU3149410985#polycard_client=search-desktop&amp;search_layout=grid&amp;position=59&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB5371111772&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Tws 5.3 Chip Fone Ouvido Bluetooth Sem Fio Carregamento Usb Preto</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>57.62</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_787444-MLB95039815937_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/tws-53-chip-fone-ouvido-bluetooth-sem-fio-carregamento-usb/up/MLBU3149410985#polycard_client=search-desktop&amp;search_layout=grid&amp;position=59&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB5371111772&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Gamer Sem Fio Bluetooth Tws Kaidi Kd 775 Cor Preto Cor</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>65.08</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_925886-MLA96152745405_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-gamer-sem-fio-bluetooth-tws-kaidi-kd-775-cor-preto-cor/p/MLB28083227#polycard_client=search-desktop&amp;search_layout=grid&amp;position=34&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4155432027&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Gamer Sem Fio Bluetooth Tws Kaidi Kd 775 Cor Preto Cor</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>65.08</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_925886-MLA96152745405_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-gamer-sem-fio-bluetooth-tws-kaidi-kd-775-cor-preto-cor/p/MLB28083227#polycard_client=search-desktop&amp;search_layout=grid&amp;position=34&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4155432027&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Gamer Sem Fio Bluetooth Tws Kaidi Kd 775 Cor Preto Cor</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>65.08</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_925886-MLA96152745405_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-gamer-sem-fio-bluetooth-tws-kaidi-kd-775-cor-preto-cor/p/MLB28083227#polycard_client=search-desktop&amp;search_layout=grid&amp;position=34&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4155432027&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Gamer Sem Fio Bluetooth Tws Kaidi Kd 775 Cor Preto Cor</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>65.08</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_925886-MLA96152745405_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-gamer-sem-fio-bluetooth-tws-kaidi-kd-775-cor-preto-cor/p/MLB28083227#polycard_client=search-desktop&amp;search_layout=grid&amp;position=34&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4155432027&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Auriculares Bluetooth inalámbricos ultraligeros Hmaston Blanco con reloj inteligente</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>66.33</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_657662-MLA99485332778_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/auriculares-bluetooth-inalambricos-ultraligeros-hmaston-blanco-con-reloj-inteligente/p/MLB38430995#polycard_client=search-desktop&amp;search_layout=grid&amp;position=35&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB5991588650&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Auriculares Bluetooth inalámbricos ultraligeros Hmaston Blanco con reloj inteligente</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>66.33</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_657662-MLA99485332778_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/auriculares-bluetooth-inalambricos-ultraligeros-hmaston-blanco-con-reloj-inteligente/p/MLB38430995#polycard_client=search-desktop&amp;search_layout=grid&amp;position=35&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB5991588650&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Auriculares Bluetooth inalámbricos ultraligeros Hmaston Blanco con reloj inteligente</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>66.33</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_657662-MLA99485332778_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/auriculares-bluetooth-inalambricos-ultraligeros-hmaston-blanco-con-reloj-inteligente/p/MLB38430995#polycard_client=search-desktop&amp;search_layout=grid&amp;position=35&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB5991588650&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Auriculares Bluetooth inalámbricos ultraligeros Hmaston Blanco con reloj inteligente</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>66.33</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_657662-MLA99485332778_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/auriculares-bluetooth-inalambricos-ultraligeros-hmaston-blanco-con-reloj-inteligente/p/MLB38430995#polycard_client=search-desktop&amp;search_layout=grid&amp;position=35&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB5991588650&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Bluetooth Lenovo Gm2 Pro Cor Preto</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>71.18000000000001</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_656091-MLA100079062633_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-lenovo-gm2-pro-cor-preto/p/MLB27169474#polycard_client=search-desktop&amp;search_layout=grid&amp;position=23&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB3575773619&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Bluetooth Lenovo Gm2 Pro Cor Preto</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>71.18000000000001</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_656091-MLA100079062633_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-lenovo-gm2-pro-cor-preto/p/MLB27169474#polycard_client=search-desktop&amp;search_layout=grid&amp;position=23&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB3575773619&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Bluetooth Lenovo Gm2 Pro Cor Preto</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>71.18000000000001</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_656091-MLA100079062633_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-lenovo-gm2-pro-cor-preto/p/MLB27169474#polycard_client=search-desktop&amp;search_layout=grid&amp;position=23&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB3575773619&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Bluetooth Lenovo Gm2 Pro Cor Preto</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>71.18000000000001</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_656091-MLA100079062633_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-lenovo-gm2-pro-cor-preto/p/MLB27169474#polycard_client=search-desktop&amp;search_layout=grid&amp;position=23&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB3575773619&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Sem Fio Bluetooth Jb Tune T510bt Tws Preto Único</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>73.72</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_715447-MLB95809826324_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-sem-fio-bluetooth-jb-tune-t510bt-tws/up/MLBU3517984910#polycard_client=search-desktop&amp;search_layout=grid&amp;position=37&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4271938797&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Sem Fio Bluetooth Jb Tune T510bt Tws Preto Único</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>73.72</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_715447-MLB95809826324_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-sem-fio-bluetooth-jb-tune-t510bt-tws/up/MLBU3517984910#polycard_client=search-desktop&amp;search_layout=grid&amp;position=37&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4271938797&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Sem Fio Bluetooth Jb Tune T510bt Tws Preto Único</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>73.72</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_715447-MLB95809826324_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-sem-fio-bluetooth-jb-tune-t510bt-tws/up/MLBU3517984910#polycard_client=search-desktop&amp;search_layout=grid&amp;position=37&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4271938797&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Sem Fio Bluetooth Jb Tune T510bt Tws Preto Único</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>73.72</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_715447-MLB95809826324_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-sem-fio-bluetooth-jb-tune-t510bt-tws/up/MLBU3517984910#polycard_client=search-desktop&amp;search_layout=grid&amp;position=40&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4271938797&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Bluetooth Pro In-Ear Compatível com AirPods Pro 2ª Geração</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_808927-MLA99452531330_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-pro-in-ear-compativel-com-airpods-pro-2-geraco/p/MLB46485533#polycard_client=search-desktop&amp;search_layout=grid&amp;position=43&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4407268477&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Bluetooth Pro In-Ear Compatível com AirPods Pro 2ª Geração</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_808927-MLA99452531330_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-pro-in-ear-compativel-com-airpods-pro-2-geraco/p/MLB46485533#polycard_client=search-desktop&amp;search_layout=grid&amp;position=43&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4407268477&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Bluetooth Pro In-Ear Compatível com AirPods Pro 2ª Geração</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_808927-MLA99452531330_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-pro-in-ear-compativel-com-airpods-pro-2-geraco/p/MLB46485533#polycard_client=search-desktop&amp;search_layout=grid&amp;position=43&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4407268477&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Bluetooth Pro In-Ear Compatível com AirPods Pro 2ª Geração</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_808927-MLA99452531330_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-bluetooth-pro-in-ear-compativel-com-airpods-pro-2-geraco/p/MLB46485533#polycard_client=search-desktop&amp;search_layout=grid&amp;position=46&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4407268477&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Headphone Bluetooth Kaidi Kd-755 Cor PretoSuper Confortável</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_977493-MLA99444654012_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/headphone-bluetooth-kaidi-kd-755-cor-pretosuper-confortavel/p/MLB38064584#polycard_client=search-desktop&amp;search_layout=grid&amp;position=54&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4117111313&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Headphone Bluetooth Kaidi Kd-755 Cor PretoSuper Confortável</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_977493-MLA99444654012_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/headphone-bluetooth-kaidi-kd-755-cor-pretosuper-confortavel/p/MLB38064584#polycard_client=search-desktop&amp;search_layout=grid&amp;position=54&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4117111313&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Headphone Bluetooth Kaidi Kd-755 Cor PretoSuper Confortável</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_977493-MLA99444654012_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/headphone-bluetooth-kaidi-kd-755-cor-pretosuper-confortavel/p/MLB38064584#polycard_client=search-desktop&amp;search_layout=grid&amp;position=54&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4117111313&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Headphone Bluetooth Kaidi Kd-755 Cor PretoSuper Confortável</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>99.98999999999999</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_977493-MLA99444654012_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/headphone-bluetooth-kaidi-kd-755-cor-pretosuper-confortavel/p/MLB38064584#polycard_client=search-desktop&amp;search_layout=grid&amp;position=56&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4117111313&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Bluetooth Redmi Buds 6 Play Xiaomi Sem Fio</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>108.46</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_759014-MLB98013352706_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4042298377-fone-de-ouvido-bluetooth-redmi-buds-6-play-xiaomi-sem-fio-_JM?searchVariation=188074205547#polycard_client=search-desktop&amp;searchVariation=188074205547&amp;search_layout=grid&amp;position=11&amp;type=item&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Bluetooth Redmi Buds 6 Play Xiaomi Sem Fio</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>108.46</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_759014-MLB98013352706_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4042298377-fone-de-ouvido-bluetooth-redmi-buds-6-play-xiaomi-sem-fio-_JM?searchVariation=188074205547#polycard_client=search-desktop&amp;searchVariation=188074205547&amp;search_layout=grid&amp;position=11&amp;type=item&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Bluetooth Redmi Buds 6 Play Xiaomi Sem Fio</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>108.46</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_759014-MLB98013352706_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4042298377-fone-de-ouvido-bluetooth-redmi-buds-6-play-xiaomi-sem-fio-_JM?searchVariation=188074205547#polycard_client=search-desktop&amp;searchVariation=188074205547&amp;search_layout=grid&amp;position=11&amp;type=item&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Bluetooth Redmi Buds 6 Play Xiaomi Sem Fio</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>108.46</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_759014-MLB98013352706_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4042298377-fone-de-ouvido-bluetooth-redmi-buds-6-play-xiaomi-sem-fio-_JM?searchVariation=188074205547#polycard_client=search-desktop&amp;searchVariation=188074205547&amp;search_layout=grid&amp;position=11&amp;type=item&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Haylou X1 Neo Bluetooth 5.3 Preto Sem Fio</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>111.81</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_672410-MLA99499792398_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-haylou-x1-neo-bluetooth-53-preto-sem-fio/p/MLB21766705#polycard_client=search-desktop&amp;search_layout=grid&amp;position=51&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB5266052172&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Haylou X1 Neo Bluetooth 5.3 Preto Sem Fio</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>111.81</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_672410-MLA99499792398_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-haylou-x1-neo-bluetooth-53-preto-sem-fio/p/MLB21766705#polycard_client=search-desktop&amp;search_layout=grid&amp;position=51&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB5266052172&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Haylou X1 Neo Bluetooth 5.3 Preto Sem Fio</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>111.81</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_672410-MLA99499792398_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-haylou-x1-neo-bluetooth-53-preto-sem-fio/p/MLB21766705#polycard_client=search-desktop&amp;search_layout=grid&amp;position=51&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB5266052172&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Haylou X1 Neo Bluetooth 5.3 Preto Sem Fio</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>111.81</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_672410-MLA99499792398_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-haylou-x1-neo-bluetooth-53-preto-sem-fio/p/MLB21766705#polycard_client=search-desktop&amp;search_layout=grid&amp;position=54&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB5266052172&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Fone Sem Fio Redmi Buds 6 Active Cor Branco Luz Branco</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_955760-MLA95669316884_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-sem-fio-redmi-buds-6-active-cor-branco-luz-branco/p/MLB47309624#polycard_client=search-desktop&amp;search_layout=grid&amp;position=21&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4300796571&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Fone de ouvido Xiaomi Redmi Buds 6 active bluetooth 5.4 cor preto</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_899460-MLA95640142802_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-xiaomi-redmi-buds-6-active-bluetooth-54-cor-preto/p/MLB38921521#polycard_client=search-desktop&amp;search_layout=grid&amp;position=47&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB5777003646&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Fone Sem Fio Redmi Buds 6 Active Cor Branco Luz Branco</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_955760-MLA95669316884_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-sem-fio-redmi-buds-6-active-cor-branco-luz-branco/p/MLB47309624#polycard_client=search-desktop&amp;search_layout=grid&amp;position=21&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4300796571&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Fone de ouvido Xiaomi Redmi Buds 6 active bluetooth 5.4 cor preto</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_899460-MLA95640142802_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-xiaomi-redmi-buds-6-active-bluetooth-54-cor-preto/p/MLB38921521#polycard_client=search-desktop&amp;search_layout=grid&amp;position=47&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB5777003646&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Fone Sem Fio Redmi Buds 6 Active Cor Branco Luz Branco</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_955760-MLA95669316884_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-sem-fio-redmi-buds-6-active-cor-branco-luz-branco/p/MLB47309624#polycard_client=search-desktop&amp;search_layout=grid&amp;position=21&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4300796571&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Fone de ouvido Xiaomi Redmi Buds 6 active bluetooth 5.4 cor preto</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_899460-MLA95640142802_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-xiaomi-redmi-buds-6-active-bluetooth-54-cor-preto/p/MLB38921521#polycard_client=search-desktop&amp;search_layout=grid&amp;position=47&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB5777003646&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Fone Sem Fio Redmi Buds 6 Active Cor Branco Luz Branco</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_955760-MLA95669316884_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-sem-fio-redmi-buds-6-active-cor-branco-luz-branco/p/MLB47309624#polycard_client=search-desktop&amp;search_layout=grid&amp;position=21&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4300796571&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Fone de ouvido Xiaomi Redmi Buds 6 active bluetooth 5.4 cor preto</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_899460-MLA95640142802_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-xiaomi-redmi-buds-6-active-bluetooth-54-cor-preto/p/MLB38921521#polycard_client=search-desktop&amp;search_layout=grid&amp;position=48&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB5777003646&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Xiaomi Redmi Buds 6 Active Bluetooth 5.4 Azul Cor Azul-celeste Luz Azul-celeste</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_895113-MLA95647509540_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-xiaomi-redmi-buds-6-active-bluetooth-54-azul-cor-azul-celeste-luz-azul-celeste/p/MLB39239922#polycard_client=search-desktop&amp;search_layout=grid&amp;position=36&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4091905231&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Xiaomi Redmi Buds 6 Active Bluetooth 5.4 Azul Cor Azul-celeste Luz Azul-celeste</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_895113-MLA95647509540_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-xiaomi-redmi-buds-6-active-bluetooth-54-azul-cor-azul-celeste-luz-azul-celeste/p/MLB39239922#polycard_client=search-desktop&amp;search_layout=grid&amp;position=36&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4091905231&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Xiaomi Redmi Buds 6 Active Bluetooth 5.4 Azul Cor Azul-celeste Luz Azul-celeste</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_895113-MLA95647509540_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-xiaomi-redmi-buds-6-active-bluetooth-54-azul-cor-azul-celeste-luz-azul-celeste/p/MLB39239922#polycard_client=search-desktop&amp;search_layout=grid&amp;position=36&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4091905231&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Xiaomi Redmi Buds 6 Active Bluetooth 5.4 Azul Cor Azul-celeste Luz Azul-celeste</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_895113-MLA95647509540_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-xiaomi-redmi-buds-6-active-bluetooth-54-azul-cor-azul-celeste-luz-azul-celeste/p/MLB39239922#polycard_client=search-desktop&amp;search_layout=grid&amp;position=36&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4091905231&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Fone Bluetooth Lenovo Xt66pro Cor Preto</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_797840-MLA100029095229_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-bluetooth-lenovo-xt66pro-cor-preto/p/MLB51911155#polycard_client=search-desktop&amp;search_layout=grid&amp;position=40&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4409259109&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Fone Bluetooth Lenovo Xt66pro Cor Preto</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_797840-MLA100029095229_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-bluetooth-lenovo-xt66pro-cor-preto/p/MLB51911155#polycard_client=search-desktop&amp;search_layout=grid&amp;position=40&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4409259109&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Fone Bluetooth Lenovo Xt66pro Cor Preto</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_797840-MLA100029095229_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-bluetooth-lenovo-xt66pro-cor-preto/p/MLB51911155#polycard_client=search-desktop&amp;search_layout=grid&amp;position=40&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4409259109&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Fone Bluetooth Lenovo Xt66pro Cor Preto</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_797840-MLA100029095229_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-bluetooth-lenovo-xt66pro-cor-preto/p/MLB51911155#polycard_client=search-desktop&amp;search_layout=grid&amp;position=43&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4409259109&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Fone Sem Fio Redmi Buds 6 Active Cor Preto Luz Branco</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_722546-MLA96418880830_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-sem-fio-redmi-buds-6-active-cor-preto-luz-branco/p/MLB47307191#polycard_client=search-desktop&amp;search_layout=grid&amp;position=55&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB5736962992&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Fone Sem Fio Redmi Buds 6 Active Cor Preto Luz Branco</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_722546-MLA96418880830_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-sem-fio-redmi-buds-6-active-cor-preto-luz-branco/p/MLB47307191#polycard_client=search-desktop&amp;search_layout=grid&amp;position=55&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB5736962992&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Fone Sem Fio Redmi Buds 6 Active Cor Preto Luz Branco</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_722546-MLA96418880830_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-sem-fio-redmi-buds-6-active-cor-preto-luz-branco/p/MLB47307191#polycard_client=search-desktop&amp;search_layout=grid&amp;position=55&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB5736962992&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Fone Sem Fio Redmi Buds 6 Active Cor Preto Luz Branco</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_722546-MLA96418880830_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-sem-fio-redmi-buds-6-active-cor-preto-luz-branco/p/MLB47307191#polycard_client=search-desktop&amp;search_layout=grid&amp;position=55&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB5736962992&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Fone Bluetooth Tws Havit Tw929 Pro Branco</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_920823-MLA100012898171_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-bluetooth-tws-havit-tw929-pro-branco/p/MLB41030063#polycard_client=search-desktop&amp;search_layout=grid&amp;position=45&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB3861020755&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Fone Bluetooth Tws Havit Tw929 Pro Branco</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_920823-MLA100012898171_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-bluetooth-tws-havit-tw929-pro-branco/p/MLB41030063#polycard_client=search-desktop&amp;search_layout=grid&amp;position=45&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB3861020755&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Fone Bluetooth Tws Havit Tw929 Pro Branco</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_920823-MLA100012898171_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-bluetooth-tws-havit-tw929-pro-branco/p/MLB41030063#polycard_client=search-desktop&amp;search_layout=grid&amp;position=45&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB3861020755&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Fone Bluetooth Tws Havit Tw929 Pro Branco</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>136.4</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_920823-MLA100012898171_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-bluetooth-tws-havit-tw929-pro-branco/p/MLB41030063#polycard_client=search-desktop&amp;search_layout=grid&amp;position=45&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB3861020755&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Fone de ouvido over-ear gamer sem fio Onikuma Gamer K1-B K1 camouflage gray com luz azul</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_718603-MLA99982887117_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-over-ear-gamer-sem-fio-onikuma-gamer-k1-b-k1-camouflage-gray-com-luz-azul/p/MLB14705581#polycard_client=search-desktop&amp;search_layout=grid&amp;position=39&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB1436166450&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Fone de ouvido over-ear gamer sem fio Onikuma Gamer K1-B K1 camouflage gray com luz azul</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_718603-MLA99982887117_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-over-ear-gamer-sem-fio-onikuma-gamer-k1-b-k1-camouflage-gray-com-luz-azul/p/MLB14705581#polycard_client=search-desktop&amp;search_layout=grid&amp;position=39&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB1436166450&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Fone de ouvido over-ear gamer sem fio Onikuma Gamer K1-B K1 camouflage gray com luz azul</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_718603-MLA99982887117_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-over-ear-gamer-sem-fio-onikuma-gamer-k1-b-k1-camouflage-gray-com-luz-azul/p/MLB14705581#polycard_client=search-desktop&amp;search_layout=grid&amp;position=39&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB1436166450&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Fone de ouvido over-ear gamer sem fio Onikuma Gamer K1-B K1 camouflage gray com luz azul</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>139.5</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_718603-MLA99982887117_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-over-ear-gamer-sem-fio-onikuma-gamer-k1-b-k1-camouflage-gray-com-luz-azul/p/MLB14705581#polycard_client=search-desktop&amp;search_layout=grid&amp;position=39&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB1436166450&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Fones de ouvido esportivos Bluetooth sem fio 75h Enc Black Mertto</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_795323-MLA99516554836_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=Kl6cNyU8V56GOAL4uHQFyjGetsFKgsN48ZVeiq%2BlcUWBHQuBEJWP5amsKLyon1YONj7%2FKZuiuDllqCFLXZFWKaE3rrhySsQCudqUFwYlLVGPSjnaKwlwT83Yofa1N1zcYGAEL4fh%2F29ODKoy5b1Nb1SXYM4kDKJwCN2tDAVU8csk23Wksc3n8Lg236WVZ4J5Cr3ni7G%2Fu5NtMvTaGgmd%2BXXc7bS9R5JtmC0IZl07h8waX4tK%2BCzC31QG5chJNzbxgoozsscjGnO9dFyAGRH4HDhQ%2F9jD%2BlABSAX3aUtJpaUem8h8ieS64Z0z3UCCZoknL8WxfDZsfoC0Rjj2THzJkg41RurPKFUp053kpDyXDy1kPQysiro%2FGnnnjuKLg%2F7kO%2BE2wLzaPXvb5ABG67rOfEctIeBzxWz9cQyUAyDXPOx2%2FI97hY%2BOtDcPam5r3E9Fpxy4ypb58YqbYBNBRq4vKJFj4Z3kKauJGqMa0Rh7NEcbM5JizS1loawe7YbVJSEXKCGTwF1Sg2udt1DHuaXfUvqzyda%2Byg%2FCB69as5MhS3QvFhhZ6SjzhWSSQDyB1FIyuF5Rtjchd6M3ekvbCAowIO%2Fycd8R7pgjyRSeivePu4nfpN3sgu6ilZGY6pz%2BKRUvEWFgvfd6RiHpX9mj5I%2BR%2BOt9FYGgvybE%2BI3mfQnLeFIFwFDc2jD6W2S3K18nmPk85VBd%2B6sHP9hqyGFxgrfzTj%2FYYwEbeUX1g1gFRuL0oTgHXztdieZmrCa8BDU3xLdaxYGyS2%2Flh8UTlTJcNKr2PrX63Qen6GE90cfycDCe%2BKpzUfMR6DK4E6S3HnQuCDA2%2FiV9QvJoO3sO073jDkpi1K65hR8K1clhIwseI7iE58h%2FSH%2FOWtkM1sShkwPHzmxfOEtvdtFaEMKoPJoFgNkZtHB9Vvafj6u0aG2ek7MVBk2jRKpY%2BmKK7H4hcNiXxiPHdiKhfP9G3Vz1qQXBhhcKqkuM9EqUuQPNa35aDHLB8qYxow%3D%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB40983505&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=15&amp;type=pad&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4221085275&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Fones de ouvido esportivos Bluetooth sem fio 75h Enc Black Mertto</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_795323-MLA99516554836_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=DrXoH6dFqV74HT4cxE9L3LkTd9g2c9rh9Fu9k3eOsUwQfOp0iyyUYkZy8b3mZb4bEqv0pDvauTIjeGWMi7lCxynVbLXzov0Lf%2FCt5jQ0DR0SS%2FoBM6kAHWQhynh7%2BhsgCvrK5aaEfB7OFeZOFfJ3Ae3ag%2BV0cdNmoCcLskxxYohZykh3OIABc%2FOPPmFIeqiRcie85m0fV8LIWvJYcarpDD9Cix1qNldjSg%2BsLloMaBs8QVWFBNuVtUxhPQWC8VGdlph1EJ8MSbsM7h9VMAFuXfVCD0DkQ1cCejKFQ2%2FDzMnofrY3aDO0PhViH3I5ofIF5lFCSrz%2B2QI8A29omG3LfBqaN8FC%2BrMnOV81w4QmTvsk2QVVjLzcYHa2TpRvM5cxgsi1GQZqCKAoIqhSzrD0mXqrYQDQ0zQIZMDSsLpjuwEVHqCcv26ybsaWiggnFF8UkuGQhABZscH64hF4BgTQVtPgOQgqKntS%2FQ4xEdNx9hlaMuAafx6i78ymb4%2BLXR7TJ1MoavRdVxrCDBA3gI6ARKiMvofNDNSoEE3nezRSD4VZ5RCTzNtn8uN7S3%2F3t0pnUfNDJkemjgPlgr%2Fa1YL0Z6BfVmGp%2F0hRykeimHU4Cegn5yGU7Q%2B2pb39Y9cJii2Pphbkl2EDWu7h6BZoOcJY9WydgsUpxPg86yBgYmSLuaf6zamzvLJu7U1DquwefAEHRo%2BJNOuqptbm0Vx1H7gahi2euRPcrKVy73k%2FWHkV8NVo2ws548wOALab8v4AJTbTZtEoansaI7zUf73wMJwOUHI78mTeTONVs0yQ8tn1NsvQlUy0NIQlBtCKqwoTrdsKw7ORyLw89i2rUFWxWq2X16nlLw8JZv9vn0WoE7m50Mvyp9tqF2KJLqITozNjCc13Iwru8tfQvgV7eWGXO7OgEL9FHxG7fB3iA5%2FNudwm4hWV6PPEBjEW6ZzdF1ox6mU3taO9OuI4qGOAsmc3SgtQOjW4ClWPmBscXo7u4YTS5bvzhQ%3D%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB40983505&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=15&amp;type=pad&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4221085275&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Fones de ouvido esportivos Bluetooth sem fio 75h Enc Black Mertto</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_795323-MLA99516554836_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=Cm0zQWOv8iFqgaR60rUkdSYbeGNV1Kt5Ukcgd%2B2ZSr%2FJDGiKcbQz0Y6A3D%2FihCxuCov%2FLBl6HNeL%2FJOTBwzI%2BzGvTX7jzcl09EOUR0rlJga1rqB2SgVM%2FG3%2FLGTb5LuolyASowumyKKL3HzZdsC%2ByBrw0ka%2FJ5XX8JyUw7qX2S0GAWIDrbe3uwMSgFPXXg5cy9WteaC%2Bpjd9J%2BLA9rcw4YY5GyakSdmHBAWEuPGAHfoMuTkMtpjpBoqL3YwQ05Pq93KbhRv3qy86J307o23AbscZ65WGjP8zr2zJ2KfFA7ymWVdY6jeKi4v%2Fdt%2BDkVu3s0OLXriuvG%2Fr8uMuMzL1HODYJZPHBwbTNiKXZxEJOcHSONIDwcthTBe%2FAgOKrmEuURcFUAtYl0%2B5SfMq47fCZhj5tmLcwuI8CfacPjnP04ZE3UlnrvldcsANeyr86agX3MmC%2F4PkhC71LS56%2BW3xeKOb3wr5UfPJxxVn7axRkB46HYyoTD0NYOr%2F3Uz4AZjnhAUM7AlS1U6qYEYDic3urqyL5f5JkdIxNi8SWUldKoRN2YCCk3pth%2Fsw7wKqeVyPUp1VRj1U3HKz7J9ZGGhtlcp992IqIVvChOT9PY%2BnrDbeIRMZAvMwjyQY9W1mUaKFjFi6QfYK1hMkOtr69wEOOWX90EDnewvWYh6rlcdXCQGl8K2YERFpYtt0PgTsbyQvPLNAiFtEUqsej41PkKxCvR7aREiIiC959BghcvxroT%2FhGZX7YXUs5HQo8T53LsafriI7PCcg48cqVllL3QFZ2eXZNmxpKMr16L8AFr6brWO65gGQUsCdXR2lDfu%2FtvR9khpy2ae18xXptH5cwgWflptstnom3%2Fj0rBU4GNJH6BGIY%2BV5Wjty3AeUcur%2BG7tlF9229Snt67QAJEx9JmY9dRl3y51ECc%2FRcG3UjTBHk9GDIWfL3jsAbinvgMXDLK86OPu19j%2B4%2FFRdcyuJdQn17SHi2QmRf7QwK5tUrb6NoJsmbg%3D%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB40983505&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=15&amp;type=pad&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4221085275&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Fones de ouvido esportivos Bluetooth sem fio 75h Enc Black Mertto</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_795323-MLA99516554836_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=qEFk8hZ%2B22Av3gWnnN2hdWaho5v0WYn6vv23iJ6NTpJWmMhGJJt5mYg1eXAhxSBakvfp5ix4tgnNlyt7uUZ72HntU8ceR80XC%2ByUfVmy99RlC6RKcMIYSYR5JMzgWZn8vTTe5hlJgLi5JzQtA6foE%2FUflmbqoNpJ%2FBR53ovWbc71nGox5rcgPjSbCdRNFKfLevHIFYjn1nelyDGlD5m6%2BvKHyhF4xTqmkAv5sOoicoQzK0KFc9esjYMXn3rjoZvgoxUs2UxwH8zdQb9FD569cYz8zA9FhkuX2Ga%2Bp1OVd8m%2Fgv29OY%2B9Pz2eBROIHLF2urTeWymPfo16%2Fq7Vp30TiYGufu6WeaEKG%2Bp0%2FssupPcIzZEQiLIqiLDuS3gRqIOwYB5Xs8mUAJKvdm%2BCeyOeSOMYyGMoYgrojq6KUTcAKeg%2FncAErbS2n1eHfJGZukqEcZCQpQG0vevt8gq8UDYDkE9RcMNnY0sCO3fHHn9infu%2B4%2BHALe2nppXep%2B1C%2BPNQ%2B7RLZRcqLD7CJUocnhzfhIt5R2I1KWsEGnm3PahXb5UxUgeVXwYgBEw6glQgbLsgNcIvf8%2FMKAfYt%2FrRo25FfNSaJn%2FSrp7bWGru%2FMeguPqJdaGvZB3t28HOyAax%2BUgumMingd8iffnOi6cj4zEKEVhrrc1TZNsdABBPa6ffhEU7trcUs7bas6LmASYzXIuYOF0lFQXzIP7gtBiiZWTenCuId2lAKl2qb96zEapObsFunsURLR0EAipH1Q7MXv%2ByQAVAEg1Mu%2BS6fGhIw6703Dt%2BDpO7xKJ71x%2FvfZ4fq68uvH8oD%2F09OD%2FeHhbaGIGMyXKQNrMVtp2XrcQn5E8WE8NLcGokRRanBQSklYQvY%2F0h0fSH0yI%2BPMYdWSS1kXJNllTLEpGiypAbS2ssrx%2F9m5LfYTopNwcHvg690L8aKL1NB8buYjpmU%2FzIhvTKEjCvUqgHXb6lAzlrQOYBeTd4yVpqtRcu5Ao6mFsyz9y%2Fk06GvA%3D%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB40983505&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=15&amp;type=pad&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4221085275&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Bluetooth 6.0 Basike Ba-FON318 Cancelamento de Ruído IPX5 Preto</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_804242-MLA96692508373_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=ELPsvjM3ET3s8CiwHkjK1dPKMW19bRsuf2A4YJcso7fKwSilTyN2e46bvYiIS6W5oCuWCuWvjTAxS%2FtfZ5nG9oKwWHIAmPdxfpITYwINGGUO%2BmE73bYzcC0WRlF9aOdp7j3Q%2BKrKch0tEQsVbNtZ8WNToeXbUmbd3AvzI32ckAvleFWm6hOpKnsv5DUgnNRDYwzV0zFwL%2BQt3JyWuMGu7%2B4VAfHQNu0oTcdeLSlbRvaDT3R3g5ZZ4VP2MohICFx5fmm1%2F04dIysC1%2B7un0UmktxOVDK0Nd7MBPpLXzRMjUAAdyD5dkPM7lNrNXlZVXgJPaO6%2FR0oV0TlV0pqZnhnnLVPHaile8jee2aN7CYFcUbnpDnK9B5cnZG%2BBKS%2BfroG26QSki8Q8EgYEWM32eksCPaqAoTgsy%2F%2BrSV5%2BuvtuUdZJiA%2F%2FBUfU72cPrmAyGEr9xWsvBGUNVb9qL6Ph%2FbAB7agH2Rnl0HXYzv0UuubCbTraE4pk%2FSL08RiakTiuXWONjPicIOd7VTzi7iqmkhhVSAioFJpXvvpIbMJCylOzvItV3694uVThyFnUAzJho74UTaX374REIwEyaPQg%2BDssklNk%2B%2BVNz5eEoiYbPL42QhyuFbC5Krs4kvnNNbMsrPRzEADfftcrqKXKvoqJ6YsQwU2w5DZpPn3FTneLtG%2FYDAfBLIBtA1tyNbwSPRu1MgBfucK%2FSt22vt5bV9mQ8GMoubHegJrxwpN%2FMHSQj58b1OAdypj7aDEVfzQHik4havrpb9n9FfI0GU3SW5Up9SAVV6jNxhh71vNGbqCzWzaD9Tpl3P9qFEnIHg9u9N2jddwvev3Pi9rkjChWBIVKe8F41UTL48YsAvB7PTA%2BvQ%2Fd3BwtuXraMZDaxLfwm1pXnk41Yu66K3DlDlspmGU7Sjhfc7QDLhnkve7WiEGSCR9u03ToeKo7xDP4W5R1U9LfEYLa4d3z4I19KIx2c9G7ewhs8jDkDpD6YKf7d%2Bx%2BRCTcQF6uSTA8d1T8GqFB1Qs#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB60211859&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=16&amp;type=pad&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB5976081296&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Bluetooth 6.0 Basike Ba-FON318 Cancelamento de Ruído IPX5 Preto</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_804242-MLA96692508373_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=MZ%2BzpPchN%2FCKiyaXFVdd2bB2c51LePkbk58%2BejiqmimK09Li%2B1%2FpKLU24LykCrI8q2B7LlV4HZh%2BPC08oFGsp2vz2LBbwY1qoZePuFODDM0gn6dfygyHGx4yf56ECFahQTUr%2BjuMFDwy3VrUudPhLGZHv3InD%2BEYu4egZya2rYNARDY%2BWaKgYQqiG3vNRObJpRsm1%2FIgUj0J8RhvlV%2FdkMpVqPstdf4m1nGowDtrW6224UQxD0bQPMMQWKus1KzZJX%2BBaTkDZH9f2EJUBoqxKVyK61Vny6rw5KSBhmZqGSMpeMlJ%2BNCjLpiL1cWr801ruQ8Ue4lgEs%2Bs6lr443mmHPPaJj9btxSaQ9%2Fdlmqm9OttsHvctE6%2BaUfnMONMvHvg6lZqlLY9W0NZRJJbHvMiDjkVqZdiC1phYmiKkYmxr%2BMPeYDMd7L6mD629jZwLxisQguQ2VJuukrEQoqDnVupL4S30MrpunTskQIGwanw2AOW93VcfeK0G8h%2F1buURWB5lAw6Imb6%2FakDXlLLelYnIxkPYT8H6o9bc9OtVvC9aZGsYT5BL8tyIEFbBkngEHI6VmK1h3aN%2F7t3%2FwCng49Y14y%2BbcKuaaDhYT97rHu1%2BYlEJyge06Tv4w3Ebv%2B%2Bt4mDqWk6sB%2BeuZmBRbeAL0JRbFEV%2FXBWY1k4x67dEztR31b%2FgYpvn9Q%2Bip6JZ0gMrI1sFMaT95BhtXdryTp6IetzsZqmS5Xs0DznVpgpuXTEH72K4rVfhy5FgoS%2BfaIsTJdivRPguP%2FzLyIDOz%2FL0fhzlSXIPgWuJlBOGu%2BN%2B29UUwgmBpxmR4EdVQisSe%2F7BzrqlRfSnq6iAT%2Bu%2BL6HnEeOV%2Fn5hGCEDwGaKy2yFZS4kc%2B8l0M7g1PGbrBovFFvMRp8%2F1Q08QNTSwQUxYZCYX0%2BmmH30tCgUwCy%2BsirRQW0pzmJxLQFntCsI1X84sSzjpjFiyawDp1bstEc7MT8IET4aR27PAzt38aEC285cfQ1yukV75WflkrjJjvuY65N#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB60211859&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=16&amp;type=pad&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB5976081296&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Bluetooth 6.0 Basike Ba-FON318 Cancelamento de Ruído IPX5 Preto</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_804242-MLA96692508373_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=nBvUble0kiIRPzkjxCIOmcJJkBx3cwt397Gm6ogK7Dqd5vUTArmU8FkcWRDZ15BLCdF2R%2FXpVh%2F0ZUWJ9WyQGqwSwx%2FzLbIaiboSltUtCiD0yHPBm7MgQ5tpZpDJD5eL8Sh6sq1Iq7eXzaC1%2FwmfkNtSnE0W%2FU5pynt%2BafDJbU2KXuwuwz9%2BTR9PcsKDbIlQ881tOnntvVN7XIrqLyPZwKU9bsnrQyL6Om0zEsz1%2BXDN46Fmqf%2FV6tjaFx%2FNNaDOh3pRf7R7V8D0tuERJtXh4HpzQeqhb6GUjcpDdw9z65QYTDjA8LIg8Hnya6nxfxrOhAH8ookcfRLVKhFwd4ZFv0%2B6QyXS2h7HSm6hm1fUtdI29BwLAPUejEyYHUrqrS9yB83z3kZ3nNfbLOH7%2FWC2DNsswcn1hjboZgGWOjb5ZsRF3TzdmbonTs2RYGb2%2BlvEQdMXXHOoPnKyofof3NhXzRq6cZz2BYWE1mB7NkMi59qCiqVLWis6EXR6mLDRnU19zibE3ZsFZrz%2FMYWypMTKcYRxY7ZIT3Aa%2FfR2aZSIx3LgwPsquRjckzzzvVgry7U7oSIPhXeyV9TzjgZgxhcPQIgESU0iqt3NNwspTaAIWfmqUKrPYHo4nBbvjVDhuosUyAvcitbvz80vmQ8EQkE3OuAm2mguO4inoC7a6Gt5CVaU%2F%2FQUDhpGwCIUH4LWhO7rQA96Ya4zuaqoz1OGXEZh6BljZXC6YjCXx6Jmmw2nggykJDDhNjN6FPEleSrQT7PUtQTsh%2B3Kgkfpg8nqNRXLTOojBatnmR6y5KJ0tBKsCbpTXOTZ%2BBAAvNq9PEQhuPfaO9aChmfnIENVjmfsGVSlWF5xJFXKlBESFAzjR9BJXiJ%2FT5WUYiwiyRR%2BdGh4PaqNcqra4ad2eHsAoJvL%2FBTUA4zuOQ4pzBamb8c9eKPwiu83GCaMfhVFiuJ%2BFZWqBt4MEUtk2EbMybPaPgFIASBpQ3otbOvrGP4xGqoNUKlz8v06gtxJjUMXQE%2BaHFf%2FUN4%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB60211859&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=16&amp;type=pad&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB5976081296&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Bluetooth 6.0 Basike Ba-FON318 Cancelamento de Ruído IPX5 Preto</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_804242-MLA96692508373_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=cUcDzjFO3PB%2FVsHPReHxygZx5NRDRIl3LHvVc6OqQGHGgef0SA%2FhXGNs1M6cAXsEqsz7vKSd8qd3TLrQSF2lSOPjmQA%2FhngdZY%2Fu0PY5lYWwqhIIrDf%2F3LmMXt0c%2F3684eC0jFpzo9y8nX9jJ7a2i6oSQZjucJjI3rhfABItH%2FaHl5%2FmHQQbtJa7q7O%2BMLiK1dve8q4DTIuNQXuHRhyFoiR2aK0HgEb1VzP5A3i%2BS%2FUNN7P1esMTw8lATOxq87BKHAqfdKwu3MRhDfbR4cMfI3zOBjZWYA0Tchqt89dhUDFeg4galgYgaVq5qAkq9H580Qmw1iLGfRpqzXO5lBuOZra%2BXLhsvs0em1jiqQ9zdkj2pT7V2%2Fkk7S3DsoneCY%2BwqS0dKkBwQSyTGtYC%2Bvli4CPvgg9B82wdljjeMsRRxCOIrqOC6hER5ehat6Ia%2Bzs%2F%2FY17edHSeUIpOC5478xi0SAsGID02oggbd6JQivkT1mILtAJd7fNDIFJvz2wlWY3o7YfzpdGVG4gVI%2BPaCYam53NCwi7XOwpMSTLxKCJyTzFY9xeiIBJVeJ8egxIGAqblcwmWSqjGNi5UCclMgzHIRg7Bx5X3N7m%2Byzgi2VQ7QsJjpFCWg%2F9n7uZ8UFWKKPEsxcS4rhCDkdVYqLaAFs8BeN8k7S34mj%2BrajnA%2FWiJkhHX3qupg3vuLzED7wyOLDQ4iIuOMGR8YwYx9ISJTbF1bM6%2FbyjlywHiek5xP3py4lC4J1CGRo91d6pIQSRp5AqtMEXN2NTantuvFrwQu5%2F5iP%2Fbnsp8Okg15XyKIDITShZW7wFPB2T7OvQ8Kdmzqs48EoAWPcsdqWOIGd%2F9jMxpSg3TtRCsrScAVixmqSOgAgXym%2BDKvtse4Zp8VzTInvXPxhWGKLLzx1iZDI%2Ba2Y8EbX9eSuSV7fXzeZ%2Bk4Vd6UYVtnR7P67PTSfWNJ0DCu2I2eghucNIwSGRUOK%2FwOzEFwiZIIkF2gZ6CabiIjBdQ8BGnq%2BoYBkmauPaGM6EkA%3D%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB60211859&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=16&amp;type=pad&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB5976081296&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Headset Bluetooth Redução De Ruído Do Anc Hifi Com Microfone Cor Rosa</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_745941-MLA99462530008_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=Zin1PgoJ%2B%2BH35cbGO%2Bv0rKuBskcZvIk94oQKZfoxENzI5DJojPZ%2Bf4vlygTBxKrYIzOo7dWedPdIdXrStQJHslUlQQgQcDu8FCPRmfLcmt7BDvntI74JWlAIctWhOUWMMURCOhe4RIVJQV6ioX%2BxkLeHGTg3x2IWVVc9f0YclBqDAAxhiX7quQ8Jpt5oBnpZySJvQ55KyAAekO3vZWk%2BLUOe5DlS5HIaPjIPbZDdZ60rNfOLoHuQKjb6PX7oC4qfTSbjbfz9qI1dZlhcaotgzL4p9vFP1GNuXfmpuz9nptqGNEN%2Buqc3sgrlZpl3As9AXGrDQKUs64BaifnHOLIp%2BooJiwPCqGv9Cjr2Ibc8PvRvZDuiGiOQh%2BaH00HHXoeL64O1j30wbjtdsm3e0WPEHNNU3P5qStetVoAzMERQ9feAxmvA2lCyrAblKTol94NIqA54p%2FIqYawfTUyN2%2Bi2LGjggVAShz2kRIM91hHBFQvrhuN2AphU1R3ENU6pCepizuRzVuf3gsKwwz3DNE2FdxzG6lRqjuj8Dp3bszbItUTpgx72QQPNEM5qos2ZO7jRr2peRV3hYLFQK%2FwxbEMlvvqW1ABuF%2Fa%2FMOrzaMUUJiU1Ji4zNPOYfw6x0JKr7lOf4sJg4jTT6F4Lj7izCHr0qKzkVyuSB4IOzHiess8gXdxiLz0ALa9cD4x2DJ7yOP3dL3zoniYYMozs%2F4%2FgPyAVHG3TxmJyAcoaIsW5S4Ap%2BVcHOUXx9J1fGkhJ3zBT3cAFFGOGAkiDTe%2F8nx8IdFy33x1c5mGGX%2FfqL%2FOwmw0GhFbkhsFkTd2hkWT6eQi5Zx%2By9XVbDiFSi%2B4vA0ZMBVvuf7J8r7xSn2g5DvMY6jKB753E36QhZhLXknGrgIWiF5NvzJSm6LOxxOJz4oJjrYf8NAYzu%2BXO6bYzMtg1KJ76NBbkPjJiIabR1wFfJ82nYBqN0uoJw%2FzvDF7z1tlu7qQz0bnv7v%2F1I1uYKTKNJw4HPkz6hkvoH3Y%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB41422839&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=14&amp;type=pad&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB5329429454&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Headset Bluetooth Redução De Ruído Do Anc Hifi Com Microfone Cor Rosa</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_745941-MLA99462530008_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=B1pHLAdJdHw%2Foj6dBMNcNQHurk0QPi00OZbfCPF4LRdMQLbqStktpOrdSpGcXHCM2tNUHw%2BXChiCvzmCr7q%2FPX5FoOa2EUMmfua97%2BXw57TW7xwDANfMh9hM957H0CvJPnW9GzKwkB3cVYn7w0KWuTH%2B6bfZsEyfXCTcvVa2CY%2FjU8k48yvYSjcHie%2BZ9jqeB1jDOq99siX4ntCbKUngkUbZBgotVd31svnZJua0Arji99qlHXHWYk3wD08VMeDEIE1MfCyKLy82n8UpNT6CMfDZMeapDWP4fRECThaUwSU9CspgpkgT50dD9mD2tSoFgBOPgRDYHt52Ics61Rk2nimUP9QqgyW3vHwkjj3jvcT1qigPcwkx2v8YHguQACbcsquL9u0NU0cBsyDfx%2BQ%2FyuSEQNA%2F6oj9hUFJKzTvLiYu4dXhvrbGF87aIowCWeo8%2FabgfOCQx4yTalXA5H5EKW9ZQozzKH%2F%2Fm4EWxgeFqZ7JqWBvnD5Bq7%2B%2B5XdRqdR1ELmaoOiAHgO1VWRtl6cjl4XJKUdfeJm8xVKYrPbSpP2KYB55AmfnjIi9675wcqzcrCUbG0qpIet92XD%2BHypaInPgoIq8gvCfYnNoaOft95xwp3KOIlo0CxncvDA2tw22epgBLWSuKEF7OEC9WnnSiCTRuk4QGhBLiZ8cYUcvgQlrezSyMc0Yn%2BKPtTpC%2BrYbeIBAacsnCd%2FEg5nhviKqDQFBs1XQYJWHEBeynr4fPZvj%2FMSBwLdeKPHZB9GG0rUsK0KlzFjVcRzTObb8lO0MwtqCOYiIiYOVhWi%2B3G1JL3pYJob6onEwJlmTPWzCMPYsPPBVQctx1mBt8qPCZnhOvYOYiRaqJoQXnOyORtDmlBayqYBV7TBtTGYXAXYBiCo%2BlQxAOAw3mkTY5CCBoV%2FC80nWwAqwRnOrWVpuhVz0wCccd6PXxXownVfA%2BZXjR%2BKnaLeOpnlpMP%2FHX4jQjuE9BECUIbvg823MEw90rMXKinIs4AMCWQ%3D%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB41422839&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=14&amp;type=pad&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB5329429454&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Headset Bluetooth Redução De Ruído Do Anc Hifi Com Microfone Cor Rosa</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_745941-MLA99462530008_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=Bhm0krRmNK4HSjIlXe2wTN06UBq4EeOnR0bxfLzZWarVixlw44fMu5T40AYmr25PVALbaMpew5a72sbJt%2Fu%2FFdhgwXEwrLWR8Bp2LzCydI63PeiJEvKNpYht6OKufA7ZdyQS6DB6KooDrQaJ25N%2F9E55MbXmsFagVv5HVAyBZalIjeDZgMZLSDpzvAnOjlMyYXgtcETsCC8NsSCPfhVN%2BxIHL2yBOjKqzj9eVjZQe6g28j9U9mvVpvi7HqLRIOleApZBaZaU9dzOYRmaAwn6q4JhP%2B%2Bl%2FvNWixJhqHqZp6DT3n6CuJ9HGTwUM5pSm5bpyRwxuiMrh%2BdUufp2DNNIqZ7f9gJ4Bsug6ikkBa2Wd6qWBxv9xZ5nXP5br9T5eaqAO2qTn%2BXcm7Jac67Z62H3Kk19tgYwZKEVsexjiQ9Rfb%2FKgld7XRJfle8H6wj%2FoxPOwvixAbovYTY%2FBmITKiIS8GTh3FcpxDz3jTCMOtZvKsmZ7yR2qGimo7031PU7poeWP1jJQsfB1ZKEqEWPBCKjvl1eK6qbg43gzWHkqxkgwgBhPc6ENlb9T9C8t6iqW69E%2Br1Nx%2Fpm0AQAfwDVC4RpQfT1u2PFNlYeVU5mIff9ybSGXF65cd%2F%2F93cwioVdYH8vS8u4JU4eeIKRFDbkmnqJTxMMxnVzvDhk9%2Fwyo0BGcYTBGzi7kK9zIvZClTzeTxWEoS5O6Bs3QE7Ae0qQiFpOU5tFO011hL6S498orDnONmAzYXmsBUG0x%2BY6igZdq3qeVes4eTuLLO1OruqLa0pbcvIus6Q4v8RjMXnA0S%2Br2lmbBmtlPJwJNf2KkbwDmWkjG1FT4s6ttThXgVG20hSnd8ijvP3vn%2FtX1hwBIoliGqtG2tLMpAkD5wDr77a4hL1883xA%2BY9fd9zyfozwfZCktBDWlb0DBYafLMaY%2B93%2FYq83%2BDMcw4gumc2lDVaF%2FjRckRZkq3dUx9briK6SumnLYVsWy96aMVPy0OSsllTNJlCILWx4#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB41422839&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=14&amp;type=pad&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB5329429454&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Headset Bluetooth Redução De Ruído Do Anc Hifi Com Microfone Cor Rosa</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_745941-MLA99462530008_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=Ov3vAvG1lortt6PjlhmzE2ZXyanXSLspjHJjeJru%2Fa%2FnYOJkpoGEvenlLPDwRTK9D9%2F8KKiiB%2FXU%2FH5g2EnFP4sfbQjph6i%2BWwLy4G37tF7RrpQuUU36s3YVkL%2BXE9eVl6HNP0dO2ZWUrV%2Bq1vb%2BaItQWw90HtlR0Ryxqt%2FlkJUT793jENyoixwb0gB6hwoOBVjUPEmPO67iPTkpyeJZOVNvVTa7V98JwuAgTqusThgbT5MCEtfclV0vvezMrDNfncpqlfhr6NiKM3iIXMtElugB%2BDIHtxO%2FtxtaMXidVl1bEvWqPnJ3QyCCckkyuW0j9L16%2FBbTC%2FoXcr1hPGDtuaG9raWsOJEaGOaklBbb9UaXaDYnTJn2tLZHacECXBWIw7M84y6CFwO%2B2ZZ%2FSiTTHVJ7VdfpPkVcd9JowrTBmLkmorZspids5OIcf3m3%2FLMXw%2F%2BX5Y5skWqxD%2B%2BufeDn8ibyNQBYNiexeHHWYwk3eA89S5f5CDMPvqh7d7QIOfCEqIU6YQbXqR0sKz2FMY%2Fum1dYgc1W1l%2BCQGjSmCmexu884cR8bcjiegBhjQuIOoCaWP%2F26hEmXWrSB4AX36TDpUc7l%2FfKxq7IYQ7DwuLuIN5gGpnzxdJqUnzbz%2BcpRp6IhV22RohomXZUncpja%2FPOA0cyaQwz60hZrsZ5cwVNSkmOiIx14n8%2FMc0J4%2BuNLE8A12ZXMyqrm8DotNgWo1Wer8LUYWb8PDUH27tL%2FLL06MCc9NHY%2BPNUOZeFnpaCpWvLlL2AB1SqinTx5nzQP83k452w%2FA0LFmwDg3tPRbBMEnnYIH5%2B%2BLWvdkSK1haEegKf9KtJDmTn%2BlQRsw7GMzZ%2FSMdkBAA7bCC5bORnuXRLx5HQACl%2BSOq5SeYy4tm703mWxjN38k%2B%2FDGZqRWbbDSaJqt%2FtdMD09cgao3UUzhO4DGf4PweVC0RwWdJvlxWaBBGk9MNVzyof1lFYvluu%2BS1fjqKEJumE1ZWH9n%2BKoO65ROUSYSkL#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB41422839&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=14&amp;type=pad&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB5329429454&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Sem Fio HUAWEI FreeBuds SE 2 Até 40 Horas de Bateria Compacto e Confortável Até 3 Horas de Música com Uma Carga de 10 Minutos Azul</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_965328-MLA99423257268_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-sem-fio-huawei-freebuds-se-2-ate-40-horas-de-bateria-compacto-e-confortavel-ate-3-horas-de-musica-com-uma-carga-de-10-minutos-azul/p/MLB27171022#polycard_client=search-desktop&amp;search_layout=grid&amp;position=9&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4012184165&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Sem Fio HUAWEI FreeBuds SE 2 Até 40 Horas de Bateria Compacto e Confortável Até 3 Horas de Música com Uma Carga de 10 Minutos Azul</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_965328-MLA99423257268_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-sem-fio-huawei-freebuds-se-2-ate-40-horas-de-bateria-compacto-e-confortavel-ate-3-horas-de-musica-com-uma-carga-de-10-minutos-azul/p/MLB27171022#polycard_client=search-desktop&amp;search_layout=grid&amp;position=9&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4012184165&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Sem Fio HUAWEI FreeBuds SE 2 Até 40 Horas de Bateria Compacto e Confortável Até 3 Horas de Música com Uma Carga de 10 Minutos Azul</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_965328-MLA99423257268_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-sem-fio-huawei-freebuds-se-2-ate-40-horas-de-bateria-compacto-e-confortavel-ate-3-horas-de-musica-com-uma-carga-de-10-minutos-azul/p/MLB27171022#polycard_client=search-desktop&amp;search_layout=grid&amp;position=9&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4012184165&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Sem Fio HUAWEI FreeBuds SE 2 Até 40 Horas de Bateria Compacto e Confortável Até 3 Horas de Música com Uma Carga de 10 Minutos Azul</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_965328-MLA99423257268_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-sem-fio-huawei-freebuds-se-2-ate-40-horas-de-bateria-compacto-e-confortavel-ate-3-horas-de-musica-com-uma-carga-de-10-minutos-azul/p/MLB27171022#polycard_client=search-desktop&amp;search_layout=grid&amp;position=9&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4012184165&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Basike Fone De Ouvido Sem Fio Esportivo Bluetooth5.4 TWS, Corrida Gancho, à prova d'água, Com Gan, Tela LED Dupla, Suporta chamadas de voz, adequadas para Android e IOS, Cor Preto</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_785284-MLA99986240343_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=JyaSMg%2FIp%2FecoqtkI4twbQOPCbaTU95Eo0mK3XEKqBXmmw5vghAa%2FZuLWCkBnfe7vj79Cpo0%2F9jN9P2%2F1G9ITTt5Z40%2FS7GzAMfELmgfDjClIzZtvDosoh0mmJ19Fni1CYqvwIaUGY%2Bqqqw8sDhfqgByigScX1iwW55W7DDZSYQ%2Fb3h%2FRUGc0kDH2z%2BCL%2FUqYImbKt5MUdl94AW0MFN7FacPS6B%2BbIxVqRspIwBf14LNe02ZaOEdX0M6fUj7lqGNB2PX0cU8ddwuwCAJebl1WOwSjbZ3ZL80K9Vymk5lI4g%2FSVGZG1MIx6WbCIvN77zn43vwMJoYNPY2uZaKzoYvUEWzLpPtZGE17P7ebpLPmquYQfdDTAyIIUnf5MQvna4mbP2%2B5mBI76Yrsxj%2BZK70%2FtuxxmvHq7%2BhC2sNCiK0%2F4GhP7Nqx1l%2F73WJSe89Ydq0fqUWX%2BZ7Tcv0R6tkmq%2FnzCccNHwHLG58gAGt%2B0T5bw1b5HN57etAzIT%2FrOWqwvt8aPTGAlyRrdmocOruo%2FjTdgqYDmcYmkT09ERKTRNxKWgqJHDKzf60NGgzoWXiSEtY7MIeJyJyoBindLXWjSsyHDno8MrU4ttPiy1lKyhomBH2CjM5wa0gcx5VlUOjfee7KufY0hbfCcTvxUGu0EfQ8ufp8kMBXp%2FNLs2gVAApMR0y9VrZFlbRksefCjZtSSe5NpCm352yyXAVt8e6FdnVL24iARGhwHtUGFhsOQjxLcchTw%2Fkj6EUSQT76jSwdaxNRXMkKoffSANDnJH7uE6TnMyX0uFLqjju6psxfSM%2FLeUiqp8aBpwwCEm%2B9oVZdjyibxn9K8XBA5nw17WIk%2B%2BKkYgJu9nAi3FmReG%2FMrQjWJPQuaPTMHAKR7IYePmcrTCGn%2F1HXwcrvWbINWUGIf0BnFIuY9t9fsI7D9zUsCbM%2FjP%2F8CsbaHE%2FX8G3KMC1Kg10f9xJszadv7YJU%2FCA6%2BJ%2BYMlaAF3X%2Fg18zL1jPvEIX6r%2FXSBAw1AbiYr3E9qs5ob9ClDpW8HJZQ1r62xuqvf6bdIASBUOgr1fMM%2BO7asgtR5zFF1OusBni6Hro9MSpjZLHm%2FFjHGmBUL1a950YXrb3Xq%2Fggnt0GFDmSa6MtVstJ%2BAO%2FIsfjXC#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB45971942&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=26&amp;type=pad&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB3992781561&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Basike Fone De Ouvido Sem Fio Esportivo Bluetooth5.4 TWS, Corrida Gancho, à prova d'água, Com Gan, Tela LED Dupla, Suporta chamadas de voz, adequadas para Android e IOS, Cor Preto</t>
+        </is>
+      </c>
+      <c r="B159" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_785284-MLA99986240343_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=K2%2FG74D7Zyh5UlJoJmxBtBzkQYidFC16qCNlrhwbchRILOKy2BPmcRFuR6KnrE0k4p9%2F5eqi4C43ORPbZ%2B1yf9cOqgigPEBIGQmYq9TMW%2BtX0D3BENgtlGqUNeFk5GoAjwHcr95MJFOiZuIc62PzPD5Ap4ZNjYPv4TuH3vuBsMf8kgdJLfaPWOtoPRufXt52CCPYvGzpfOaVbE9Z7ObKJ%2BCKY7IwVuK9M3ng23ts1Gas2cJaOqg1eF%2FxLTbkeiYV7VBch3DdRgAYkFy9HMvdIk4OJNZCCHoQ%2BZL96HfcPVWNqQ7tlhseUy%2BmfOrpje09WnH2oQcz2BQoxk%2FISUFM0y5WuWBhNaIWj0qUJ9h1y7bTrfeg%2BsR5n5detmQw99SIbCrP%2FeHiHvf12ZKHz9L%2BV1q39s3mg5L2UvpAU2WeeZxK3OI1FkGBkmCqFqw1V7moQgPYO7NvcsVTHLOpFMpx0Em9H1jsbwA%2BgLoU1WoVE3SbkGG17W3o1xKY3F6g9Vk4YFFbVni5JUS1%2Bd%2BXorKWd%2FQx2mG3RKAJIGVpHhjSgH4wsOkBh%2FUasGHX1Y%2FJuVUxeLKvII1A1XI4fTPd7IiIRckLDF4jhTnkufJv6fpXSStPCKBU5IN1k7ir%2FTJXjPxZ5g54iw5%2FaaN5hovSlgv9oaJcYkZUKrYvzAF92s1eMv4kBmxFhcihm%2FeVFzi5xJU2vQ0KNbDCf6oAYe%2BtQV3UOBwfhxOE%2Fz4VLYjuCIB0RosLe72ZCezRxd7sZPU7FP1fVCTvodwDJuPP%2Bj7N63ehBDHmmAprxB3Hb8PNWCWjGWD9BKddkqQ7yIEOCah8K3a0or67ShCgSOygJXxhlkuISg%2Ft4Jh7utBvCSnPQ89x%2BwgSIQkB%2B7FRvmK6YJm6xAqilUjHjKex3red1wvYajRXvAl4xTtDbsw9%2Bw2gbswL7Vr27%2B4ss9CF9EPcp7dERnY8JoJpjUMTkc%2FsKVYybSBRh12SUYzvgRgMzuIosR0Fbs3w%2B7wQ2TmRB4hvQ57VagkqeGVW6fK8aMHtDn2QD6GpSQVyfbVQMy17KQy5UvHzVnK%2B4POAXsOpymh3yRTD2DphBooEyxGAW05WvA97MtOQCd5ibULAVqvFoXnyise6lb9%2FrVFGE9S4#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB45971942&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=26&amp;type=pad&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB3992781561&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Basike Fone De Ouvido Sem Fio Esportivo Bluetooth5.4 TWS, Corrida Gancho, à prova d'água, Com Gan, Tela LED Dupla, Suporta chamadas de voz, adequadas para Android e IOS, Cor Preto</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_785284-MLA99986240343_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=cMXLKbXtpqV0fGYSQBogoOM56NbJQUbv7YgEIzC6b5hpVhLjsWNC7%2B94AkqOQ6DWi%2FgAJXcjuHuXQe72PkkK7%2FJecLE%2BnIfdm26s39jZ%2B9z6yh9CjASaxrecpIgpMeQBB5LAxZ8MWW%2BnTLLs9%2BNc7RdSh1luuCVIJOqvPLn0IcvDRymohFI9O7ZHMrm1yFYEZVMaMcV2yg9XStKwU9K%2FoPvCUM%2BIpFnYeHPQSFQ8sIVPxDUMH1bfsaaZfE1eH20VJZqikfDGpXF7fhuN9ETSA7ATcPgQP7nvB5M%2F57dL04IVCf8AyC0FBKjEo2kKogF5tSW%2FfTqz56TLSDfUADz7j%2BfWzBiRt5XIjyAiUt0Hckg0nFsY1rBD3SylBXX%2F1CO1IFj2Dsb57s1QXsmBLvcPDRSSFgnm7PbO%2BjhawqjSU2mKZ4X2fjDbmDMJ8aeX92IzUM2%2BuAmhHn2kVQ89ZVNjLCWhVaShUK%2FdMq2R4FOfU9ObRKAXFt7%2BAz24UhEt1K9%2BCeML8lbA8ffffZVPO5IUORfLeaxvUyB%2FGLUXsWRDKPQLhLpdxacBhodNBD8r11H1%2B4RaLQyNWyoPKooYge%2BT4AKFWs8z%2FF8SfWGCBunShDN3tuGEo7LcsfEK62634BE4BOmpW6YgkELOAzEm0N5L1B86SGotDSNPzbjMOPIt%2F0nF1PrPAQpkxOqZOROcbkInGACzP%2FHmI5UO%2BCDdZ0QEQGYk518%2BH6gjF0TGMxlZsUj3MEMpEVUEKzHMCerA7bKC0KRr3b5HqTnRMJKNsFjvg1tCDLtUBjOAE%2BGMhCOKEwYh6jip5UWu7JApbWhgWRs6qQaVFEWatAaeVBJdYVMdGWioSmtCiqAsFo8MFxdNmYwhsbIPWchncVq9v7Ol%2BqDckmFS3KolccGTbgJNnQ8L0DM%2FDSLqvkaMR2sH3Y8qchIOFjGyoAX0CH1o6pabn%2F%2BgHaMMu%2B4VpYMHl8hoTEMlxK81OzjtDA3VWouA%2Baru4fve44Vg%2Fll8fyRUUjF%2FJlKzX7PbT2p0NnytR0ooO4cLixbsr956G2MVOSxt%2FCS7bJYt8PUUa8Kzku9JECvlvTyloXei%2FDKxbcQq7ITk6%2BsBdPUiF%2B0kcFBBs820nuLN1jsu%2BZYcqYeQ8Q%3D%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB45971942&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=26&amp;type=pad&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB3992781561&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Basike Fone De Ouvido Sem Fio Esportivo Bluetooth5.4 TWS, Corrida Gancho, à prova d'água, Com Gan, Tela LED Dupla, Suporta chamadas de voz, adequadas para Android e IOS, Cor Preto</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_785284-MLA99986240343_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=cl%2BuCwHTmzV6i%2BBeLMw5Mur9xMSCtjkeOSsTTtD62OTtRbQofh5kuREXsQOhBKSNEsT322JLOu650N13Fkil83Z1htmvOlM19%2Bs2etCf%2BQHcxRHvWET6BNRpXy%2FNpVNF1h3FgxrIKVgmTOIV8mJXSsFG6eQ9qCumMQoOMB7VXbaX0EWdBCbiS8ZibvrAk8yMqKMJA1ox29F8Qc7iyoCEg3pBUxLVFgQwiXjNipbnn2DDmQ9EOdO%2BfXjGhvklyiL%2B4nsRF7AYyoxU%2BAQm21dqkgIiXsy6nLTClGDp2mCe7VUKaOTj0jZQe4b%2BxMCIZNv3rahHy6PVotwE5Qz3SCKC%2BmrFrBWTHGQl83057Wu5Ihl7HHD55gLQk1S6PFn4jdUzIPueh0mIFEhfQbNyLftIQ%2BCTJ8xwqNr%2Fe7di86tayfLqRKIcms%2B6PtEyHH5KokGUalIOYxdBaXwcWF40jCkFp%2BN%2B2hCGku3lka8lmv6xZpNBDROqW%2BrVEXfc9MZ97wNKePdXDvPvDKa8BKJmN9EZxTvGxeHEkoB3soBOiNPOliFYNfe50Oc7qutyeR6Ij4Kg8KCjMIFYWxm4XBnrGcd%2BM4jils2PDkB4zmccBydLSZORftHXnJoN7hXBJ5jq4dKzDdby9F2hcYf4Wdc76Wjg%2BuSVZWiMPNoenb7tgfquDAG18AGJhrgAh3jVXcP6qNe9mZcK9MhbpdPJUOXaq80%2FzKi3qYjIxi8bX02QrRD1yT1S105tqaTMTOi4Sz%2FCBh6gkY0ZL%2B1wyDUNGLmNn%2BA0X5WcMFXBiV2gua9JqI%2FHttmuK7t5PNOp8Jl6pOdjB9gRCY2DZTuWcwT2OPR3VwH8XvaVhCedq2D0woFqiQEkO69wVo2%2B%2FJHwrhTBxmFRXMfXR9ELWAArfYsN01RhUAju32tu3Gr6WmswJqRdGE92TNV0u1hXC6tUoqJsUVaGv23DGgh0DoOQzetoLAdgjwrHyGrt7sO14YQe7EfZ3ieG4ec3wMULTO4Ik7AI6ketRkF8IWpelq3R4Jf6BQBkB%2BipJGLxkR4cfxUS3HyXAH75kdeaNQAfcdbyCoIX2AQsBvuxixW%2FKL51PA5%2F3yiOKPl57N6lePhJ6D4Y3ODB4AMZWL%2FZUqt%2Bg6ANWkg%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB45971942&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=26&amp;type=pad&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB3992781561&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Headset Bluetooth Redução De Ruído Do Anc Com Microfone Enc(Chamada Hd Bluetooth), Fone Bluetooth Gamer, Bateria 30 Horas, Hifi Chamadas Por Bluetooth, Cor Branco Basike Ba-FON113</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="n">
+        <v>163.93</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_615262-MLA95643567756_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=wqBea0MJIERxpd6T6dN2Nl8nSWyNCNupXJjUvvgIKJl13p5zWxmlYyGDwhp%2B%2BrPJpprzN8bXXtMqG8ihbmsoBGk5Jg93Dj7cQDDmLMbJyEGKi0rrpxFtvUohmebBPmyXm5KndfoWNXSQILgq%2FUCh3vV69EeMWivaM9wKpncpIqC%2FC7G4d6fsKFMJ4bpov%2Bf%2BF8IuIwocnd4Y5L8UFVPdztY5Ot8EjikVKBqqi3rCB8kSlLO1%2FjsXAyngWhQ2UzOs%2B3F1HYxZnT%2B3Xry4356dOadPEGNeWLMOPPgeGft0fWgHVyspr0tmBFOSr2vLmyjpGQK7OLSirc%2FxjovDwiqCsRkNIZuS0bUGePIUHWVGfhQhNRvxE1lEAt7%2Bgm1QG8gPVqyu6GTej64MQl9DyYHlQWe%2B30nGs2E7t7V4LtZgwL3YjuhewO%2Fgm4Uw7cfhqy02w75%2B3H58HUygW3n39MQ%2BOAZ4R1m12iI89%2BW47q2WLF3j6w528DK%2BG%2Fgn1zKh3F3uCny5i%2Bbukdiq0uNOAWm0%2BXw%2FiT0OnkFmEkJ88CANOEiX71dIBg4Ui9UkYHyzFGTWYieigJfZ%2FSMNl%2BNTZcDmeFIDkdQarUDIYLabrw3q93E%2BqkTqIAGXUXFwlHwzFaKMpurv9BeYc6RvC3GJrrKXGtAzI%2BNRG8fiQQN04Yot3td0RTqU5Y%2BtsgWemTHGGGZa9omRnykDRLkiZ8z4xO6ls7VroqP8FEt1WAqI7xaoWphWPGQYdFc0adOoc%2B1a3%2Fi6PCavSG0LxmCvD75gRdCstuObSUmsoZJMoSplSEcQN6f9ffgdrs%2BisGEknSDnChKGxoKA58VLIp4YTUXry8w6TVUy4m2Ko1Dl0LRLJgUGhnY8Rt7%2BvKRBkS221PY4yIipETaYQef804LPosFcMajaldEr%2BYOgO0BW4xCtlt2tXffbil%2BcfkKagHaOpO7hxIFKmSL4GCRX0lGwYMjFezGlc5ol4T9zqS2q5A3LAbD7F3%2B%2FSQKww0oNkQKwUXRJjKTDlPSs9RbIcl5p8x4LPwop0UFVy%2BUu1HXBbAjwPZVx7D5iJvb4%2FJONrOaxVO6Q7ey46KvV0uIU6OIZ7osRVt%2Bpkgbln0hvpMv4lw90gheGhbqx9BUjGKIbddaFLQ4%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB44975890&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=13&amp;type=pad&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4031028299&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Headset Bluetooth Redução De Ruído Do Anc Com Microfone Enc(Chamada Hd Bluetooth), Fone Bluetooth Gamer, Bateria 30 Horas, Hifi Chamadas Por Bluetooth, Cor Branco Basike Ba-FON113</t>
+        </is>
+      </c>
+      <c r="B163" s="2" t="n">
+        <v>163.93</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_615262-MLA95643567756_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=C1Tz9gR0j85eq8BkdHk3nieX9XJuqY%2FpVtLq%2FLCo8crfZEhB3o21ykl2i2y71a15Ix6Txkn5M3HXkZDWmijsrH%2FRUIPuf0YHuFskNozfEWsOCcKItTF931enXgud6m6aSd%2FMWSMZeODvST5p4%2BqdIvOn6VvjdzQcs2wXnRXIevNZfOYQkA4%2F3EiF4a54bIzn%2BKT%2FDCSKOKchq7b1wq%2BcDGE0w5IZtdDJ%2FfeYBV%2Fu9UDsZr4Z4RNPZirAnBuL%2BbLnL474u6T5US1UndIUYBjec7otgPJ0S2PWwbyAzhfhiJkYoX%2FVmo5QrBZcU9CR9avZZU4j2Eoc1S2fA0pBzO2ijRY21ZwQfLts7xKvWCb0o8bXOlvwLZ53YY0kJCpEFdsRBLFxAWDqsYhTLHZSh1sTuYoag3AXe0fjTA5XF5sejmFLU44k6oVmdd71RRxZ1zBFREzZQuLH4ty7DgS6gdEzZQ93WbWzvVpKoVKtOw0S23u46MTEuz%2FZJxyPdRB%2F7lxSU6fQCgs7fASDWE6YgeCDizazfa1mM7IJnO0ky%2BadW6YXy6qF403GR9yuPeDs1pcsrIPIMh7kvgJ1s5WIZ3Tt9XxUc5QpZdMf5sJp5qgz4EXcd4n9q5W1RmqjOMMUTMAXiefbGOGl38b4LbvzuQlOjxifN16hGSbzI7B3KFqd7kyKCCXBBL%2FmIUWpjYLm41YX7FrQtQxoTr1I%2B%2F0LXofaeL6cqHzBM2ThJ6hKEdmNyppNo2D%2BxSk0Z7x6O9bZA7CdahOGDEJiMHyWxmkDM4g4%2FXv%2BJQTwClGVYz1Eao0is6WRRe4hd0BuK%2FEmtl7ole8jpW7ktsF0TTrPyuQ5envk1C%2BkGZSvPEFbUnvz4fLmaz0E3mO9Swa8bArdh0qDy8VZp96MysCZZRo%2BUdnq0wGq8Cu8i3myhZ1zrOaixcBhQm9bNnyszl47kY6lqWz7EKm%2BHdJ5YSWayLoKj4aIEc%2FWef4ziQPRiYIpvkI2j%2FwoHRYGKy%2BnHfHUwYfWJnzTKZ4LOUkcW1ulY%2FX8%2FrSNXcskSgO6zPRwrRSnFNtD4Qvd4s3tNLilCtbDgLPpuvRmsJ1TDenfujFRki19QuQSfyARMp%2FcRKiqpn9pSqpyRpl04%2BbfSf77w6P8gULdNQw%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB44975890&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=13&amp;type=pad&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4031028299&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Headset Bluetooth Redução De Ruído Do Anc Com Microfone Enc(Chamada Hd Bluetooth), Fone Bluetooth Gamer, Bateria 30 Horas, Hifi Chamadas Por Bluetooth, Cor Branco Basike Ba-FON113</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="n">
+        <v>163.93</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_615262-MLA95643567756_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=FeuebVn9Di04r5dRDXQBiG%2BOAO1%2FOo9cOb3MAizw0duJ%2B%2FOUlM8JZpGlhZuSHPS9txsDv2jTNsVKM4xa0BPgnuUmp1pIhMfNjc9tHQvzXcfqVVyAdMBCu5QCpX%2BW4L35KlVqCH4E86fi01o1yMJ%2BU154Unu9vLF03t%2BKgyCFwgfWZcqWKMbjwydtMsoRbd%2FKNEzIrnsGUDaqJUvvwC2Xe5M%2FP3NpKdtzWNBtOQ959LKNzcYQQtuo0lFDer8g3WZlf69Xj0sllYOXaYWwoR3vtoQN9fNmZTCcWNk%2FB3zw97M7wthiOJG9ih2PaCYXfouX5h8t2oB8QAMkoDOpPHhQCHRHIbPKbQ%2FkP2P3lqog2cgCaJX10ut6%2F6nA76nK0NlKLPVmzcl%2FASdHp4sLagls81vRB0aqdt3I1K%2B2WuLifLCKOWxPJQOSSjx4D6nE6eMN%2BLalE1MfMKS1X9GI%2BiiySZ8G2%2Bf7jk5PDGe1I3hfS31tKDgl3udllzRMqjNB0Zwu6meXCq08UEPohjcfenj4KUFFLgAy%2B6orzxfKGtWmpRKIOmCrSR64b5aHJzpYWtKrj55KPuDFaAZ4jMocxfTpqn13AWkS3TepsKEA%2BF2xRUosF9fjHbK3MmcvwFRIkPvr8IMj3%2Fm8Nyu5tGzn5ARTdoeYNsv8NeQkygxrF48lwprDxOiVxMJBwA6hLpHtnY0DU39sjfVpgyX9WJRQ2SGBfTh2ppBaZz5BZ5ojGDevPVUrbR66d9IfExrv6Dgn%2FKRK7CKZX7GQ%2B21ksJR3EdI54QyGM004LMvItET80VN7uZsEaIDoSY7fUFqqDgNBDpZ2SWZN6vT4iyjUXY%2B9AaXgeHVhFlPdd4pOSiEmGqfhKwcaC2aXzvd6g6SKoFh1c7%2FIFFS9sTeKSzPKxBEpU5lHnsRgM02C9TLV%2FPIW%2FSwCZnlyHLD1Imxe0bxnEJSMBoWz2tHqqS8p3pEcqpbiGA9wCSiXuXxEYhXJJ0C%2F%2F%2BhACvMm4wJ3LB2nSNXu93IpMpOi0dHnU6EqALTly4P6FTeu9f0fqZhhPyuNNDwR8d5ZtIhrMnFaTzMbFTiDYzOlg9xDJJItP8%2ByBxbycadCpZuTKEizeFZpYeHWIEimjf2mwFXCYa6gBABB0C3E0yw%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB44975890&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=13&amp;type=pad&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4031028299&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Headset Bluetooth Redução De Ruído Do Anc Com Microfone Enc(Chamada Hd Bluetooth), Fone Bluetooth Gamer, Bateria 30 Horas, Hifi Chamadas Por Bluetooth, Cor Branco Basike Ba-FON113</t>
+        </is>
+      </c>
+      <c r="B165" s="2" t="n">
+        <v>163.93</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_615262-MLA95643567756_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=C17VZ%2B9gc46fXJvb8Wf%2BgNtpvwK8013W2EaJ4GTeXm1UjLtekeEnyULs395DdM2tn9ha7j580ZeEIhUww3diC1QM9LMZePKSuSYKqua6evldrGPa%2F%2Bojvwho04mafx1cqJM2gCf%2Frh3qU8NNUkayRiwUgt%2BiJweSXHZCpPLU6KlRZx8RyV%2B2cI97xEzy43ciMzUDQCLv%2F8UjeDX2BNkHwSKCe0S%2B5novUC%2FbXvd5CNnWzgcNvUE2igVzXDvNGIXPh9P3SoTFNwa%2BU35KVEuxWFYu8xYyO9l72VM8rrPCFvfGzz%2FdlMoKyuJbtk4W9380xo696l8JyTj0%2Bj3V4LXeRFSQmcEcjIYFtcju3PR3oi3xUPK9NGQkiC4OpwdKJ4z0%2Blgf%2FdR519gH%2FgcCoC6URdrR%2BfgQ7bsE2CUEcQZWLyBqGWILmjl0oxCziNg7t9KDTJgkd%2BwwAcgg26MNUo%2B97fDChvLiJEiOmkOHuSdlswdVS1QZ7LrksOgP7TQFPXxbbSU2UNaO%2BWDiZwk3xby%2BWR5I%2BfBFfCHk8B9G97Wpvk3mseA4wDpoHYiv2MM94X0OqHzH8jkvPNFS6kKbODNyGXVVWftgjeP%2FuesOTifozVRpO5m0pPgAGrn%2BbPJq6N6yl8TBuOyyXb5IV3z88RsUZEWuAj%2FtL%2BBj45dJui7qS1ikyAoCIucnnYKViB0TK4nXuFj%2FIBFd4GFxZrw6z%2F7cu5EzMAPi7i2FTU2p%2FInnsqnNvX%2Ft2h%2BP%2Bw3ia6kuqHjjryyx4RTaYhvGNQa6cmrYLNDtjCiiONj65c1q0AAZqjB6IdEiH8mmmX4sRJC19dc4Rs5RtFLWF%2BN%2Fsmxox21GpvD%2FMs1zXzanlJrX80l8GnhXmzrdOk9cGfcAedeCom5OexTEaEytazPuLAc1uTWmPV1DDr5ehG6xPiKvpHh4pN3exz9obt0ATRFId%2B4PTOZJoVD%2FMFXKk4IrJut16AZOv2Ops4Buq%2FpyeHZRuKWvYQC9aF%2By0vT0tKzOSxCuWEj9msN9Zv2qquJeoH44JwAwN6TzGW2eq%2BYkO9qMyG1jGxSaPMmJGDDOiO2w8xXm2KZg78SmK6pR3t2SODpLvR%2BWGF2wYjAA5AA6%2FWI4eQ2vwdElgs99wmrZtkkHACqw#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB44975890&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=13&amp;type=pad&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4031028299&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Headset Gamer Redragon Cragblade H541, Drivers De 53mm</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_855642-MLA95702587482_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/headset-gamer-redragon-cragblade-h541-drivers-de-53mm/p/MLB54396053#polycard_client=search-desktop&amp;search_layout=grid&amp;position=33&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4345657701&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Headset Gamer Redragon Cragblade H541, Drivers De 53mm</t>
+        </is>
+      </c>
+      <c r="B167" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_855642-MLA95702587482_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/headset-gamer-redragon-cragblade-h541-drivers-de-53mm/p/MLB54396053#polycard_client=search-desktop&amp;search_layout=grid&amp;position=33&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4345657701&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Headset Gamer Redragon Cragblade H541, Drivers De 53mm</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_855642-MLA95702587482_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/headset-gamer-redragon-cragblade-h541-drivers-de-53mm/p/MLB54396053#polycard_client=search-desktop&amp;search_layout=grid&amp;position=33&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4345657701&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Headset Gamer Redragon Cragblade H541, Drivers De 53mm</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_855642-MLA95702587482_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/headset-gamer-redragon-cragblade-h541-drivers-de-53mm/p/MLB54396053#polycard_client=search-desktop&amp;search_layout=grid&amp;position=33&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4345657701&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Soundcore by Anker P20i Graves Poderosos e Impactantes Bluetooth 5.3 30H de Reprodução Resistência à Água 2 Mics IA para Chamadas Claras Personalização de Som via App Cor Preto</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="n">
+        <v>166.19</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_730568-MLA99983575997_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=ujpFnFXnbE05f%2Bhgn4orshl%2BzHFy9xlaye3GKjTyF9V3RQeh9VJIUZ7ayRC%2FGVNuXHbeCkyj%2FLZ5I7MiTiNfB3NcEnRxNO7HG6eR7jpAS67%2BwkLkyzhsLNREmooJ6hdw47j%2FAG45XNyQwi4O86LEvqFUXwiQwtdiSzMNfeHDKlo%2BJIGFCCaJdzrqbnm98zt7p83Uj1pFeG1Bk7ZSEOMWnNinHv24vFtHgkENQvR56WZ83qSnvHcG0nTy1AcoUHr8JW%2BWaK0hesTtCx1rCIeVM9cW%2BIlFljlGRb%2FeORVpmQs%2FlBWgT%2F8mtT%2BSnGCV3Y6tuvuZ4TtvmBjVWHXhEzalkASzE%2BwA7d2ZmJnZm41WaU%2F8ivwCNZOmNmWWj0U%2BNryBHr8jfMIWcM%2FNAngQyWoPJ2kKvzQgDtdP%2Fxk%2B7UZfhAoDvaY5e%2Bjv%2FPqThI6zX90Kko8iBi4%2BjX8Tql21WXS2h5761VB4%2FOo4%2BwGT0wiUgzMZxsVnIECqLg48VM4mikwfMQyK9cTJp5cbadZ1tpqZ%2FD7ikqwQx2EYe54Y%2BV%2BOnnwpP5Athss7jivWeiojvPia1m8bs5Wzd8DMMotvaw9JZF79YsUvBbc9y8LGwOyW6uUkHoxzgu3NsOfJd8YUdoLvSqKL5Ic5UKIIx5xvt3cOnjKZQz31lUoLtJC7Co%2F22x7fKOPzg9PsbOTeUn04ZttR6gbzakW%2FALedIlA6nDfMF6BFcNk8Uo%2FRtrRFLITn8fOPruTjO7ySkxQwyBJ0JRXVyxx0J%2Fa6nqMT%2FMAYZCe8abqTf5CwDsZdn6hnwlFEqxaADB0fTgG2oIVwcOiVOKdHxNNRneC6U9lkz6nhjmdnvaFl3egZq5nZJ%2BPWCkxri3pbkMau9WEfjEIiU1noatyarlXwoIe5lY0Is2N1C5TvmMnCxD4Ix9jyBtezMoVLtKzrn8CYuk0%2BQ1SAWz02Elacy8saSqpVeIK23qjkmJ%2F0NmKzHR9npLe8enOPygHfBep%2Fipocdxw%2FzJag6drlj7mKpweeNatgpudAKXp3%2BjWKZYaD1%2FQGfqynLkcC2ceVMXJL%2Bpjbto2xLnaxVzF4KWLIARCSGxlpKSwkCt9LZ%2FzYBxEj5vC7zo7zbCwTOIE8FrAJRD5KOgAzj3LQUWzg5pS4%2B6bgQFTgzjsE#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB24028629&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=1&amp;type=pad&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB5410852112&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Soundcore P20i Bluetooth 5.3 Grave Potente Drivers 10mm 30h Bateria Carregamento Rápido App Personalização De Som Via App Ipx5 2 Mics Ia Para Chamadas Claras Case Compacto Cor Rosa</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="n">
+        <v>166.19</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_931124-MLA96133477503_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=eFTGYSxSdS6nH0PbR7xj4PssjqhBzhO5Pfb88eu%2BhDfLfkTfnIkqK3HmRWnW1Ach0ZWOFxTkeIccgEulOFHRTKC%2F8AYWz2ngIrAFL1XcOpTvJS6XAddMBmWq37GBQKfr3H4SOYzYfN2tnmLDFX%2FSZzUuFXKHUS6Q74cF4yjtojsnMG1fnB%2FQuEZyDhZjvres6PTnLqggYMP0WYy8Rxg3E7NCOnyA8fTCkZkCTkHV3f5B%2FBcxzyySE%2BCf2XocAi8lHEPn3Z9xQ704bahie6s8uZq9%2F9RMegPbq5GcIpJhWtn%2FOl8x%2F29t6QBKyhyEpV%2F3X6OzndvothbntGRsp%2BLqYUs1k6ujMhp398n6SZVAPeR2DxtMr%2FCfUJhGDRAobMZxMi%2FwWQJpHV3JTVM2tWj9fVd%2FQc6VYRAw0G9a3JPO6TN8Q3P2mUsHudX4N%2Bawq1hRQozWJCgD3dm6%2Fh1nGJgiCTToudwzQeM0056cL2NXO0zQgoc8xpsJ3i3rGB12jN%2FdQzfCGR4pnTjuckLLMrwtDwxD7aQY4F0tqQ%2B87QB%2FGH0q0G4r3LtTXqLDQBGqkFM40OL3b%2FNQeazuQmtIZLDcWDYXdJfCMNWxf2QXg1NzTjmbbDd%2B5wd%2BhUygsb1XSFLHh3pnv9wbDtIdodfN%2Fgf2EuK0AvbBuhab6PbB8YzSIKTwvlCEYJJvgbJfS6r28Sz5wuV1vsc67KcZovLMgDxb1rTV3PlODy580xIBipMdCZAizQw3V67vrtZ7DeSDjI6MhwhUKzD%2BYhoUuGm1w9RvaP1eJOId%2BSKsLXBYpTwo2oaWsPK%2FgJeqXCDg%2BzP8mq9wHUZOquIE3LlRwMl8NZFhOBTI99V%2BfpUeNwqMKrhvJ4AU24L3LnG9FNnA9i4yi7mE8Yj%2FwZPmeU5YjUITFf5jVDCsSEATI%2B%2FxxrZc%2Fo35KKGBIz8SeQw0FcRWpgXaVLkYDj7tpfnfLAjvu%2BFAThjaJQQ4Eee8QLHYRQZE47TATaNfgDk8oT3hPoS7f5aUt3gPQLOsEqUEj%2BqBGzk12OYhyh6A1S3%2F0Fe3lkmYNQTGKS2fkb78nPoBRyYdkj6gwI4ZApImTpgyoAsndNL5wX7GMQiq%2Fsk6Ps7fO3KvKljJ5aJogEfDXfRQGhG%2BQBeu0LvEiIaUQqn5HsLKYS3zuboO#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB50981260&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=2&amp;type=pad&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB5513227542&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Soundcore P20i Bluetooth 5.3 Grave Potente Drivers 10mm 30h Bateria Carregamento Rápido App Personalização De Som Via App IPX5 2 Mics IA para Chamadas Claras Case Compacto Cor Azul</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="n">
+        <v>166.19</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_709113-MLA99494499900_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=aDMWmfx9QoFMvlp51v52zH5QavUmlbWrgm9RT%2FTNuj1dugxwJGz8DxJTD%2FeKmpsB%2BQLJcRDehCQgD6DQ6ReQGwX1tNceF5CMje%2BASJ4eDLl0YfLxDLFtlBklNb2e7Eag6BhWuEqYmHkIai5PqcvckHPugyfe%2B2ZCq7WxuMRjUZl6UpKWQHZOd2ulvhkSqnaTsBdIiHoNi7CQT%2FYxTT2S0ZB51Pex%2FH9uddjfkMq%2BW2PhNDEC7bA%2F5Q5BXCT9jDlqmz7YMHJpcSPKx0ezD%2FNHWgnl3SEN2JNFptllP2A6AXt4SJ8ZwRPxqncA6X%2F59GWH3%2FYme%2BicaxTRPlmkC%2F%2BfLGVHRPYGB9F34Jwf11mQ1FsiCw%2FoclJP586wksM98GOrmQ2DUYQqZj3pVnmHLduB%2FFqDcZPXIcPEWOWc%2BXfwjMRTVBi5fTH%2B%2Beeg9IwVKoa7xeiczrVmd3NXhRhi%2Fva6gL3ncSyQ3IOJuJ%2Fq%2B7YRijhoig3dhfeONwZgY7FA79k%2B6ACeFVTC347a8E1HOp%2BjKvgkW%2FA4%2BXDliZzmSOAJHml3h%2FnkRSqEhNMRSp8qnGEMQMkWr7Cbab5PrZg%2BOv6vgqSzr58fwx%2F5a2mR%2BGDKfB6Fo9tyrsxfIY99VfL8dfYUZxsW4ZrmoABIzMe2b%2FmwhnlUCoEpEatQiYTCcBtVsWxTJmnYrfQEqo9xJkJtl86igkGdK60gNF%2FFqvZoceon4lnIRx%2FjR5d%2FamRQHDGLBYz11ZsIZDoGPruVMcjhpQtRv%2BNlw%2Fm8vPzrEAGz%2FpLOVObrPBUeeCppHHCcsYImwLIif%2BHgoyPE5EmWOuWxS5xQkGqOMDxIcbl4eUec8PdL%2BHevjgmc8QM92IotNshf5CptP%2BXCKa3ekufa0odEqkA8digU9eT%2FgFVsBP5%2FlFdqdM2FNStvaHU4HF%2FC%2B8pYICvVf9W79HQYty%2F844rT8dapkJrstpih9csQBIYmeIY81qg%2Bsy8KomhJH40OFNgV3odP9nMUjWmd1%2FJvvIhbPc9BLVxKptoBnpEs8lcCJMPSWGlA8Vbeji1izU1DYlEe0TjRDJyUmvdZmcZ%2F1u2FXUhGza2vy1Z3%2Bof%2BKw%2Flw5gzSW%2FPl7vJTlrbFmxk4zRryPqahZd89DqqR8x%2F%2BKip%2FOsVrTf9pPOlszj4Oillh8I%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB38302175&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=3&amp;type=pad&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB5410930110&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Soundcore by Anker P20i Graves Poderosos e Impactantes Bluetooth 5.3 30H de Reprodução Resistência à Água 2 Mics IA para Chamadas Claras Personalização de Som via App Cor Preto</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="n">
+        <v>166.19</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_730568-MLA99983575997_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-soundcore-by-anker-p20i-graves-poderosos-e-impactantes-bluetooth-53-30h-de-reproduco-resistncia-agua-2-mics-ia-para-chamadas-claras-personalizaco-de-som-via-app-cor-preto/p/MLB24028629#polycard_client=search-desktop&amp;search_layout=grid&amp;position=6&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB5410852112&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Soundcore by Anker P20i Graves Poderosos e Impactantes Bluetooth 5.3 30H de Reprodução Resistência à Água 2 Mics IA para Chamadas Claras Personalização de Som via App Cor Preto</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="n">
+        <v>166.19</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_730568-MLA99983575997_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=qxU0bDl3E1GSkBq8CB9R4JE8I3wXXqI9hgLy8X%2BkWipcGQuD9X277Ac6CE18oIYq%2Bj1tjpipLuxLjX8d1n78VJNYA9qbtAbY%2Fgm88DWfq5a%2FxXPM%2FAFfSUmkox8A5eO13k2bqJe9GlupOLiNx84YhCStjn8XtO3WTtdXTTzHxAJ1REWiLWXD5nX8%2F6BQs74YiRfQkcuOQFEFQtL9xy6fquhD%2B2E5piz0OnQLVuEFu7wI%2F86ffJArfba27wyFwej0X2ulw2p%2Ba31HibBsUEy5hZK%2Fz02PWiuvLISCBbCMnF3KKDrvxP7IylgYgAKafkQ4WX3jON4zHgvWAPDGNob%2F7oJ3T1mU1l21bw0QiDv%2BkLssM6vDH9Q7be37M4LgRLJDKMWFc%2BanQfkzS2IFmNfOzjxUBpRdznx2x%2FpooYhnvTjBJa7FSyCB1m0QfZBa5ge6NPegKLxdG%2FYaYG3TPjeIu5%2FPCuitVA3IwPB%2Br6Gr8Hfafa%2FbR6N7TwHPh%2FhZ3OeoOWD1boRWzzHSSYxfu83bziupAFPAC4%2B7HzHMLnYIM6E1FZUAJhtwHt1QtGTrdVOgsJksBoYzku79FBx653z%2FXD65Mz%2Bx%2B2Mc3eXlELrANAXayb5ymcq19ViLNQ2zct9Kh6%2F4ZJ%2FkXZ9dt1HPOAewT2B0QnpFSdMUhXeTJCZidtt7bbx5ecbgj0PcQcXhtfw%2FQycE74aVzWn58muJiO67jkZ%2FfNzY9WXsxFytPJW4T1Iv7Y5kCGvEi8YDWvV8Seq9778Yl5xgqUEbmIjZw2SJCB5OATYq0Bdb3GYVKNuEbQBDNKoz7bCN7RYrEdOEzXV5tYWMrwcAucpzCrjv5OU1cewUfKSXOu7E3OyRyTN7x8RiHJ8wJWCJRaKnk3I%2BfdmpTdqyJoMq84MoWI%2Bw5zFdbi72%2FIs6QEXb9ioi7v3ZSuGWJ%2BI9DwsRp3OFckv4m2GlyXBe7jPvnoUxAoQcr0R6dGtq9M%2FP5Maqn%2Fz86IzdjV%2F3KUI3DRcopzB2o4aJQX6cCYMIMVgLcy%2FWa2lpWh4t9DQf9vPKFJcpP16NC3JGcWSMtPYCugjweFhCbn4mFoJHWLKoZLoroKv8qeXA93pM%2BVsyIuvJ7pdPJF%2BPntPKhLYGGEEPSclfn%2FNDdMZmtpsAq99yCX1e05EE#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB24028629&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=1&amp;type=pad&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB5410852112&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Soundcore P20i Bluetooth 5.3 Grave Potente Drivers 10mm 30h Bateria Carregamento Rápido App Personalização De Som Via App Ipx5 2 Mics Ia Para Chamadas Claras Case Compacto Cor Rosa</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="n">
+        <v>166.19</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_931124-MLA96133477503_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=5bEOXoGW2vMATxF8p%2BmCHDCiUEdw3dYBQQe5Y1GQoOkF3F0Ns7JRuFq6i59%2FmYVi9V%2BkgEycy8lm6lF%2BhtJgjsxhKeyNJO7S12jNPZ2CKQitug%2FfAE4xo3vcZdtUTRVYMpQ4WCj4VETApHDHliNk13xvXOcJGxLVwys8DoX%2FVoxo1MjXjrh8CEo1rwZ2tG56TtSfnYOz2P%2FUMZDYGJ4qOqYBp3EXAgowDotGIwvXJ15MISxDDXfB54US7%2BWlU3U0tR2ROb2FOrE%2F29ZoQydI1ZVlTM0u6jeLOJKaNhYWDlLGmG8zTQk3iY9oz%2F3xt%2Bk0dOrYKERRsM%2B%2B1luFMEzheOJnTL4b39L94vC4oEu48RVndiKd52B0BVRGiu7kA53Xq9DHmTk6wsP7WsvZGIyHOSXq18SxrYaK8cvBkiQynPrZfaOKdj%2B2LHLWvwD5R%2BCD5ZlUwD36K%2FlD8SEHkBfw%2Bjz9Y7P476pYKcJHtjiJHJ%2BDGhCL94YGhSOumv9pAS8yAsyjHjZB7VXKCaUZiJvkjwj3FoZSnhMHLjjYAxwTaC6xWPy8gk5PE%2FmmiBH3V67k8GWKV9vS2jfTFgyabZFZ696mRA9mJg2HQeoPVX56VP5Ssav3ZKUCNZsLjw6L7vxWLaqoOxGeQGEOeSoZAsJLgJgc9LhOjS3DiUp%2Fp7jTkjJpaGOYCwsJKbEGlxIC0dh8N0XEDpNxSenbIoqUg%2Fjlv%2Fodp8izJ0s7MpbuBMdqhqzvOwLb8iSzV7v%2BiDNh3R0zt%2BtrRaZTVr7Et8mDntEeCOFBpmas0LcU6W5ubxWy8Q8cumiStjiNk6sogZOCOlQQAuEVivPGrak3tOlCMGK30dL3ZeEk%2BdzGO2MKM0dbfNjDW1%2FCHatIAq%2BCXxDwZH8OvbMby7WaZLO8y1nwXMK5NsN6Cu5E1aH652sdSzMkADYcLbDsdNtxEaAkUx8Zm3CwnqYsv0VzQVKLiRQI%2FudkRir%2FhgiPGMj2vSS138DMfAeTUpSKHdG%2F4eXSSKZcdm1P1dyG3cP8hTYYe8rOGXfs0Un1C4y8MJV9SXw0AQ%2FohhW0JLoVxpxuHJWkMrEfYntqbNRiyZCg8TaCA%2FTYUCJt%2F4aU7AkwUK9ayf9JO96PF4mjL1PkMqZ%2BWkN465eBBZu7Y5IlTjCPUm7bZJG4cHi1Pw%3D%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB50981260&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=2&amp;type=pad&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB5513227542&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Soundcore P20i Bluetooth 5.3 Grave Potente Drivers 10mm 30h Bateria Carregamento Rápido App Personalização De Som Via App IPX5 2 Mics IA para Chamadas Claras Case Compacto Cor Azul</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="n">
+        <v>166.19</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_709113-MLA99494499900_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=r6oQwSfwxUY1axLVbOjM3oHzRmUcsbcfF%2BlTyMdEhtyGDQp%2BpndKyY97cWvyn%2F1vGSUANPv%2B4W6KYNu0ljbsJCRDjIM4%2Bq6oqicLejhihGX5OFMA5mqxx3JLNI0wgL5%2BlkSgZu4U%2BK3pos8Dwt%2BPM%2B9fQgvKGai13wCvCWkCm%2B3wrbmA8l7%2BuY100ZCDezPTF80bSYwJhxBsveHa0S03hh9h0coBdNxFtC6Dn09dcpvga378ZgnxaQUxreDz%2BZ3CAnspnTRhfGJOqdX6bcTISdkN5vk%2FOSZUG51yMLAmzUCbnCBdrv1mD0gZr56bab7wXmI4%2FLjhCa0u2HYaaIP98etT9iZ%2FQYcL29%2BuQFYSOI8Dlkem0k4YVw8ZUnLv4m1NWVjxl4ybFnjP1zw8miEXXtKA0ZQDC5Si1Bru0H298Wj1cELrfTQmcn3UlQ2o7OZM2rI%2FzerEuFkR2rSrxXJd6d8hRkVvkBJiE1uFR5eVCSUV3mPLY1uTQxjmXls7qOeh2J92TkET8xVBNuVR5to4ltkDbLnoP6TlXuo0y4s8fN8xjy%2F1pn6Rjx4iuZkkPCuvEQbbB32QuA9fuTI6d2EBz%2FR%2FzwXCidte9L1b7To%2FbXGNHTAIb6fIDOGzMudKmpC51stHhe4MBz73W2UlLfgsGNUFUV6rggP8ZhGal%2BmY2%2BXaa%2FBCzIL4BuaDkIzgcVdLuwT3jQrpd%2Bu1H8vZluhRTcXOmDDlF7kPmvFnwTqP0a4OnCzFnzxPkf4NWkSsoneqpRxCKBEt18SEeXlWJwjwCiQZ6X51rLGl3n%2BB8eFqSYY7BCxDIXICbsXxX7DGu8%2B7nd%2FLb4EnwDe7ophc54js40qfgH6DOSTpIxIIcG%2FWQKpN%2BINReri%2BzvJo0KwsmZnCYBS4DisjJnB%2F7v1pZa56lqFJxnQ%2FRYA%2BtBnTm5%2B6uxgoPqC6h1MyiTH4ko846%2FTIaYgGAjh9ExtK89F0Ppmju0lWE0ekzZozevO39%2FYsUZ9P4XzKmLPhoabCDppYniedItrpkRaU0vQKqEfihS8Cc2B9SnNF9%2FO2cbkVixDh0BZF6nOrs%2BV9hVX2QrNF2Edr2%2F4H%2Fpf4z4KacVZkO2G34lLnk5xzQewCk0TYmiBpv%2FnPJA5jR8Esvs9jOAkBWmlMJvWGxjDsrkrYYS2GYvr6#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB38302175&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=3&amp;type=pad&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB5410930110&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Soundcore by Anker P20i Graves Poderosos e Impactantes Bluetooth 5.3 30H de Reprodução Resistência à Água 2 Mics IA para Chamadas Claras Personalização de Som via App Cor Preto</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="n">
+        <v>166.19</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_730568-MLA99983575997_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-soundcore-by-anker-p20i-graves-poderosos-e-impactantes-bluetooth-53-30h-de-reproduco-resistncia-agua-2-mics-ia-para-chamadas-claras-personalizaco-de-som-via-app-cor-preto/p/MLB24028629#polycard_client=search-desktop&amp;search_layout=grid&amp;position=6&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB5410852112&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Soundcore by Anker P20i Graves Poderosos e Impactantes Bluetooth 5.3 30H de Reprodução Resistência à Água 2 Mics IA para Chamadas Claras Personalização de Som via App Cor Preto</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="n">
+        <v>166.19</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_730568-MLA99983575997_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=ZPu%2BKyIo3giy0lBJD35oNJfT8VnJEcV%2BkiZ2uZ%2FI71ZxuCrOPV%2BvnNMKYYWNbEprLnzXV%2FLZv666QOJoPGVwVhH8vZAwIJK3VkFPT2UIT9K1P%2FIrcw8OwG42W4%2BHJv8CJVp%2BZp%2BDnktzv0d7yLbZeod%2FxmW3FjYmL8B5VfxS%2FAqimsGd47V0XpXTnNn5dUnAOO9SQ2wRDDzmguUgDiWEEdV5qtHX7LdQ0uMyk4rW2h6UI5muz%2Bfp%2Bm9GUfQOt6l%2BYwEsQzlKa5KK%2BZxzdRn2%2BnkG2eGz%2BvjNaYRZ275uFr8NULzPw%2B9o2BnUiRX5JcjLauqtR2%2FU5AWUw%2B%2FWwxR0Yt2MYmch5Ipq9eGkoVICgS6vvFfaQrkuE8KMhc%2B%2F35EDM4M0YzHifyY2JJiXG%2BSawZOQVQse0Au7IMDlXsUWZmNWK9LAtp4qlWEE6toC2CAWgqC%2BG%2B53o8dwWgxhMDBXUyjMq8cUU4RCj6xjBwh2wgN11A62nYva%2Fy5XzJ%2FDxh3nCsWygjMb7Bb1JIr%2BX71T6OrfWgqHRy5gXQkrcsXNONQOvZVqrsUELU5XaXN89pvChX8padMAu5PWEcD6Wb7I6KoNUNnulripZZbHqzWt66BCoBx36oPNV4KNDYLZDSOlttnWhHI4gs%2F034YFX6%2FOsHjHDSyeO4QDCQyknafn8bulIvSRwo3t65FpkAOPtx9YX5DjzxQAvL%2BmGVy4h2wtbhHVcsSx%2Fi66LkCYCrOi2ru3OztEJkSSuY2gFTTNaG03%2BnQN7tLywDJz3PA7oFBs0KDJJtwzXa4i74BLi1UI6pF0qBodYzzasKsQfh3AySwHceWrpKGhdtGN%2FQTC0zENxEsmX4CX3daCZxZQnm6bYSTEq845B2%2FxBntIXYpME%2FFQJVhfKhAjRFGJi4yRIe9w2Z%2F%2FksJGBlfITLdW0FUS3ffFm6v5Vz5Zh120cUovO6iW9pWAePiFBx5polRQGYBVP8pMLVHC0AXgWfKQxvuT0LPwnI0Fomlb%2BWGMf%2FBxRBZtogev1CMNlEwE2UcTMh2O7fXV6wm05xjQawWrTrMKljNADM2cJQ7uyOVF%2FcwH%2FIGJyfCjrH9O1a0oBUTYEUVr9deDYaj6d8uqRLBy%2FVaokvvMsqVyGxgnyzgbWMXGgciscvM6D4DEvQ%3D%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB24028629&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=1&amp;type=pad&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB5410852112&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Soundcore P20i Bluetooth 5.3 Grave Potente Drivers 10mm 30h Bateria Carregamento Rápido App Personalização De Som Via App Ipx5 2 Mics Ia Para Chamadas Claras Case Compacto Cor Rosa</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="n">
+        <v>166.19</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_931124-MLA96133477503_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=5UFyPWAOjJcdvl85la%2F%2B2MIc9XvWf5cDXC65iV%2BHiFfzbt3n5Nfh26%2B%2FnZBentrr8NAVGEJfa1mDthUfZcQhx89pfBsReHLJGyxpsumDBlniZ%2Fv7qIBZ9S63zm58QrXP6Pg87hrtutEV0UpnKi%2BOdLpIUlTsvcvMa0Wt0e%2Bs9cNyReLpkwpj1fq0%2BiUTPdzFmWa2wfuLvffQ92xIy54x4ks6rwESrsVyYfJVP1rw3H8zE1wh4IPOofWiHb1o0HRPivbdCeSBlWIG43CWWv0Zw8Pnq1kcQSQqaUnHdvdaZlHDdYwoF7ZnAssIfhEdLRby7DnR2op0QBpTnp33xjJjD2%2Ful7fp66qizFTfkXTDkKv3Gw4dOOkbUzvv1x1gRHUV%2FDWee%2Bue2iA49pb6bojPe0w3gzQYMueSbL6U98oSIMkIq7kYzuYTYWqGeV23ZWFzedKdijWL31IfOcMQ0dC8EPPfSbEiEqO0f4aS%2FTl2PexLLztSzi%2FamAtnXgNO5aie0qVuZeuqFeqYWPpK4KRkE7ZDP4i8cInVhMss5xoqNbFjThvHHEZy5FR%2FsKei%2B0WEol1w%2Fnj%2BnLbKvpxuxWIC0iGOr5Pyk3ezQzlXq1t4vdxLg6rZg6G5eCsHH1biLwSIyQgY%2FS0qWzHYu3pRzqcdb1aancSX5fjimp8emXFpYxEVv9yucqGH7Q%2FP45VC3j1z%2B4TSQZyWpzNxNykNjaWs%2BPAUtp0Y4XM9E5w6YsbeOHBu2bpR1YjAOVgIaRho8oSBMIpnKz63uyB7oYgE3HGY%2FNsrtV7eR%2F%2BAL4apIzKtPcyn7XEqeE8mJobiVB7XMhI0ygB44LMx6IdOTvsHJWz4y%2BM5mvJYOH84QUklOiumxsQRtXGFLU1L9zf%2FTasjHqDTwjbukXvjuhUWzhbrA8gqIC9GPPG1fmfaQOcOVgIj%2F5XYT%2Bev5qjPjUb00dIROFngFxgZq6aZ87WikYFWbFfdDB6WF9NTnsgCA14%2F5W5oJC1l0yTCVfYLNHpGENEBbkAEzq2OD5u6XbTWTtiDZMeU8852tPi6P8ezNoW%2B1G3eGiqaSihWCvQa4WYRxJCKCOMUSWCUrohNfQUodeIKVz%2FGB0%2BgR1a2hTvyjZJHIGJicuqMwB9IZzWo5EWeBv0mBT2RvZHU0%2BfwwO7Fr8eAC6mGCQ%3D%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB50981260&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=2&amp;type=pad&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB5513227542&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Soundcore P20i Bluetooth 5.3 Grave Potente Drivers 10mm 30h Bateria Carregamento Rápido App Personalização De Som Via App IPX5 2 Mics IA para Chamadas Claras Case Compacto Cor Azul</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="n">
+        <v>166.19</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_709113-MLA99494499900_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=EJcyL4jQWzQ6J3APaZuo23P8QUvvfrkEUIMioKBkSE18yf0I2yJsiskc21426KN3f8RW35rc2pil8wespLVoLX3CbMaxcgIfUKYVZqERSKk8Hfz7zA%2FwhHjkB8EOh7W9Jy3BZNhqTzHqrs3L0HYAYR%2Fkestv7kppoAYZcItGoUhAvha1i8vZomAPFEF2OUid5lfT%2FAVSGPBhM0OiqylNMadv%2FO0lugWv2nux94uxSAgo33lkEMiaiyfMPdvFkpDZyWwispRta%2FSzYbl6IWvM4r50kLDB0xRK7yL0f9un6%2Fllj8ivExTUPmeh%2BHWt4iZFdARg2WmeAmPy3tTHtqcal3MCxz7Pjn4Nrw5rK%2BWS66vWdzkBVtH7elHCcwLLuUCwUGPpoNVgn9PgJWfOuWX%2F%2BnY35j%2FnedZ%2Bz8g3Nm70WQIAEY1Z7HjpHhfFsFwOnz1TASsTBLk4ckeSEevLqM4oiRZNeWp4WZAQrc7ZK04mSbIJSr7eRNoxxhF3QrnAz9tRJs3zSU5hInQKjaMGmuWvxuTgYuQq4c1nnxfBEgvWdcTkvLAEMIeyU%2FdSIX%2B6mkXvt7YTgje3X3vtm0l4K13PXFUAWFn0sjN%2FuZtsQoNkjmgC5RDaHmbdrxUIjG%2BWm93HfW8%2B%2FmpHeEYsXE6MyFpMkS6NBFZ7RA5RxytymOZO2GbCxvSd0vyg4RhkgaeeRf04BhIzXXn8yb1JtEQUXhrn%2Fz0b%2F%2FiE8lY%2BesspLfogdxuScaJyCWnN%2BpYLqiJfVTMtq6Iiy2aL35PlNBW5XyYt9XfwiQL4JvEhPuWkGpE12EaoILHO6oUZHigZsg2wP8bRfLaI2PzL%2BxgFGOmUdePS8626I1lCb0f61NAF3GKCmUsRVfB03OsIJCw6a2AYqkBuPuuFO2MprM3%2FpCnpitfjKILGM4XcA%2Fxesze6%2FHRzc8NI0ra3B2c1OzPfa8Cgiz7Pd66fa%2FO2UnsISI5d%2FXhJog8s2ehWcJrIfFmw6iHnOoVUzjSDyRld9sm0v59BqFbn7ldskz0%2BQ45ymM9lfgj7K3yVK0yWgnO4NrztKA4LnhAbS4uCKykIfIVGJSaytFCOdXlgnlXYMLi553gogVK9KfKQSD2Y6CuPIjnoGeeiYwRlFVz1DAgqMG29RJau17x0sRnqGPR7TE4reb7QhJ2PSg%3D%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB38302175&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=3&amp;type=pad&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB5410930110&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Soundcore by Anker P20i Graves Poderosos e Impactantes Bluetooth 5.3 30H de Reprodução Resistência à Água 2 Mics IA para Chamadas Claras Personalização de Som via App Cor Preto</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="n">
+        <v>166.19</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_730568-MLA99983575997_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-soundcore-by-anker-p20i-graves-poderosos-e-impactantes-bluetooth-53-30h-de-reproduco-resistncia-agua-2-mics-ia-para-chamadas-claras-personalizaco-de-som-via-app-cor-preto/p/MLB24028629#polycard_client=search-desktop&amp;search_layout=grid&amp;position=6&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB5410852112&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Soundcore by Anker P20i Graves Poderosos e Impactantes Bluetooth 5.3 30H de Reprodução Resistência à Água 2 Mics IA para Chamadas Claras Personalização de Som via App Cor Preto</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="n">
+        <v>166.19</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_730568-MLA99983575997_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=Tn9HkZbKY8UjqBJFrbMYfoMmRqeT5ptQPiBEiQAHipY%2BXRqX773g7RNSK1SYpNRGBbD5i79vLrw%2BG2FxXh%2FpnjAGVD%2FLN8RsTzY7gbIJmEULP70SYArVkdVKHjgy7mQH56nyuisFMXMVfcn3CAh7B17ZMWzj%2FxbXcBtTg3vHscAiDj3rxYoeDBVa4I8ovtkYAL1jotNiglhPeji5qsQsRYYG%2Fhmp4mnl8sT6CFjDlYvn2b%2BJFPWhpvdSDw42oZiG4j3ATeHMuW4dvdwecqo9aq0iQpKadOTsPx2d5uzZAdHjmcqDJ1WfRXx8Jbs51KyuH5WnAM22OVElz8Bq2jrAJl3PO5qOSIGHS5ClCJhu8983qYIkJG8z6D1uOAW3LGOxZOao2b9poK3%2BZzrnSrgucI9zVsh2Wtks5i8qItiDfVk5E2lChUjteE8QPWmwzMh6QE3GFEvAH9IHY73JwPsR9E1nJ8cUQeYKPDMBwaETWC4gMip%2FZmnpMWU2fFei4hMUXdbJ8UXU4pQogXf7LsRX67nsOZH2NiOSKJm%2F6OxwOGAEkfKR8NxsMwKhYdIg5RMWoSaMznjr9FnKPK7HNpNO176C6g19SZWOBjWHwiyfCXpF1z9WX8Bs%2FVtFlDB%2BqjCD2nADOspvDTBIIIdi27MHb%2B1fV0xZIV6s58IWUfbASNRZGw84A6cFRwxHLwspAeaGzov55FtByLPi096ATRmPgaU1GXoRrqU34MTM8jESD2ZzKSrHwfL5tHLFm81pZW8iJLgkoouEs0uwMbgXSKFKsv14qCbnpttb74R4dsxOyOZVB04dkYY1LP4Qns69Vnn96e0M1VG0kDccHDqxUpMP5iUniyi3%2BW3yzWXGEaVltZcuNH8pxejKJ7fTMmGvjzBmW4wR4Ff%2FM1hwezz%2BEPZloz82tdUc4VtB17%2FwX%2FmxiI1vXJKLZLUOOi%2FL1Q316sPdNaqcZIVMb%2BhzXuaS2zL7BQHx4uwDkUeTdYtP4b9pDWOTRoDFwgX116VoUANC7aE2AdF6%2BNXT8zbtDhImE8saU501c6wpOPnaKH1KNzI6JrMyz7b3Q%2B%2FsL3G78sjtNXrGLU7G%2Bh%2F0mFhPnp7Ku3Q6IXHLGXZEbJuR%2BZSacwyadqtGG%2FX0VLHpqf4S4%2FL39OhA8DHf6iP6jA%3D%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB24028629&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=1&amp;type=pad&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB5410852112&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Soundcore P20i Bluetooth 5.3 Grave Potente Drivers 10mm 30h Bateria Carregamento Rápido App Personalização De Som Via App Ipx5 2 Mics Ia Para Chamadas Claras Case Compacto Cor Rosa</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="n">
+        <v>166.19</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_931124-MLA96133477503_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=7s66e6G8uuIEsWiRZ3OpvYQY6jTorjiv97yuX3e5E4KwOsRRvQvhD0WnivAbMReawaCP%2F1FTj9nZEDwosFCw8NoaUrmFFvGgT1sktxc6iMu7SgXTaYhoA3EODgL8%2Fw%2FemsXi1ddFjxj%2BuVGyxniRYuObBtbvQUcdAmjyknrrqmw97iApEiK%2FN9c2EWPbpTV%2BzI5HsJtlwG4QVEle96%2FNEolvSxhP8ObQeexC3aPkswhVtMxsq56drfFCO4WlnngDS6OKtCbgE2%2BRGq1i6meBMs4B6PUcMm2LP5mq6lyNhTccd1ZPdMaQpJMtxjhFUxQa48MpK3QOf6XdEIP41NMz0l0wDvTtIQ695jU1bCEy%2FVdACH6Dy07PEo3EHK8LenpGK0tgliGWjr4P1vwPrSm5XM1LCZqDQe1dCfF51apESZeA5vRuXO%2BzLPNxqRtMUbov4sBbJASZj40ipxwTZNMHgR15ggDq8qaAnufabTMaxYgZ1eceR5sf8XTUD6TUWCIO9gtsu2pXxFBKWDAv3v1CAO5EAn%2FomjrFfp2wZAVk49UPfSLtl275l8EDBCwV83QB6fs2j5QUl%2FCrUZbQCc%2FjDVwfzcxIgJECvJ5BGHqAvGUZ22bXlPZ58hw20bbuAp8RZH48RaRkLEEgiuIxjHTBijfpefFP5xVeluus61qoQ6GmNpMtpiS1FoVfZv70IxjFaQVuFsFEC%2BL%2BOkYH813a1FvdSaucCXNiWgXSHOdLpBvKzGibDe9hhNegnB1GjEEL9Cf5ROIJfco%2BtUeccXzAjL304GKQVsJBF1gdNUQifu8pbOHyyIkFL%2BFs%2BfDfUWU9fmtuMT%2Bw4BeZcYFW9a54w3ucffAl2wmXVcm3z6OMczNSRyVKlJ%2FjvWwnRplUfXPflBVJKYeVZSMC1aiMi2bV9uHwZMPehf3IEm6BtPfbAPJGRlbykF5UlE%2FH%2FpasKG%2BTvIPOirmu1JJyUIlV7c6R0%2B43h5thEQKiVSQ2D7IvN5IeFNQeQTfWdAtsnpqt9hi2SrHUfMj9lk9mkVwSKKZ1nW9xKLHZl3uX0wz9DI6OTa9LPAkXKK32I0C7QwCbOjea8PdmxDqrSPmXlX%2F7L0H6sI0Qi8bZhlYtF9W5LRMCqUgQ2sMbJkYmjuDbbjPrRrFrxaHNP0UzrduFl7mKdgXC5A%3D%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB50981260&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=2&amp;type=pad&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB5513227542&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Soundcore P20i Bluetooth 5.3 Grave Potente Drivers 10mm 30h Bateria Carregamento Rápido App Personalização De Som Via App IPX5 2 Mics IA para Chamadas Claras Case Compacto Cor Azul</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="n">
+        <v>166.19</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_709113-MLA99494499900_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=GFlkuH3GlfzEscJMcXLdAInF%2BxzXcF8haAYMi%2FMaEnPrV8r6yZykqTg6arp1eRLNPOUnj6tynwcr8%2B2FLTuj2YtUbqScZyaplQCmGGh%2BJjtSbKYtlEInFKXfkwu3BTqFPdMeQMrqaPE%2BM3U5hdHrL36Xldf199hn1rf0jPLS00ocVa5WFBKY7mZcnV5yQZ8CLCOHA7oeTV9I2I52bK%2Bh1V9nGVgvRMEfJ6pC%2BjAn1i%2BB%2Fak5b1gcnyyvF0Y53U0OY8ekkIv%2BfJjqdSf6OFHOzEa1QfNqJXB27p0jHXvTeXytM45vYvKHgxuXHFkHSLRAIGKP3U%2FwY%2FQawJd5TMmhkKiZE3QZBKAX4NSnAf5iy7dsXIpj32Z3X3M5S1M2yY0XQfRdUimONyi41kapQZJqWgW1gv7OcgDK4%2B%2FuIDMXAGdAESQiIy4UW%2BQH7xX18%2BAYz39fufXV7P1IuYGSct5L3lzRS86VajXedOl0jRSC64RACHLuEWcGw0C7wGDjLJYvFeN660ZQi8vaCTJnvHNtxZixl9T22xdbhBqsVaKLg977%2FaS90t45rTJ3e5FumBGcEtzjq5sJj%2Bo5OM3Aqky%2BrIexJ9fdR6Q9H3iJdRfqkLneGbFvbe9%2F8JzN7cIgY9ymfbYLmngPTloRfTUjC6UWUvPTY6R%2BHFt1Kv3J97bll3Z%2BLOuoxqZOZ7SjOVtbXl%2BDA48sXpCEhFUzmzt4mGN%2Fion1ETpHg6KX61lLwljVBoTY8GvDxYdrsI%2B00ID55Gv0B7pSGBUA95idH53ZYDNgMIri8t0prJWLZGc2C6erQvqYWKYi1i9aQdb%2FBWlivRabR5P8lqAQxGtYW9Um67g3pZZUl1DfmlTqRVtQ1mWBUZx%2BjhHYaKhlKw7KYmX5WJ1qzGn7BpTuUYd6X1%2FFCTjpHbxi9NtmeEpaM0%2FDIyEwLwHxPslPghIqrX8azC0ynWxbpqrXlJmYCk3IGaMw7BHN9%2F4SidNswnY5HsACCnVD4FgS%2BCfWSRhVa3sm4PGJ7apxYzYkQslyxqr7t5IoMWTOGJizs7Y2xc52x9tWfuXcYu9NWGAZVO9jnUWaB4cBBxo5AE%2B3wmufbgL1%2BbNjP91DuZamDJA4Hl8QLiCVTvmatvquQYivcjx%2FY9kLkpXSLzcUR9IqwF65hK6NQzUJNgfP3Q%3D%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB38302175&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=3&amp;type=pad&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB5410930110&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Soundcore by Anker P20i Graves Poderosos e Impactantes Bluetooth 5.3 30H de Reprodução Resistência à Água 2 Mics IA para Chamadas Claras Personalização de Som via App Cor Preto</t>
+        </is>
+      </c>
+      <c r="B185" s="2" t="n">
+        <v>166.19</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_730568-MLA99983575997_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-soundcore-by-anker-p20i-graves-poderosos-e-impactantes-bluetooth-53-30h-de-reproduco-resistncia-agua-2-mics-ia-para-chamadas-claras-personalizaco-de-som-via-app-cor-preto/p/MLB24028629#polycard_client=search-desktop&amp;search_layout=grid&amp;position=6&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB5410852112&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Headset Gamer Com Fio Quantum 100m2 Jbl JBLQTUM100M2BLK Com Mic - Preto</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="n">
+        <v>167.14</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_754284-MLA99867560181_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/headset-gamer-com-fio-quantum-100m2-jbl-jblqtum100m2blk-com-mic-preto/p/MLB42071368#polycard_client=search-desktop&amp;search_layout=grid&amp;position=60&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB5153724296&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Headset Gamer Com Fio Quantum 100m2 Jbl JBLQTUM100M2BLK Com Mic - Preto</t>
+        </is>
+      </c>
+      <c r="B187" s="2" t="n">
+        <v>167.14</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_754284-MLA99867560181_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/headset-gamer-com-fio-quantum-100m2-jbl-jblqtum100m2blk-com-mic-preto/p/MLB42071368#polycard_client=search-desktop&amp;search_layout=grid&amp;position=60&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB5153724296&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Headset Gamer Com Fio Quantum 100m2 Jbl JBLQTUM100M2BLK Com Mic - Preto</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="n">
+        <v>167.14</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_754284-MLA99867560181_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/headset-gamer-com-fio-quantum-100m2-jbl-jblqtum100m2blk-com-mic-preto/p/MLB42071368#polycard_client=search-desktop&amp;search_layout=grid&amp;position=60&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB5153724296&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Headset Gamer Com Fio Quantum 100m2 Jbl JBLQTUM100M2BLK Com Mic - Preto</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="n">
+        <v>167.14</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_754284-MLA99867560181_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/headset-gamer-com-fio-quantum-100m2-jbl-jblqtum100m2blk-com-mic-preto/p/MLB42071368#polycard_client=search-desktop&amp;search_layout=grid&amp;position=60&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB5153724296&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>HAVIT Fone de Ouvido Headset Gamer FUXI-H3 Quad-Mode (com fio e sem fio, Wireless 2,4GHz, Bluetooth, Cabo USB-C, Cabo Auxiliar 3.5mm). Surround, Baixa Latência - Preto</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="n">
+        <v>214.97</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_988399-MLA99956779167_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/havit-fone-de-ouvido-headset-gamer-fuxi-h3-quad-mode-com-fio-e-sem-fio-wireless-24ghz-bluetooth-cabo-usb-c-cabo-auxiliar-35mm-surround-baixa-latncia-preto/p/MLB27166077#polycard_client=search-desktop&amp;search_layout=grid&amp;position=19&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4289838193&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>HAVIT Fone de Ouvido Headset Gamer FUXI-H3 Quad-Mode (com fio e sem fio, Wireless 2,4GHz, Bluetooth, Cabo USB-C, Cabo Auxiliar 3.5mm). Surround, Baixa Latência - Preto</t>
+        </is>
+      </c>
+      <c r="B191" s="2" t="n">
+        <v>214.97</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_988399-MLA99956779167_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/havit-fone-de-ouvido-headset-gamer-fuxi-h3-quad-mode-com-fio-e-sem-fio-wireless-24ghz-bluetooth-cabo-usb-c-cabo-auxiliar-35mm-surround-baixa-latncia-preto/p/MLB27166077#polycard_client=search-desktop&amp;search_layout=grid&amp;position=19&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4289838193&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>HAVIT Fone de Ouvido Headset Gamer FUXI-H3 Quad-Mode (com fio e sem fio, Wireless 2,4GHz, Bluetooth, Cabo USB-C, Cabo Auxiliar 3.5mm). Surround, Baixa Latência - Preto</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="n">
+        <v>214.97</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_988399-MLA99956779167_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/havit-fone-de-ouvido-headset-gamer-fuxi-h3-quad-mode-com-fio-e-sem-fio-wireless-24ghz-bluetooth-cabo-usb-c-cabo-auxiliar-35mm-surround-baixa-latncia-preto/p/MLB27166077#polycard_client=search-desktop&amp;search_layout=grid&amp;position=19&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4289838193&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>HAVIT Fone de Ouvido Headset Gamer FUXI-H3 Quad-Mode (com fio e sem fio, Wireless 2,4GHz, Bluetooth, Cabo USB-C, Cabo Auxiliar 3.5mm). Surround, Baixa Latência - Preto</t>
+        </is>
+      </c>
+      <c r="B193" s="2" t="n">
+        <v>214.97</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_988399-MLA99956779167_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/havit-fone-de-ouvido-headset-gamer-fuxi-h3-quad-mode-com-fio-e-sem-fio-wireless-24ghz-bluetooth-cabo-usb-c-cabo-auxiliar-35mm-surround-baixa-latncia-preto/p/MLB27166077#polycard_client=search-desktop&amp;search_layout=grid&amp;position=19&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4289838193&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Bluetooth 5.3 multiponto Headphone com 2 mic Cor Cinza 60h bateria graves profundos áudio Hi‑Res 22 EQ e personalização conforto dobrável chamadas claras almofadas destacáveis Soundcore by Anker Q11i</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="n">
+        <v>238.9</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_945793-MLA99480417312_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=BtQ7NKEaFd2uYfeUG6pZTIuLhmC0ZJvU7eTQSiDG3A1vlAJMm3Q2tiANOpgjZGsUD9m8TsbWBmVp8kXgPp3Q0G7OQvYlQP5QESqpzDbFrGRMLQc34t2456jtTvorFbRtQKhE6eSjsR8B%2Fh5d8SKgw24FJMAr5yA64yzX6ctDjenjOup6%2B%2FBbHDTc20slKdwxv2Qiswcy9oYdCUFFVLwauv5TjK44h5anIG2QT60rf9ALmmEDGdOuVzBPHCzdJFNYNvvUdK4iZWFdo44cq7vVHvCT6ZE3YEOAS5K9%2BNRt%2B%2BFAl7CL5J8vipzJnUeYoVBIu6FktYwNujAY4b9vEd%2BnDORDKZNjI5gpmrEJrjUCDEef7zMmB7KcOEw14pEi%2FLJVFua39b00gQmWa0TCRKD2HXEhKA191mOqasxrE%2BBCpbTbs3A8Gm%2F%2ByCPt498acz0YvV5H%2FsqkDEEjenlatDWY%2FkLZBnPF8OAN%2FaRDxaGHzIGTsRt83%2FvZ5jiNNE%2FW%2BzhF9EAMrdWHW9z3fNw6TCYBC4qsi934NyTNCkc3%2FM8IaPXd45eR0exC0ebn1%2BTWMS0NSD1VwPQXawQNH8KbGR0eio9orxvQl6nxiJMEP9V5ugiAeArjf7KYVytTraWwubvRi7kgNtv%2BczPtItlsEFiALnxqZYYG%2Bd66FZMI2iN3yywqqUS4%2Fn8fdqRuCvERMf62fZ%2BGmjDRBe0ZnBKlxmQBJX8pa9D%2BWarwTw1m1hLIFd0aqY2qzjbFGFNQqFON6%2FVub%2FJlelq4MFg2usWFYEhgsH%2BF2djff%2FEFEyFnbpDQrpFn0Rh2y7%2BSrtM69jRf5LXytC2M%2FGvnHEtnmOzCw8xtKX9m2n9HOCDNPJr%2Bwx%2BsN4xK43Igthln65DQcczJIpwIW93pRmSiAr9ifO4VRnFX%2F%2BFRQsO3JTqiLqR0Br8EcO2vhnBgdSTgeP8cVOkNkEDNAL%2BsMqUAn7Vg%2BiSbQRFIgL2C0e9scxGLrm7CzrjpzjBifmyhkJyqAwScWjncHpaS09degA9YLkC0r2%2F4w5RF1S2eNVv5HNf6nIdguZILRaacvghQNQcFciq0CRUVCWwCiZjxkNtPy6LNULaY%2BuPm53q%2Ft%2Bp%2FxvcnxJglSWOSiu0%2BYc4r8KLBBMlQ08WcTK7jtUJTa%2BNi6mDiNESDrJPmuR7utYc%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB47293464&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=27&amp;type=pad&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB5515226606&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Bluetooth 5.3 multiponto Headphone com 2 mic Cor Cinza 60h bateria graves profundos áudio Hi‑Res 22 EQ e personalização conforto dobrável chamadas claras almofadas destacáveis Soundcore by Anker Q11i</t>
+        </is>
+      </c>
+      <c r="B195" s="2" t="n">
+        <v>238.9</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_945793-MLA99480417312_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=XTEh0i3elFWsemkiAov%2BvKtVs0iX0vfJ1REOmIHBVDeMfnKMEuhjKE3USfhrbXh835XuWmyVFD3fpNN0qgyLYl7g4FtzQQor5Th7Y%2BiLkkAPqzT4ibpG6LHOnQJYbk58zkx6hrv16QyoX1akXuwANUm5uQbJ22Vpu9xDpNXFSQfZdoAUsAqPeuEBhHJvOb%2BjiABKIj4MtxBxfQ1yL75%2BqWxpK%2Fx5%2FdETWXYTFTCQz9HSCkJ419A29KBQcjY67QcaXSXNuf1bdKFSdTRw35Lf8euNZnGvWv5iZTYZe5tietIrbVkne2Xf%2FIzRt4fBPAD4SH%2F3tgf0yUTKUYeznjq9eS6t6Gu3%2FEKZri1G3OQgGut69zeqfhLsi8bmR8Y%2B7PyQcC9kLcOqh078yIyo%2FlxCy0CRntoLsaMKdtSDdhIU16Ln9C5gtD2aor8idL%2BCII5CBYp5x5BiE95uBrqZfmuO5LjyUpLTVu9AAq8vgwl%2Fa2Emsc%2BGjW9QNOzu0vydJvoQ0rGVDcqpJDjcSHg5x%2FC6S7HvYj5ke56CwBkwAYiqKFcYBafFzhnKXf977rWjCr2Zo%2BozfjAbVDJ%2BQ8dasEBaVlHnkcmQCyDIdcQT9M%2BWMJikmDMvd1%2B5pkZXqtl99chMIyP%2FccmCjvekJWNIBDJZli1qJyL62Yn6t2NIRn1mHC%2FNtX0mrjGaPK4WsP59K3I9DwGHmFugU2y1f5ezFslw6Amm%2BqIGPM4rRVlXdhUvKZJGc8GeQXWnO%2FlMcfKHmDWorPVhJQeTEn4YZcUvHBNDlOJiITsSl%2Fvyxr4dVYUUudS8wM%2FdwHjddcDskjMnkS9IYkPB3bM6g5aTiNNpdxRs2nb6XDKlDkjFCTu8QXiHdNa9FcIERnGpJhduIwpkW0DAD1oxi5TymM0BT82QxNodkT6St1mZFNSOaI%2B7WFzTSh%2BV224aEGFBaKvmz3XWRq8v0QNucVMVEERQ56hsPoPX9LKbthtNwAh3EO5LseSQwogFeW%2FmNsA71YiGWxeqHY%2B7fkn7OJt84sJ%2BU1KyYthq89psMWznhoB6Z%2BxoioQfIBoZMa%2F7BKEQ9%2B4Sb1Vj2HSirYNTyNgFHjgIbTxWxhBxWiWoAEfnQ2vJwS2uPZYbO2m8o28TXk60ueM4n8h%2FuNf%2FUuH%2BMXqVknr3MC8OdL%2BQ6ReKV4UA#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB47293464&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=27&amp;type=pad&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB5515226606&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Bluetooth 5.3 multiponto Headphone com 2 mic Cor Cinza 60h bateria graves profundos áudio Hi‑Res 22 EQ e personalização conforto dobrável chamadas claras almofadas destacáveis Soundcore by Anker Q11i</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="n">
+        <v>238.9</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_945793-MLA99480417312_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=VH5x%2BLnfvoPwEAkW1jwTWgzX1%2FSzVh2PLAD6N81AYqEkcf8GQKMUiV90u9DOTEYmkZhiMvqB7b4EW68e%2BV1hVF%2BgZ17PQRIrBmJPde3tukLxngTui%2F53%2BFuya4JOdwEZxqmUe9ndobD4vGehAHuI1I9kwxsvWRKIko%2FTiuApPenVGjYjjzBWF9DFu8TxxmO%2Bv%2Fb5ox0m6zsuVZ18Ft%2BGeFe1g2vwce6zZ74zlF4LRts%2BfVTm%2FSPCFcTgC5%2F5ZeaDtjMWSEu8OQihZAwRvKz%2FDJuqjPcbgniIsAQV1pfr8ClKKFboJrCcnrtG%2BosAAQsDlSV4fTYAny5Y81LxVYR1O%2BVd1C6ZI%2BCb4pbP%2BVkEqP1HVyecy9IpOSidFeiA3p6kYbj3YcK7NFwrftK5dT%2F3EwPDmUomgl5b%2BxnrCtrrcIQOy%2BSOhWbk%2BxP9em3ThxiT2KUHKwbl9cnRB2ha%2FexP%2BijpoDbXOxS22%2FHlglalevSqsNa2USW%2BhPHHKP%2BL5iDAyPfkwVQMkAuEPSJrJUIEdMNxmxj4juaM9sOw9nVnVpSoDcBsDYcCINTvKXW%2BiyhA5bz63cRFQH1%2FVThNLIYuyfq9eIi9kavru6MKSu1G0MF1NakkYYyXapMw6Eq7uZlCymPC0uk1z4TG3Ig9jKZpIcnDQEpkn3kWoiNucm838A5KUjb1h%2FVZnmtHmXtO0OeyJN3Gh9DR24SDW9Irc5gigroT7VfadzbH5j4yZIbX5d658kZsFGdF2%2BSv869NGacxGtvcX40slHf3JIx%2FTpcbDsjM%2FcEnUSSuoAu64N1LKTO3j75gM9yXty4jD0%2Ff9CgQki5iKbb7nFirL%2BianKu7kx1JCDZ7mN9Y0A1ygmNdIqnghVzqa3j305K1913qS9Y9JR4V378H5us9UTHvGl14sP1IvNb4MirfNKHREXB51fbyAXsUHz71Jk54G2xnfaFu4daln3nbUYRTQO2uWyLB39NgTTA%2BKQ5XShMtcgd47I8FuhsWjvz%2BcV4NjXpPyhtkzCvYOfN0YdleQT8bK%2B5p3n9am%2B48tBGK7iv6aDSOqcejKv3qjHuf3bCEkvHizEhgUtRbiIQuRUKqDTwXEOMy7BoWM3DmuibEpC1%2Fd8ezTmIAWgy9wskKljsXMMb4PgqZseLZhu0nLTyVv%2FHfpWtbJC%2Btcvpc#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB47293464&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=27&amp;type=pad&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB5515226606&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Bluetooth 5.3 multiponto Headphone com 2 mic Cor Cinza 60h bateria graves profundos áudio Hi‑Res 22 EQ e personalização conforto dobrável chamadas claras almofadas destacáveis Soundcore by Anker Q11i</t>
+        </is>
+      </c>
+      <c r="B197" s="2" t="n">
+        <v>238.9</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_945793-MLA99480417312_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=0vBzuazx2EWGdFE26WMvptp%2BPuEOFfshtfb9GPNtbo8jVst3OlUVh%2BfQrmB5D7p08EQaiTzSkQzjJiHER4ZYXBXO9IToUMDBdFOnyjWeIHMfszY1%2F7saBRi5zxOAh7VxqN%2FtguB8YSgLVfQ73gU5MHo9btamCCpV4hLL27CSecRA61Q5jOmLOiQSieT149lvIhSoDMTD6PitNNH4AqE%2BtTSAJk%2F3heIThulAI13xgZTU0w7KJLDjoeY7XXZu1py6byxu5EQ5Tanm0BNDbwIwnTUSHeakEiUlyXUXTUjP1ayvyU%2FdkNbryoYFkyIfLmqwKZujsnJhP%2F9Wn7GbNDfgZ92mG4YdO9SXSXXMqpCnJPgwvMqYD%2B3TmN3nyWivWfyB3Qv4rmEnlnTiUoJ2HO2FkDBWZPApG8N9Od5HXjIymtE4T%2FT9Ew0Cd2GLE%2FyHvbEI%2BZhvF0PtpmXe%2B7NKHvr%2FzNp3Q0EyJ3CHMvqG%2BcO%2B0lYWmz6u6C7vNIlVWBwn744PT8uPNGuCEB1i6r29xIgC8K7WxZmSL8oEX9t6aXSuR2Q0LOb3d9WPdpaHwuIXajlVwWgh%2FWB1Mfzz5RAgBz%2FiDJ506gxQwvOTzMMRTAKfJqdVjkiSySiWIxZKxk1yBMkyUcUhFNiBqdDroOZSMryP8eYiR%2F%2FBrorKaqQc11vurScAKUMXlAUZxJ4PpMWxBS6Yk%2FqhX%2FEmmioU5Nh06XmmyLrkGttEfDT6M88cxM7vWF%2BwNNJ%2BZhkE4ccPYuk2s%2FHxzA6QOh%2Fs1gvnSqc22rqqqtgipneLfzJCldXajOvBJo5aC%2FIQzobHpQ7MrVdTm%2FnW%2BXEuZFqJ4XMbo%2FqUOtQ6fWHbaAom%2FT%2FdApHM9yZHH9oxjjAx4HtGm6lEGsCEYe%2BoiCfAdSNuoTL97VEpVFw1UQBQrlg6iL1iE%2FCH2def7xjZsQ%2BN%2BEfyzkKL9pkrjT3ct1CJliI4mRiJiUGKwe0WCjR8kGIfkzjo9lhsYBgeYJi21%2BGBFvdyLAc9OV0FsY9UGWk8MYUCGaRwY%2FfFzsmI1MRZ5vk%2BQDoVT4skJGE22%2Fb9bxoL5axqgd7hWXIRfjVUd7DNjliDdXgcqXlrea3MDgtP9sijSn7D2XnxX%2B4x0ABs0zQOj%2Ba2glPLWa%2Betu%2F%2Fg901wSGmMPGzFa4%2BCrOOSvd8abSDfg%3D%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB47293464&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=27&amp;type=pad&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB5515226606&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>HAVIT Fone de Ouvido Headset Gamer FUXI-H3 Quad-Mode (com fio e sem fio, Wireless 2,4GHz, Bluetooth, Cabo USB-C, Cabo Auxiliar 3.5mm). Surround, Baixa Latência - Branco</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="n">
+        <v>247.06</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_601206-MLA99507658842_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/havit-fone-de-ouvido-headset-gamer-fuxi-h3-quad-mode-com-fio-e-sem-fio-wireless-24ghz-bluetooth-cabo-usb-c-cabo-auxiliar-35mm-surround-baixa-latncia-branco/p/MLB29023671#polycard_client=search-desktop&amp;search_layout=grid&amp;position=42&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB6168302232&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>HAVIT Fone de Ouvido Headset Gamer FUXI-H3 Quad-Mode (com fio e sem fio, Wireless 2,4GHz, Bluetooth, Cabo USB-C, Cabo Auxiliar 3.5mm). Surround, Baixa Latência - Branco</t>
+        </is>
+      </c>
+      <c r="B199" s="2" t="n">
+        <v>247.06</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_601206-MLA99507658842_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/havit-fone-de-ouvido-headset-gamer-fuxi-h3-quad-mode-com-fio-e-sem-fio-wireless-24ghz-bluetooth-cabo-usb-c-cabo-auxiliar-35mm-surround-baixa-latncia-branco/p/MLB29023671#polycard_client=search-desktop&amp;search_layout=grid&amp;position=42&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB6168302232&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>HAVIT Fone de Ouvido Headset Gamer FUXI-H3 Quad-Mode (com fio e sem fio, Wireless 2,4GHz, Bluetooth, Cabo USB-C, Cabo Auxiliar 3.5mm). Surround, Baixa Latência - Branco</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="n">
+        <v>247.06</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_601206-MLA99507658842_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/havit-fone-de-ouvido-headset-gamer-fuxi-h3-quad-mode-com-fio-e-sem-fio-wireless-24ghz-bluetooth-cabo-usb-c-cabo-auxiliar-35mm-surround-baixa-latncia-branco/p/MLB29023671#polycard_client=search-desktop&amp;search_layout=grid&amp;position=42&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB6168302232&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>HAVIT Fone de Ouvido Headset Gamer FUXI-H3 Quad-Mode (com fio e sem fio, Wireless 2,4GHz, Bluetooth, Cabo USB-C, Cabo Auxiliar 3.5mm). Surround, Baixa Latência - Branco</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="n">
+        <v>247.06</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_601206-MLA99507658842_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/havit-fone-de-ouvido-headset-gamer-fuxi-h3-quad-mode-com-fio-e-sem-fio-wireless-24ghz-bluetooth-cabo-usb-c-cabo-auxiliar-35mm-surround-baixa-latncia-branco/p/MLB29023671#polycard_client=search-desktop&amp;search_layout=grid&amp;position=42&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB6168302232&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Fone de ouvido Plantronics Blackwire C3220 USB Tipo A e Tipo C</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="n">
+        <v>257.21</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_903580-MLA99936766793_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-plantronics-blackwire-c3220-usb-tipo-a-e-tipo-c/p/MLB37929237#polycard_client=search-desktop&amp;search_layout=grid&amp;position=50&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4842895118&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Fone de ouvido Plantronics Blackwire C3220 USB Tipo A e Tipo C</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="n">
+        <v>257.21</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_903580-MLA99936766793_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-plantronics-blackwire-c3220-usb-tipo-a-e-tipo-c/p/MLB37929237#polycard_client=search-desktop&amp;search_layout=grid&amp;position=50&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4842895118&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Fone de ouvido Plantronics Blackwire C3220 USB Tipo A e Tipo C</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="n">
+        <v>257.21</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_903580-MLA99936766793_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-plantronics-blackwire-c3220-usb-tipo-a-e-tipo-c/p/MLB37929237#polycard_client=search-desktop&amp;search_layout=grid&amp;position=50&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4842895118&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Fone de ouvido Plantronics Blackwire C3220 USB Tipo A e Tipo C</t>
+        </is>
+      </c>
+      <c r="B205" s="2" t="n">
+        <v>257.21</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_903580-MLA99936766793_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-plantronics-blackwire-c3220-usb-tipo-a-e-tipo-c/p/MLB37929237#polycard_client=search-desktop&amp;search_layout=grid&amp;position=50&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4842895118&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Fones de ouvido Haylou S30 Pro Anc para jogos sem fio/com microfone, Bluetooth 5.4, chamadas viva-voz, cancelamento adaptativo de ruído - 43 db, controlador de 40 mm, reprodução de 80 h, azul escuro</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="n">
+        <v>289.11</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_717968-MLA99447257686_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fones-de-ouvido-haylou-s30-pro-anc-para-jogos-sem-fiocom-microfone-bluetooth-54-chamadas-viva-voz-cancelamento-adaptativo-de-ruido-43-db-controlador-de-40-mm-reproduco-de-80-h-azul-escuro/p/MLB37885949#polycard_client=search-desktop&amp;search_layout=grid&amp;position=29&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB5661005464&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Fones de ouvido Haylou S30 Pro Anc para jogos sem fio/com microfone, Bluetooth 5.4, chamadas viva-voz, cancelamento adaptativo de ruído - 43 db, controlador de 40 mm, reprodução de 80 h, azul escuro</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="n">
+        <v>289.11</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_717968-MLA99447257686_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fones-de-ouvido-haylou-s30-pro-anc-para-jogos-sem-fiocom-microfone-bluetooth-54-chamadas-viva-voz-cancelamento-adaptativo-de-ruido-43-db-controlador-de-40-mm-reproduco-de-80-h-azul-escuro/p/MLB37885949#polycard_client=search-desktop&amp;search_layout=grid&amp;position=29&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB5661005464&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Fones de ouvido Haylou S30 Pro Anc para jogos sem fio/com microfone, Bluetooth 5.4, chamadas viva-voz, cancelamento adaptativo de ruído - 43 db, controlador de 40 mm, reprodução de 80 h, azul escuro</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="n">
+        <v>289.11</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_717968-MLA99447257686_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fones-de-ouvido-haylou-s30-pro-anc-para-jogos-sem-fiocom-microfone-bluetooth-54-chamadas-viva-voz-cancelamento-adaptativo-de-ruido-43-db-controlador-de-40-mm-reproduco-de-80-h-azul-escuro/p/MLB37885949#polycard_client=search-desktop&amp;search_layout=grid&amp;position=29&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB5661005464&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Fones de ouvido Haylou S30 Pro Anc para jogos sem fio/com microfone, Bluetooth 5.4, chamadas viva-voz, cancelamento adaptativo de ruído - 43 db, controlador de 40 mm, reprodução de 80 h, azul escuro</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="n">
+        <v>289.11</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_717968-MLA99447257686_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fones-de-ouvido-haylou-s30-pro-anc-para-jogos-sem-fiocom-microfone-bluetooth-54-chamadas-viva-voz-cancelamento-adaptativo-de-ruido-43-db-controlador-de-40-mm-reproduco-de-80-h-azul-escuro/p/MLB37885949#polycard_client=search-desktop&amp;search_layout=grid&amp;position=29&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB5661005464&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Headset Fone Jabra Evolve 20 Stereo Ms 4999823109 Usb Cor Black</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="n">
+        <v>297.91</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_953161-MLA96155776777_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/headset-fone-jabra-evolve-20-stereo-ms-4999823109-usb-cor-black/p/MLB28089419#polycard_client=search-desktop&amp;search_layout=grid&amp;position=8&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB3946816149&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Headset Fone Jabra Evolve 20 Stereo Ms 4999823109 Usb Cor Black</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="n">
+        <v>297.91</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_953161-MLA96155776777_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/headset-fone-jabra-evolve-20-stereo-ms-4999823109-usb-cor-black/p/MLB28089419#polycard_client=search-desktop&amp;search_layout=grid&amp;position=8&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB3946816149&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Headset Fone Jabra Evolve 20 Stereo Ms 4999823109 Usb Cor Black</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="n">
+        <v>297.91</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_953161-MLA96155776777_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/headset-fone-jabra-evolve-20-stereo-ms-4999823109-usb-cor-black/p/MLB28089419#polycard_client=search-desktop&amp;search_layout=grid&amp;position=8&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB3946816149&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Headset Fone Jabra Evolve 20 Stereo Ms 4999823109 Usb Cor Black</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="n">
+        <v>297.91</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_953161-MLA96155776777_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/headset-fone-jabra-evolve-20-stereo-ms-4999823109-usb-cor-black/p/MLB28089419#polycard_client=search-desktop&amp;search_layout=grid&amp;position=8&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB3946816149&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Headset Gamer Force One Kabuto Rgb Sem Fio</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="n">
+        <v>324</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_803970-MLA99937071915_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-headset-gamer-force-one-kabuto-rgb-sem-fio/p/MLB27899664#polycard_client=search-desktop&amp;search_layout=grid&amp;position=58&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4693483130&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Headset Gamer Force One Kabuto Rgb Sem Fio</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="n">
+        <v>324</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_803970-MLA99937071915_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-headset-gamer-force-one-kabuto-rgb-sem-fio/p/MLB27899664#polycard_client=search-desktop&amp;search_layout=grid&amp;position=58&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4693483130&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Headset Gamer Force One Kabuto Rgb Sem Fio</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="n">
+        <v>324</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_803970-MLA99937071915_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-headset-gamer-force-one-kabuto-rgb-sem-fio/p/MLB27899664#polycard_client=search-desktop&amp;search_layout=grid&amp;position=58&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4693483130&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Fone De Ouvido Headset Gamer Force One Kabuto Rgb Sem Fio</t>
+        </is>
+      </c>
+      <c r="B217" s="2" t="n">
+        <v>324</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_803970-MLA99937071915_112025-E.webp</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-headset-gamer-force-one-kabuto-rgb-sem-fio/p/MLB27899664#polycard_client=search-desktop&amp;search_layout=grid&amp;position=58&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4693483130&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Fones De Ouvido Xiaomi Redmi Buds 5 Pro Midnight Black Color Cor Preto</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="n">
+        <v>399</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_974734-MLA95694523548_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fones-de-ouvido-xiaomi-redmi-buds-5-pro-midnight-black-color-cor-preto/p/MLB29546296#polycard_client=search-desktop&amp;search_layout=grid&amp;position=30&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4193861543&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Fones De Ouvido Xiaomi Redmi Buds 5 Pro Midnight Black Color Cor Preto</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="n">
+        <v>399</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_974734-MLA95694523548_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fones-de-ouvido-xiaomi-redmi-buds-5-pro-midnight-black-color-cor-preto/p/MLB29546296#polycard_client=search-desktop&amp;search_layout=grid&amp;position=30&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4193861543&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Fones De Ouvido Xiaomi Redmi Buds 5 Pro Midnight Black Color Cor Preto</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="n">
+        <v>399</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_974734-MLA95694523548_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fones-de-ouvido-xiaomi-redmi-buds-5-pro-midnight-black-color-cor-preto/p/MLB29546296#polycard_client=search-desktop&amp;search_layout=grid&amp;position=30&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4193861543&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Fones De Ouvido Xiaomi Redmi Buds 5 Pro Midnight Black Color Cor Preto</t>
+        </is>
+      </c>
+      <c r="B221" s="2" t="n">
+        <v>399</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_974734-MLA95694523548_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fones-de-ouvido-xiaomi-redmi-buds-5-pro-midnight-black-color-cor-preto/p/MLB29546296#polycard_client=search-desktop&amp;search_layout=grid&amp;position=30&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4193861543&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Sem Fio para Treinos Soundcore by Anker Sport X20 ANC adaptativo 3.0 Ganchos Ajustáveis Graves Intensos IP68 À Prova de Suor e Poeira 48H de Reprodução Fones para Academia Cor Preto</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="n">
+        <v>484.51</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_775307-MLA96869951449_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=L3zWXh5dH7r%2BGuP7xVkwBinY2sXbqCs8IM3AdfCrbjV6xvfDdRvfPAseKWN3zH81WPdlu%2FnFOcdCSUhh7XxD3T3vOxOO3o9Kx0YCHb0lZhap1YywNUL4ExnIkd3kM74LyaWLunyZFxqkZFO36evPo45WaxmciHfHLhkndHs%2Byn%2Fx3KXPu8nypCVV6DTllg3cXhux7jKEz99UBIV7kSq4gEpoz3J8dAkTTi2rJlq%2BZmirQIyCW6vnQNopEOLZbmDT7mpyIadutGqkg%2FkvAk4WwwdDunNYKRfRnboHrEbm%2Bh%2BhqAYKpXcQ%2BDnxHYZJ%2FA5t3ZZkPja5Rrx9ov9e%2BZmr%2BLCMaZPH%2FZWz84bSnDkwvsUXT072dyy5aQ7edrz5yz1U2CI%2FQwFxYZXSoiPBsGF%2F7y7J4Z8jAGedo8yC3LduURJZurt9LHtR7bqdFzJAIKOavyam0nBnCOGjqeV1Kau5hL2uQ5PUjJ77VOoxoTXhusm4946bvydG3Fe6GG1NoAoABiAQeXeU5jHO9HzapK60n7ETaLD8f%2BfBgixAhD4%2B6RViGiDWk7zgj5CEWQp3w4rEPDJ7vutBvZywTq0UR8ngYeFOoF68%2F2GMmHMgmZts59IVDnIS%2B7tEzSUcLzXN3r6u3KVmaA%2F3DXv9tAnM3GUieKZDQdN1P3L4DWrev1ChBg%2F44lqbme%2BLVX8Rpc4trtfluk2dPIFhBSNOOaiaUQ4EOU3sO5%2BTO4v69wnqfN%2FE4aS9Qf3IkxUuXMAp8g%2B494%2FlVJhtjTNlokdW5PftvWd13ZxgDNERYSrgTrhVPiPKhh62X7G446mNZHTD6cpMJjd6F2pcWhvqBxBEY2UXOlLMdcuL6ZzyByZGW3XLamMm39YLYrxRX1Rq1XGK%2FNeuHa6fB%2FUaVkCsCOREy%2FwF%2B7NKouCydJXPYVsaqYue1FEq51%2B9ZgLugbpu1otJ1hbOJi03FBMDomKGnCZoG6tffZGkxrvEF7ZmsEPYha%2FoJVU9n%2FOwQPeZxKRJOUhDTDx51aexFQlHdrLnNi6wPMX6e7SQyJzXotO2mrSU0ssPZM1fFW3ljdtFvq2HRr29F6T9NIwcHuiMfzLbJ3Ye29FyATK%2Bc1k40HVLKvu1y%2BHoymvOj8tTi1h35tWXfhh%2BUyydje56hQs9NIhenS%2FgU2Yt9%2FcClD4%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB40556246&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=4&amp;type=pad&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4096212535&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Sem Fio para Treinos Soundcore by Anker Sport X20 ANC adaptativo 3.0 Ganchos Ajustáveis Graves Intensos IP68 À Prova de Suor e Poeira 48H de Reprodução Fones para Academia Cor Preto</t>
+        </is>
+      </c>
+      <c r="B223" s="2" t="n">
+        <v>484.51</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_775307-MLA96869951449_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-sem-fio-para-treinos-soundcore-by-anker-sport-x20-anc-adaptativo-30-ganchos-ajustaveis-graves-intensos-ip68-prova-de-suor-e-poeira-48h-de-reproduco-fones-para-academia-cor-preto/p/MLB40556246#polycard_client=search-desktop&amp;search_layout=grid&amp;position=10&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4096212535&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Sem Fio para Treinos Soundcore by Anker Sport X20 ANC adaptativo 3.0 Ganchos Ajustáveis Graves Intensos IP68 À Prova de Suor e Poeira 48H de Reprodução Fones para Academia Cor Preto</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="n">
+        <v>484.51</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_775307-MLA96869951449_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=p5hHRK2GHoV7AaK8lvDhlD6UeJVs7mnct46cmmD0Npk615sVrty3cBZfFzBo7MJkqfe14QaZYCpQmov6yKEcSbnO3iVWzZhqXys4LWR3C02KEp9O%2FUADIN%2FkDSRa2sL78H3Ue6ucWdsxCHcaxdEyA8qPIbJ8aRmb0VBpwSO7wgEUbTCdSLpys9wlWuNJriyirlOdauMHt0ot1vcV9Fj5yPugMK2aUwLxS2%2FsaEMaGtpVyhF0WtXqHmfMV8aQPuDmdurETRIKro7Z%2BmNzEW9JCZrfUoyJ5o7xvEHxgDc6mJh2jDgdhRpaEhPn4CercCfiFyhE63rdep6RS1jwbUcsiFKXNhc%2F1VQn3jpwAApde4uVSxEXp1UZhSoi7tTnvWZLosvdTRe6pQoCajxE%2B5ptiLaImfpBAB9jIEaLbDdd%2F0ekjhIpwVc0TK58%2FYzeJ2yawm6rdXqSz5fEgqVjAf%2FVQV2k8KC6F3Jx98xYg6ZLOURdssqyWoGPOJkrqQdGyRmi%2FkhK5S9SwUUBHeikg04oQEpmXGmXB8BH1016ZHTy%2FnLJ7nsiYaJE3odoD7xCci32AVY7nM0nm5HUD4EpCw5%2BDuEj%2FicPeIN1OfcGn5ygE%2FxKmyFbh28s0trYhEO4SNYoswkp36ij9jXABu2oWQf2UIQWYo%2BhngkkAilPT7Me%2FpwaaytR1aqSVQa3AmFXhqWq4D%2Bx5hqad1LTPMRXZ13omZEbwdY5wOXGN8qVXk3N2AFGrcmpZVpQxISBLxob5gqjo%2Bau%2B3geYbiauw7ghqaEksQ3uChI4Yj%2FxFLjSBR3gnLBkNZz3vql%2FdFZla6E3oYrhBPhDYrgU0jMcVVe66JZr342pS9%2FHWMQFTJ%2FP9Q0k3YkXSBvkBrlPVUli7oPpF2OWMwgOtjzdEAQeGpcK365349n%2BN5Oxu5sghu0c3Ql9gPoLSkRX4u7wosxh%2BspgaZF7oGYkg%2F%2F6bntDWODrnxdAs%2FHLP19RMflxAe1lI%2BJmgu0byD8NGg1W6H1jo8JDTgG0LQjyw2q8WvgeyVqrEW83ndFy6H8GTqj362Hg3kgIv66SOZWfBHjNSwQZGq2mC2z9F2OcQRoyJOi%2BGW3m3IcEjI5U5hzP7l1VjhAvUxrCqlCh3N%2FFskBtZOQyY5vFYIfEpsXxr0pIh86zoevZiEz#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB40556246&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=4&amp;type=pad&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4096212535&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Sem Fio para Treinos Soundcore by Anker Sport X20 ANC adaptativo 3.0 Ganchos Ajustáveis Graves Intensos IP68 À Prova de Suor e Poeira 48H de Reprodução Fones para Academia Cor Preto</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="n">
+        <v>484.51</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_775307-MLA96869951449_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-sem-fio-para-treinos-soundcore-by-anker-sport-x20-anc-adaptativo-30-ganchos-ajustaveis-graves-intensos-ip68-prova-de-suor-e-poeira-48h-de-reproduco-fones-para-academia-cor-preto/p/MLB40556246#polycard_client=search-desktop&amp;search_layout=grid&amp;position=10&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4096212535&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Sem Fio para Treinos Soundcore by Anker Sport X20 ANC adaptativo 3.0 Ganchos Ajustáveis Graves Intensos IP68 À Prova de Suor e Poeira 48H de Reprodução Fones para Academia Cor Preto</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="n">
+        <v>484.51</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_775307-MLA96869951449_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=eMju8A8xaoSpiqqLkWDtcVZO%2BRPyo6OvhzBLA0lET0yxQ9CxQ50jWO7%2F9dGWDYTBLHmwiPahXEO3zHlWFCqN6QQWUZtBRzUma9ZLjYcrXRzRuisvO%2B2tXTLf1n0j2Fb2fznkCXqF8ALfWxFjWJt7oHnuzCojrGInvE1wWGMdwgPqWoAmsCT5g1U1LpwrRxOf4l5uL7o9al3RzeVD2hX2VdvUWLUldNXvwWdgzAc5Cwi2dyPcWZu5C8wOGFtwdVQ%2Bpc3ISjcN7qxnJWf1r1LakC5rFozyqtWF3oRWfKHvwwesNYrZigjlsTEWGUkRtwIAbHKtNfJ%2BegvJP0sjg50gfDcQV0YsIuhyhbKqBn7qZ0zX21k%2BtFEwsZYgyja9BI8cAQsB%2FTAD%2BEzjEZd20v6oAOce99T1SxuLxncBt2Qj89DRdw7CumjoNIJwrTUt41hj9%2BJ9VixcV4EnsQk%2FQCyQiv%2BnbX5I%2FUQwW2VkOkkZOwOdF0ML7hhds1VO0spByf%2Ft1c0ZXJIXifMZt4Cepk78aCvUewILQKpNqjJZizs6ARv61oaniDH5koCd80WBNoB53kZQWaTClrZHa1mE%2FTJLzW5W4f%2FoCdMlk85FGEolknr2M2YAfPXn4Qc4w0ZnW8vKc9k09zatjiAf52dcPpWbXhCMkyXEnAsm%2BZKSmMORBAt37sMVpb58TgZNUF6VQMAt%2BY0B%2B9M%2FTh55D1UtSs0zDPxaKWpk%2FFYvDcLgkRpoX6KorHcCuaXqzcl0QrAat4B3zFk2PaEBkmarWvkvx3tTWtpH2JNFLcgEk8Fwfl6UfLgMU42ldhHYfqfOu4M8fDVEVGT%2Bt9wb0DFOff1a5zt5RaOMAJfvytkJmXvq2ndmAmgwczde01OoNTLp5zMby5AgX%2B%2BVVstTgqVE0vtxmcsi4wPhPWXDG1w5vfIHA63mMo8LESJw0yJQ3rW2jKKjz2k%2BxQNyFEDyG7UiX8ChIwC4%2F0qctuuJ%2F9MO6Lr9JenbKlpQlwBsfxPwrOn71Q5Oh%2Fx0zcnWgKZQMm1EkNvb3oihtGIndn36T%2B4GEKvdu1UVX1v6SIDZIns7cZVAMOdDj5YJiGlG2uQZnEqjnZz7SfdBzObNXZNyzjHUkzz656QPA2JLevSDVKoOPYnKgrvLRKIw3TzYJG8nnpRbKiOEqCzRig%3D%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB40556246&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=4&amp;type=pad&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4096212535&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Sem Fio para Treinos Soundcore by Anker Sport X20 ANC adaptativo 3.0 Ganchos Ajustáveis Graves Intensos IP68 À Prova de Suor e Poeira 48H de Reprodução Fones para Academia Cor Preto</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>484.51</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_775307-MLA96869951449_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-sem-fio-para-treinos-soundcore-by-anker-sport-x20-anc-adaptativo-30-ganchos-ajustaveis-graves-intensos-ip68-prova-de-suor-e-poeira-48h-de-reproduco-fones-para-academia-cor-preto/p/MLB40556246#polycard_client=search-desktop&amp;search_layout=grid&amp;position=10&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4096212535&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Sem Fio para Treinos Soundcore by Anker Sport X20 ANC adaptativo 3.0 Ganchos Ajustáveis Graves Intensos IP68 À Prova de Suor e Poeira 48H de Reprodução Fones para Academia Cor Preto</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>484.51</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_775307-MLA96869951449_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>https://click1.mercadolivre.com.br/mclics/clicks/external/MLB/count?a=1VHgRB66Vlj4SvdX3PCjiBoGVVZmKpd6oXLAO5guCrRjEqBuxxtyctACg1lJ8aQDs3CAZ0MHZ12DeN3PXeEGSNl2CpFMr%2Fimw1%2FM7K0aC3rUEc3qW8MwEfo8IwoSRjfCTmZezHuchEWLd2CkBUDl%2FT0E15QfZthChyUO7t4tzIfh8lKC0sb4qeDy1ofTA%2F%2BeYSAj07EJXYwTPTHCGjQYMLSJxrMAMx1VKHhU4nbqwdcxa431jUo0Cqoxc9YRU8kXPBvfSV%2FSemnyuDx9gPYz9wNk8Bt9ToExob%2F2p5WzH3PMbVLPUHfkOcvPqA%2BmR6p8eotWcrGgrFJXOshuL5RYCSpdiDbfnao6XFlRrt%2BgnqYaK%2FhEQC9pp8PKwysAFNVGToEKG1J1UkDdeVVwjYUNJvFiYdQjBkxtuPWpE65DIpnKrY9kVjJQQzx0uUJjGZBUvCSlgBVgJQx7ZVuCXzdjnkpVV6dd5zeLNBvBmqE4eJLZnruBJEaCTX93mBmM%2Fwe27MFnTjQE4Th%2Fr0VCGcxGdv9m8X27RMiryftqz9COLOE75B1AwB%2Fr9yaznweRRPsojGasv98VZuou3rNjCgLNvRAnPWP7RteLhB52RRuhI%2FLrPZ%2BSQwgEAJvRD0iy%2F93qSHVw%2FKVlSKBWvyxAe98WKwkx8VMICMM38e%2BnwqWpgpIHO5M1%2FMrIMfKMFTaoWr9ZyQFKXquMcmvxQZ7ORxGBXY%2FIU00rgvdKJ8JMFU0rPBxPOd61wRS8YWDrygmhTYlAIUkhmyKQbtcZBGCX2rGW9jqRumALvnV%2BmkcTIHU3DyuAhwEbiWDyl8MG8IQRXCFLeOTpJ732q4kKoXCw3fHyWYOZK4i7LFZMs1tJ3EZXR0Atx6%2FuberXD%2B9gzl4LGzXYc8vl%2B945D52PPV1AY%2BNmb98SBMOsCg6ZFA0cqxOBU4541rHWFYJspZYkeEUe09lnZ3JkGDH2jmBf0cHfWaizkZSyoQSLTQz2jHPrzXEoDwoehqgFhcFS98yBzHok4E7kLYbS2hUxj4qKAjBm2P8dV8SJhdMuJfchQ81b7yyLzzkmK9fQCloXO%2FdvwaUZj5L7VIL%2FsrOMIH3%2FTdIr8V9BwUghsU3QYGZpmAyvwMjvA4C8WWe9J4P5p7wZo%2BduEeygc2xoAY4XMWtT08bMLR7Spfo%3D#polycard_client=search-desktop&amp;is_advertising=true&amp;searchVariation=MLB40556246&amp;backend_model=search-backend&amp;search_layout=grid&amp;position=4&amp;type=pad&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4096212535&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Fone de Ouvido Sem Fio para Treinos Soundcore by Anker Sport X20 ANC adaptativo 3.0 Ganchos Ajustáveis Graves Intensos IP68 À Prova de Suor e Poeira 48H de Reprodução Fones para Academia Cor Preto</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="n">
+        <v>484.51</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_775307-MLA96869951449_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-de-ouvido-sem-fio-para-treinos-soundcore-by-anker-sport-x20-anc-adaptativo-30-ganchos-ajustaveis-graves-intensos-ip68-prova-de-suor-e-poeira-48h-de-reproduco-fones-para-academia-cor-preto/p/MLB40556246#polycard_client=search-desktop&amp;search_layout=grid&amp;position=10&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4096212535&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Apple AirPods Pro 3</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="n">
+        <v>2033</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_983699-MLA96154876825_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/apple-airpods-pro-3/p/MLB54106888#polycard_client=search-desktop&amp;search_layout=grid&amp;position=24&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB5765215694&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Apple AirPods Pro 3</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="n">
+        <v>2033</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_983699-MLA96154876825_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/apple-airpods-pro-3/p/MLB54106888#polycard_client=search-desktop&amp;search_layout=grid&amp;position=24&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB5765215694&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Apple AirPods Pro 3</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="n">
+        <v>2033</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_983699-MLA96154876825_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/apple-airpods-pro-3/p/MLB54106888#polycard_client=search-desktop&amp;search_layout=grid&amp;position=24&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB5765215694&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Apple AirPods Pro 3</t>
+        </is>
+      </c>
+      <c r="B233" s="2" t="n">
+        <v>2033</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_983699-MLA96154876825_102025-E.webp</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/apple-airpods-pro-3/p/MLB54106888#polycard_client=search-desktop&amp;search_layout=grid&amp;position=24&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB5765215694&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Fone 5 Headset Intercomunicador Synco Xtalk X5 Completo</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="n">
+        <v>2769</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_863433-MLA79874057585_102024-E.webp</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-5-headset-intercomunicador-synco-xtalk-x5-completo/p/MLB41738375#polycard_client=search-desktop&amp;search_layout=grid&amp;position=22&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB5423335578&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Fones de ouvido sem fio Synco Xtalk X5 com microfone preto</t>
+        </is>
+      </c>
+      <c r="B235" s="2" t="n">
+        <v>2769</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_882204-MLA100038903811_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fones-de-ouvido-sem-fio-synco-xtalk-x5-com-microfone-preto/p/MLB43580022#polycard_client=search-desktop&amp;search_layout=grid&amp;position=38&amp;type=product&amp;tracking_id=687606f3-f741-4513-862d-e6bb7761cf4d&amp;wid=MLB4115505903&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Fone 5 Headset Intercomunicador Synco Xtalk X5 Completo</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="n">
+        <v>2769</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_863433-MLA79874057585_102024-E.webp</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-5-headset-intercomunicador-synco-xtalk-x5-completo/p/MLB41738375#polycard_client=search-desktop&amp;search_layout=grid&amp;position=22&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB5423335578&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Fones de ouvido sem fio Synco Xtalk X5 com microfone preto</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="n">
+        <v>2769</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_882204-MLA100038903811_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fones-de-ouvido-sem-fio-synco-xtalk-x5-com-microfone-preto/p/MLB43580022#polycard_client=search-desktop&amp;search_layout=grid&amp;position=38&amp;type=product&amp;tracking_id=85ad7dda-2eb9-462c-bf83-c089d320d0ae&amp;wid=MLB4115505903&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Fone 5 Headset Intercomunicador Synco Xtalk X5 Completo</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="n">
+        <v>2769</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_863433-MLA79874057585_102024-E.webp</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-5-headset-intercomunicador-synco-xtalk-x5-completo/p/MLB41738375#polycard_client=search-desktop&amp;search_layout=grid&amp;position=22&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB5423335578&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Fones de ouvido sem fio Synco Xtalk X5 com microfone preto</t>
+        </is>
+      </c>
+      <c r="B239" s="2" t="n">
+        <v>2769</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_882204-MLA100038903811_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fones-de-ouvido-sem-fio-synco-xtalk-x5-com-microfone-preto/p/MLB43580022#polycard_client=search-desktop&amp;search_layout=grid&amp;position=38&amp;type=product&amp;tracking_id=9fb24556-09d5-4f9d-b0e4-7bf3048cef47&amp;wid=MLB4115505903&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Fone 5 Headset Intercomunicador Synco Xtalk X5 Completo</t>
+        </is>
+      </c>
+      <c r="B240" s="2" t="n">
+        <v>2769</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_863433-MLA79874057585_102024-E.webp</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fone-5-headset-intercomunicador-synco-xtalk-x5-completo/p/MLB41738375#polycard_client=search-desktop&amp;search_layout=grid&amp;position=22&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB5423335578&amp;sid=search</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Fones de ouvido sem fio Synco Xtalk X5 com microfone preto</t>
+        </is>
+      </c>
+      <c r="B241" s="2" t="n">
+        <v>2769</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>https://http2.mlstatic.com/D_Q_NP_2X_882204-MLA100038903811_122025-E.webp</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fones-de-ouvido-sem-fio-synco-xtalk-x5-com-microfone-preto/p/MLB43580022#polycard_client=search-desktop&amp;search_layout=grid&amp;position=38&amp;type=product&amp;tracking_id=0d9f6fa3-d0be-4dd3-a41d-e9212aa1fd5e&amp;wid=MLB4115505903&amp;sid=search</t>
         </is>
       </c>
     </row>
